--- a/AAII_Financials/Quarterly/DDAIF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DDAIF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,221 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>47510500</v>
+        <v>41228200</v>
       </c>
       <c r="E8" s="3">
-        <v>46829700</v>
+        <v>52197900</v>
       </c>
       <c r="F8" s="3">
-        <v>43588400</v>
+        <v>47925900</v>
       </c>
       <c r="G8" s="3">
-        <v>51177800</v>
+        <v>47239100</v>
       </c>
       <c r="H8" s="3">
-        <v>44151700</v>
+        <v>43969500</v>
       </c>
       <c r="I8" s="3">
+        <v>51625200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>44537700</v>
+      </c>
+      <c r="K8" s="3">
         <v>44750100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>43683900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>48933300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>45715500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>46241700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>45287900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>48127400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>45305500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>37986400</v>
+        <v>34106300</v>
       </c>
       <c r="E9" s="3">
-        <v>38356400</v>
+        <v>39035100</v>
       </c>
       <c r="F9" s="3">
-        <v>35275400</v>
+        <v>38318500</v>
       </c>
       <c r="G9" s="3">
-        <v>42143400</v>
+        <v>38691800</v>
       </c>
       <c r="H9" s="3">
-        <v>35407200</v>
+        <v>35583900</v>
       </c>
       <c r="I9" s="3">
+        <v>42511900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>35716800</v>
+      </c>
+      <c r="K9" s="3">
         <v>35691600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>34213700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>38599800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>36155000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>36374900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>35893900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>38207500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>34973700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9524100</v>
+        <v>7121900</v>
       </c>
       <c r="E10" s="3">
-        <v>8473300</v>
+        <v>13162700</v>
       </c>
       <c r="F10" s="3">
-        <v>8313000</v>
+        <v>9607300</v>
       </c>
       <c r="G10" s="3">
-        <v>9034300</v>
+        <v>8547300</v>
       </c>
       <c r="H10" s="3">
-        <v>8744500</v>
+        <v>8385600</v>
       </c>
       <c r="I10" s="3">
+        <v>9113300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>8820900</v>
+      </c>
+      <c r="K10" s="3">
         <v>9058500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>9470300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>10333500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>9560500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>9866800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>9394000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>9919900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>10331900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,52 +896,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1936900</v>
+        <v>1907300</v>
       </c>
       <c r="E12" s="3">
-        <v>1722800</v>
+        <v>1715700</v>
       </c>
       <c r="F12" s="3">
-        <v>1871000</v>
+        <v>1953800</v>
       </c>
       <c r="G12" s="3">
-        <v>1618500</v>
+        <v>1737800</v>
       </c>
       <c r="H12" s="3">
-        <v>1949000</v>
+        <v>1887400</v>
       </c>
       <c r="I12" s="3">
+        <v>1632600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1966000</v>
+      </c>
+      <c r="K12" s="3">
         <v>1778800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1879800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1603300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1847900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1586500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1699700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1711400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1523600</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -960,25 +992,31 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>796400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4995300</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>2383800</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-788400</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+      <c r="G14" s="3">
+        <v>2404600</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-795300</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1004,8 +1042,14 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,8 +1092,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1113,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>44653500</v>
+        <v>40569200</v>
       </c>
       <c r="E17" s="3">
-        <v>48675400</v>
+        <v>51659600</v>
       </c>
       <c r="F17" s="3">
-        <v>40635900</v>
+        <v>45043900</v>
       </c>
       <c r="G17" s="3">
-        <v>48179100</v>
+        <v>49101000</v>
       </c>
       <c r="H17" s="3">
-        <v>41998500</v>
+        <v>40991200</v>
       </c>
       <c r="I17" s="3">
+        <v>48600400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>42365700</v>
+      </c>
+      <c r="K17" s="3">
         <v>41811800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>40518400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>45339600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>42011800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>42363000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>41665600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>44481500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>40581000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2857000</v>
+        <v>659000</v>
       </c>
       <c r="E18" s="3">
-        <v>-1845700</v>
+        <v>538300</v>
       </c>
       <c r="F18" s="3">
-        <v>2952500</v>
+        <v>2882000</v>
       </c>
       <c r="G18" s="3">
-        <v>2998600</v>
+        <v>-1861900</v>
       </c>
       <c r="H18" s="3">
-        <v>2153200</v>
+        <v>2978300</v>
       </c>
       <c r="I18" s="3">
+        <v>3024900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2172000</v>
+      </c>
+      <c r="K18" s="3">
         <v>2938200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3165500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3593700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3703700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3878700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3622400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3645900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>4724600</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,228 +1233,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>141600</v>
+        <v>65300</v>
       </c>
       <c r="E20" s="3">
-        <v>217400</v>
+        <v>-58700</v>
       </c>
       <c r="F20" s="3">
-        <v>157000</v>
+        <v>142900</v>
       </c>
       <c r="G20" s="3">
-        <v>-20900</v>
+        <v>219300</v>
       </c>
       <c r="H20" s="3">
-        <v>610500</v>
+        <v>158400</v>
       </c>
       <c r="I20" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>615800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>516100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>242300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>117800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>316400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>807600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>409700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5103500</v>
+        <v>2918500</v>
       </c>
       <c r="E21" s="3">
-        <v>395300</v>
+        <v>2905200</v>
       </c>
       <c r="F21" s="3">
-        <v>5087000</v>
+        <v>5148100</v>
       </c>
       <c r="G21" s="3">
-        <v>4876200</v>
+        <v>398700</v>
       </c>
       <c r="H21" s="3">
-        <v>4523800</v>
+        <v>5131500</v>
       </c>
       <c r="I21" s="3">
+        <v>4918900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4563300</v>
+      </c>
+      <c r="K21" s="3">
         <v>4576500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>5304400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>5539300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>5374300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>5749100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>6060400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>5675400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>6385500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>171300</v>
+        <v>126300</v>
       </c>
       <c r="E22" s="3">
-        <v>207500</v>
+        <v>142900</v>
       </c>
       <c r="F22" s="3">
-        <v>229500</v>
+        <v>172800</v>
       </c>
       <c r="G22" s="3">
-        <v>262400</v>
+        <v>209300</v>
       </c>
       <c r="H22" s="3">
-        <v>188900</v>
+        <v>231500</v>
       </c>
       <c r="I22" s="3">
+        <v>264700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>190500</v>
+      </c>
+      <c r="K22" s="3">
         <v>157000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>116400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>115600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>108800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>98700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>97400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>111500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2827400</v>
+        <v>598100</v>
       </c>
       <c r="E23" s="3">
-        <v>-1835900</v>
+        <v>336700</v>
       </c>
       <c r="F23" s="3">
-        <v>2880100</v>
+        <v>2852100</v>
       </c>
       <c r="G23" s="3">
-        <v>2715400</v>
+        <v>-1851900</v>
       </c>
       <c r="H23" s="3">
-        <v>2574800</v>
+        <v>2905200</v>
       </c>
       <c r="I23" s="3">
+        <v>2739100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2597300</v>
+      </c>
+      <c r="K23" s="3">
         <v>2777900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3565200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>3720500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>3712700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>4096400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>4332500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>3944000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>4648300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>836700</v>
+        <v>412000</v>
       </c>
       <c r="E24" s="3">
-        <v>-472100</v>
+        <v>348900</v>
       </c>
       <c r="F24" s="3">
-        <v>520500</v>
+        <v>844000</v>
       </c>
       <c r="G24" s="3">
-        <v>912400</v>
+        <v>-476300</v>
       </c>
       <c r="H24" s="3">
-        <v>641200</v>
+        <v>525000</v>
       </c>
       <c r="I24" s="3">
+        <v>920400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>646800</v>
+      </c>
+      <c r="K24" s="3">
         <v>774100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>980500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>112200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1202800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1277900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1219600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1354600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1448500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1529,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1990700</v>
+        <v>186100</v>
       </c>
       <c r="E26" s="3">
-        <v>-1363700</v>
+        <v>-12200</v>
       </c>
       <c r="F26" s="3">
-        <v>2359600</v>
+        <v>2008100</v>
       </c>
       <c r="G26" s="3">
-        <v>1802900</v>
+        <v>-1375600</v>
       </c>
       <c r="H26" s="3">
-        <v>1933600</v>
+        <v>2380200</v>
       </c>
       <c r="I26" s="3">
+        <v>1818700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1950500</v>
+      </c>
+      <c r="K26" s="3">
         <v>2003900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2584700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3608300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2509900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2818400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>3112900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2589400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>3199800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1887500</v>
+        <v>104100</v>
       </c>
       <c r="E27" s="3">
-        <v>-1458100</v>
+        <v>-120700</v>
       </c>
       <c r="F27" s="3">
-        <v>2300300</v>
+        <v>1904000</v>
       </c>
       <c r="G27" s="3">
-        <v>1714000</v>
+        <v>-1470900</v>
       </c>
       <c r="H27" s="3">
-        <v>1854500</v>
+        <v>2320400</v>
       </c>
       <c r="I27" s="3">
+        <v>1729000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1870700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1895100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2495800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3513000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2407800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2742100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>3001400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2522500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,8 +1679,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1609,8 +1729,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1779,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1829,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-141600</v>
+        <v>-65300</v>
       </c>
       <c r="E32" s="3">
-        <v>-217400</v>
+        <v>58700</v>
       </c>
       <c r="F32" s="3">
-        <v>-157000</v>
+        <v>-142900</v>
       </c>
       <c r="G32" s="3">
-        <v>20900</v>
+        <v>-219300</v>
       </c>
       <c r="H32" s="3">
-        <v>-610500</v>
+        <v>-158400</v>
       </c>
       <c r="I32" s="3">
+        <v>21000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-615800</v>
+      </c>
+      <c r="K32" s="3">
         <v>3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-516100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-242300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-117800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-316400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-807600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-409700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1887500</v>
+        <v>104100</v>
       </c>
       <c r="E33" s="3">
-        <v>-1458100</v>
+        <v>-120700</v>
       </c>
       <c r="F33" s="3">
-        <v>2300300</v>
+        <v>1904000</v>
       </c>
       <c r="G33" s="3">
-        <v>1714000</v>
+        <v>-1470900</v>
       </c>
       <c r="H33" s="3">
-        <v>1854500</v>
+        <v>2320400</v>
       </c>
       <c r="I33" s="3">
+        <v>1729000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1870700</v>
+      </c>
+      <c r="K33" s="3">
         <v>1895100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2495800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3513000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2407800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2742100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>3001400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2522500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1979,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1887500</v>
+        <v>104100</v>
       </c>
       <c r="E35" s="3">
-        <v>-1458100</v>
+        <v>-120700</v>
       </c>
       <c r="F35" s="3">
-        <v>2300300</v>
+        <v>1904000</v>
       </c>
       <c r="G35" s="3">
-        <v>1714000</v>
+        <v>-1470900</v>
       </c>
       <c r="H35" s="3">
-        <v>1854500</v>
+        <v>2320400</v>
       </c>
       <c r="I35" s="3">
+        <v>1729000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1870700</v>
+      </c>
+      <c r="K35" s="3">
         <v>1895100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2495800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3513000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2407800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2742100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>3001400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2522500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2108,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,404 +2128,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18653900</v>
+        <v>17876700</v>
       </c>
       <c r="E41" s="3">
-        <v>13745900</v>
+        <v>20914800</v>
       </c>
       <c r="F41" s="3">
-        <v>18224600</v>
+        <v>18817000</v>
       </c>
       <c r="G41" s="3">
-        <v>17406600</v>
+        <v>13866000</v>
       </c>
       <c r="H41" s="3">
-        <v>16485400</v>
+        <v>18383900</v>
       </c>
       <c r="I41" s="3">
+        <v>17558800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>16629500</v>
+      </c>
+      <c r="K41" s="3">
         <v>15738700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>15435700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>13544700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>19523700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>14580300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>15219600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>12889600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>16655200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12742300</v>
+        <v>12119400</v>
       </c>
       <c r="E42" s="3">
-        <v>13404400</v>
+        <v>11763800</v>
       </c>
       <c r="F42" s="3">
-        <v>13467000</v>
+        <v>12853700</v>
       </c>
       <c r="G42" s="3">
-        <v>12983900</v>
+        <v>13521600</v>
       </c>
       <c r="H42" s="3">
-        <v>14085100</v>
+        <v>13584700</v>
       </c>
       <c r="I42" s="3">
+        <v>13097400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>14208300</v>
+      </c>
+      <c r="K42" s="3">
         <v>15096400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>14413400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>14221200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>14027100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>13316900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>13057500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>14655000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>13659600</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>66110600</v>
+        <v>64779100</v>
       </c>
       <c r="E43" s="3">
-        <v>64529500</v>
+        <v>69904000</v>
       </c>
       <c r="F43" s="3">
-        <v>65598900</v>
+        <v>66688600</v>
       </c>
       <c r="G43" s="3">
-        <v>63712500</v>
+        <v>65093700</v>
       </c>
       <c r="H43" s="3">
-        <v>60637100</v>
+        <v>66172500</v>
       </c>
       <c r="I43" s="3">
+        <v>64269600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>61167200</v>
+      </c>
+      <c r="K43" s="3">
         <v>57758100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>56931300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>57725300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>54084400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>53110500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>56567100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>56624600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>53759300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>39036100</v>
+        <v>35657000</v>
       </c>
       <c r="E44" s="3">
-        <v>36738000</v>
+        <v>32958900</v>
       </c>
       <c r="F44" s="3">
-        <v>36788500</v>
+        <v>39377400</v>
       </c>
       <c r="G44" s="3">
-        <v>32378900</v>
+        <v>37059200</v>
       </c>
       <c r="H44" s="3">
-        <v>35274300</v>
+        <v>37110100</v>
       </c>
       <c r="I44" s="3">
+        <v>32662000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>35582800</v>
+      </c>
+      <c r="K44" s="3">
         <v>32008900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>30281700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>28819400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>30246600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>29426400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>31289100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>29796000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>31845500</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6134500</v>
+        <v>6368700</v>
       </c>
       <c r="E45" s="3">
-        <v>6241000</v>
+        <v>6009800</v>
       </c>
       <c r="F45" s="3">
-        <v>6491400</v>
+        <v>6188200</v>
       </c>
       <c r="G45" s="3">
-        <v>7049200</v>
+        <v>6295600</v>
       </c>
       <c r="H45" s="3">
-        <v>6774700</v>
+        <v>6548100</v>
       </c>
       <c r="I45" s="3">
+        <v>7110800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>6833900</v>
+      </c>
+      <c r="K45" s="3">
         <v>6323400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5979700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5625700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>5643600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>5530300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>5720000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>5824400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>5884300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>142677400</v>
+        <v>136800800</v>
       </c>
       <c r="E46" s="3">
-        <v>134658700</v>
+        <v>141551300</v>
       </c>
       <c r="F46" s="3">
-        <v>140570400</v>
+        <v>143924900</v>
       </c>
       <c r="G46" s="3">
-        <v>133531100</v>
+        <v>135836100</v>
       </c>
       <c r="H46" s="3">
-        <v>133256600</v>
+        <v>141799400</v>
       </c>
       <c r="I46" s="3">
+        <v>134698600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>134421700</v>
+      </c>
+      <c r="K46" s="3">
         <v>126925500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>123041900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>119936200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>123525500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>115964400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>121853200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>119789700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>121803900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>69866800</v>
+        <v>70467700</v>
       </c>
       <c r="E47" s="3">
-        <v>68812800</v>
+        <v>69719000</v>
       </c>
       <c r="F47" s="3">
-        <v>69350800</v>
+        <v>70477700</v>
       </c>
       <c r="G47" s="3">
-        <v>65490200</v>
+        <v>69414400</v>
       </c>
       <c r="H47" s="3">
-        <v>63317300</v>
+        <v>69957100</v>
       </c>
       <c r="I47" s="3">
+        <v>66062800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>63870900</v>
+      </c>
+      <c r="K47" s="3">
         <v>63911300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>63030700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>62396100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>60986900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>59315100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>62174400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>59838500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>58128200</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>96930300</v>
+        <v>97275000</v>
       </c>
       <c r="E48" s="3">
-        <v>94605900</v>
+        <v>98161100</v>
       </c>
       <c r="F48" s="3">
-        <v>93715400</v>
+        <v>97777800</v>
       </c>
       <c r="G48" s="3">
-        <v>88305600</v>
+        <v>95433000</v>
       </c>
       <c r="H48" s="3">
-        <v>86343400</v>
+        <v>94534800</v>
       </c>
       <c r="I48" s="3">
+        <v>89077600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>87098300</v>
+      </c>
+      <c r="K48" s="3">
         <v>85089500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>82541100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>84211000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>83246000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>82615500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>86853700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>86067300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>77534800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17429700</v>
+        <v>18060500</v>
       </c>
       <c r="E49" s="3">
-        <v>16890500</v>
+        <v>17697200</v>
       </c>
       <c r="F49" s="3">
-        <v>16498500</v>
+        <v>17582000</v>
       </c>
       <c r="G49" s="3">
-        <v>16251500</v>
+        <v>17038200</v>
       </c>
       <c r="H49" s="3">
-        <v>15953900</v>
+        <v>16642800</v>
       </c>
       <c r="I49" s="3">
+        <v>16393600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>16093400</v>
+      </c>
+      <c r="K49" s="3">
         <v>15661900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>15330300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>15410500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>14909000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>14512900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>14723100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>14200800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>12920100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2624,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2674,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8401900</v>
+        <v>7087500</v>
       </c>
       <c r="E52" s="3">
-        <v>8043900</v>
+        <v>7851800</v>
       </c>
       <c r="F52" s="3">
-        <v>6516600</v>
+        <v>8475400</v>
       </c>
       <c r="G52" s="3">
-        <v>5639300</v>
+        <v>8114300</v>
       </c>
       <c r="H52" s="3">
-        <v>4811400</v>
+        <v>6573600</v>
       </c>
       <c r="I52" s="3">
+        <v>5688600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4853500</v>
+      </c>
+      <c r="K52" s="3">
         <v>4945400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4596200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4540700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>4130000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4270300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5344400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>5325600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>5596700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2774,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>335306100</v>
+        <v>329691500</v>
       </c>
       <c r="E54" s="3">
-        <v>323011800</v>
+        <v>334980300</v>
       </c>
       <c r="F54" s="3">
-        <v>326651700</v>
+        <v>338237800</v>
       </c>
       <c r="G54" s="3">
-        <v>309217700</v>
+        <v>325836000</v>
       </c>
       <c r="H54" s="3">
-        <v>303682600</v>
+        <v>329507700</v>
       </c>
       <c r="I54" s="3">
+        <v>311921200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>306337800</v>
+      </c>
+      <c r="K54" s="3">
         <v>296533600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>288540100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>286494500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>286797500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>276678200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>290948800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>285221700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>275983900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2848,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,272 +2868,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17753600</v>
+        <v>15702400</v>
       </c>
       <c r="E57" s="3">
-        <v>16683000</v>
+        <v>14074300</v>
       </c>
       <c r="F57" s="3">
-        <v>17306700</v>
+        <v>17908800</v>
       </c>
       <c r="G57" s="3">
-        <v>15575100</v>
+        <v>16828900</v>
       </c>
       <c r="H57" s="3">
-        <v>18024800</v>
+        <v>17458000</v>
       </c>
       <c r="I57" s="3">
+        <v>15711300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>18182400</v>
+      </c>
+      <c r="K57" s="3">
         <v>17256200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>16321800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>13969900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>17054200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>15677600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>16264300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>13577500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>16265500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>66163300</v>
+        <v>68252500</v>
       </c>
       <c r="E58" s="3">
-        <v>71494100</v>
+        <v>69336900</v>
       </c>
       <c r="F58" s="3">
-        <v>65529700</v>
+        <v>66741800</v>
       </c>
       <c r="G58" s="3">
-        <v>61751500</v>
+        <v>72119200</v>
       </c>
       <c r="H58" s="3">
-        <v>58433400</v>
+        <v>66102700</v>
       </c>
       <c r="I58" s="3">
+        <v>62291400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>58944300</v>
+      </c>
+      <c r="K58" s="3">
         <v>55475400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>53963400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>54692500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>50942800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>50789100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>51668800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>55507100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>52715800</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33371500</v>
+        <v>30994000</v>
       </c>
       <c r="E59" s="3">
-        <v>32131900</v>
+        <v>33775200</v>
       </c>
       <c r="F59" s="3">
-        <v>31553200</v>
+        <v>33663300</v>
       </c>
       <c r="G59" s="3">
-        <v>30224600</v>
+        <v>32412800</v>
       </c>
       <c r="H59" s="3">
-        <v>29806300</v>
+        <v>31829100</v>
       </c>
       <c r="I59" s="3">
+        <v>30488900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>30066900</v>
+      </c>
+      <c r="K59" s="3">
         <v>28935600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>28596300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>29650800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>27662700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>26797600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>34037000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>30051900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>28641000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>117288400</v>
+        <v>114948900</v>
       </c>
       <c r="E60" s="3">
-        <v>120309000</v>
+        <v>117186300</v>
       </c>
       <c r="F60" s="3">
-        <v>114389600</v>
+        <v>118313800</v>
       </c>
       <c r="G60" s="3">
-        <v>107551300</v>
+        <v>121360800</v>
       </c>
       <c r="H60" s="3">
-        <v>106264400</v>
+        <v>115389800</v>
       </c>
       <c r="I60" s="3">
+        <v>108491600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>107193500</v>
+      </c>
+      <c r="K60" s="3">
         <v>101667100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>98881500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>98313300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>95659700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>93264300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>101970000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>99136500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>97622300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>109237800</v>
+        <v>107101600</v>
       </c>
       <c r="E61" s="3">
-        <v>97711000</v>
+        <v>109850700</v>
       </c>
       <c r="F61" s="3">
-        <v>104562500</v>
+        <v>110192900</v>
       </c>
       <c r="G61" s="3">
-        <v>97350900</v>
+        <v>98565300</v>
       </c>
       <c r="H61" s="3">
-        <v>96523000</v>
+        <v>105476700</v>
       </c>
       <c r="I61" s="3">
+        <v>98202000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>97366900</v>
+      </c>
+      <c r="K61" s="3">
         <v>95093400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>88104600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>87939300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>88054900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>83288700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>86016800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>82633900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>78530200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>39856300</v>
+        <v>37681700</v>
       </c>
       <c r="E62" s="3">
-        <v>37157400</v>
+        <v>38340700</v>
       </c>
       <c r="F62" s="3">
-        <v>33182700</v>
+        <v>40204800</v>
       </c>
       <c r="G62" s="3">
-        <v>31789300</v>
+        <v>37482300</v>
       </c>
       <c r="H62" s="3">
-        <v>28918000</v>
+        <v>33472800</v>
       </c>
       <c r="I62" s="3">
+        <v>32067200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>29170900</v>
+      </c>
+      <c r="K62" s="3">
         <v>29285900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>28112100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>27134200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>32700400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>32046300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>34324600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>34040500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>35561700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3214,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3264,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3314,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>267928500</v>
+        <v>261426800</v>
       </c>
       <c r="E66" s="3">
-        <v>256600400</v>
+        <v>267035700</v>
       </c>
       <c r="F66" s="3">
-        <v>253696200</v>
+        <v>270271000</v>
       </c>
       <c r="G66" s="3">
-        <v>238213300</v>
+        <v>258843900</v>
       </c>
       <c r="H66" s="3">
-        <v>233162500</v>
+        <v>255914300</v>
       </c>
       <c r="I66" s="3">
+        <v>240296000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>235201100</v>
+      </c>
+      <c r="K66" s="3">
         <v>227401300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>216609000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>214834200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>217724400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>209829000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>223534500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>217199500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>212960800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3388,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3434,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3484,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3534,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3584,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>50465200</v>
+        <v>51979700</v>
       </c>
       <c r="E72" s="3">
-        <v>49777800</v>
+        <v>51314000</v>
       </c>
       <c r="F72" s="3">
-        <v>56312000</v>
+        <v>50906400</v>
       </c>
       <c r="G72" s="3">
-        <v>54340000</v>
+        <v>50213000</v>
       </c>
       <c r="H72" s="3">
-        <v>53893100</v>
+        <v>56804400</v>
       </c>
       <c r="I72" s="3">
+        <v>54815100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>54364300</v>
+      </c>
+      <c r="K72" s="3">
         <v>51995800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>54531100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>53354000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>50207900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>47608300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>47154300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>47865600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>42799500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3684,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3734,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3784,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>67377700</v>
+        <v>68264700</v>
       </c>
       <c r="E76" s="3">
-        <v>66411400</v>
+        <v>67944600</v>
       </c>
       <c r="F76" s="3">
-        <v>72955500</v>
+        <v>67966800</v>
       </c>
       <c r="G76" s="3">
-        <v>71004400</v>
+        <v>66992100</v>
       </c>
       <c r="H76" s="3">
-        <v>70520100</v>
+        <v>73593400</v>
       </c>
       <c r="I76" s="3">
+        <v>71625200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>71136700</v>
+      </c>
+      <c r="K76" s="3">
         <v>69132300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>71931100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>71660400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>69073100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>66849300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>67414300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>68022300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>63023000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3884,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1887500</v>
+        <v>104100</v>
       </c>
       <c r="E81" s="3">
-        <v>-1458100</v>
+        <v>-120700</v>
       </c>
       <c r="F81" s="3">
-        <v>2300300</v>
+        <v>1904000</v>
       </c>
       <c r="G81" s="3">
-        <v>1714000</v>
+        <v>-1470900</v>
       </c>
       <c r="H81" s="3">
-        <v>1854500</v>
+        <v>2320400</v>
       </c>
       <c r="I81" s="3">
+        <v>1729000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1870700</v>
+      </c>
+      <c r="K81" s="3">
         <v>1895100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2495800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3513000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2407800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2742100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>3001400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2522500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +4013,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2104900</v>
+        <v>2194200</v>
       </c>
       <c r="E83" s="3">
-        <v>2023600</v>
+        <v>2425600</v>
       </c>
       <c r="F83" s="3">
-        <v>1977500</v>
+        <v>2123300</v>
       </c>
       <c r="G83" s="3">
-        <v>1898400</v>
+        <v>2041300</v>
       </c>
       <c r="H83" s="3">
-        <v>1760100</v>
+        <v>1994800</v>
       </c>
       <c r="I83" s="3">
+        <v>1915000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1775500</v>
+      </c>
+      <c r="K83" s="3">
         <v>1641500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1622800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1703200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1552800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1554000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>1630400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1619900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +4109,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +4159,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4209,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4259,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4309,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4789500</v>
+        <v>1672500</v>
       </c>
       <c r="E89" s="3">
-        <v>1732600</v>
+        <v>1470900</v>
       </c>
       <c r="F89" s="3">
-        <v>680800</v>
+        <v>4831400</v>
       </c>
       <c r="G89" s="3">
-        <v>1288000</v>
+        <v>1747800</v>
       </c>
       <c r="H89" s="3">
-        <v>-1965400</v>
+        <v>686700</v>
       </c>
       <c r="I89" s="3">
+        <v>1299200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-1982600</v>
+      </c>
+      <c r="K89" s="3">
         <v>161400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>892700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-6133900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1456300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>535200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2394600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>332200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>946100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4383,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1945700</v>
+        <v>-1785500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1922600</v>
+        <v>-2224100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1831500</v>
+        <v>-1962700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2828400</v>
+        <v>-1939400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2267400</v>
+        <v>-1847500</v>
       </c>
       <c r="I91" s="3">
+        <v>-2853200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2287200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1701900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1474600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2888000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1644800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1575300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-5040300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-3304300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2574200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4479,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4529,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3154600</v>
+        <v>-1875200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1656900</v>
+        <v>-2726900</v>
       </c>
       <c r="F94" s="3">
-        <v>-4131800</v>
+        <v>-3182100</v>
       </c>
       <c r="G94" s="3">
-        <v>-3308300</v>
+        <v>-1671400</v>
       </c>
       <c r="H94" s="3">
-        <v>-2604500</v>
+        <v>-4167900</v>
       </c>
       <c r="I94" s="3">
+        <v>-3337200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2627200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2518800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2461700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-4470000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3543200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3049600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>401400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-9085300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2905200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,8 +4603,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4183,8 +4649,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4699,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4749,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,136 +4799,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2846000</v>
+        <v>-2875300</v>
       </c>
       <c r="E100" s="3">
-        <v>-4334900</v>
+        <v>3691600</v>
       </c>
       <c r="F100" s="3">
-        <v>4008800</v>
+        <v>2870900</v>
       </c>
       <c r="G100" s="3">
-        <v>2859200</v>
+        <v>-4372800</v>
       </c>
       <c r="H100" s="3">
-        <v>5414200</v>
+        <v>4043800</v>
       </c>
       <c r="I100" s="3">
+        <v>2884200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>5461600</v>
+      </c>
+      <c r="K100" s="3">
         <v>2378300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3870500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>4680900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>7325500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3165100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-461300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>4831400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>2236100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>427100</v>
+        <v>39900</v>
       </c>
       <c r="E101" s="3">
-        <v>-219600</v>
+        <v>-337800</v>
       </c>
       <c r="F101" s="3">
-        <v>260200</v>
+        <v>430900</v>
       </c>
       <c r="G101" s="3">
-        <v>82400</v>
+        <v>-221500</v>
       </c>
       <c r="H101" s="3">
-        <v>-97700</v>
+        <v>262500</v>
       </c>
       <c r="I101" s="3">
+        <v>83100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-98600</v>
+      </c>
+      <c r="K101" s="3">
         <v>282200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-120800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-56100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-295100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-618200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-4700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>156100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4908100</v>
+        <v>-3038100</v>
       </c>
       <c r="E102" s="3">
-        <v>-4478700</v>
+        <v>2097800</v>
       </c>
       <c r="F102" s="3">
-        <v>818000</v>
+        <v>4951000</v>
       </c>
       <c r="G102" s="3">
-        <v>921200</v>
+        <v>-4517900</v>
       </c>
       <c r="H102" s="3">
-        <v>746600</v>
+        <v>825200</v>
       </c>
       <c r="I102" s="3">
+        <v>929300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>753200</v>
+      </c>
+      <c r="K102" s="3">
         <v>303000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2180600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-5979100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>4943500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>32500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2330000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>235900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DDAIF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DDAIF_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,233 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>41228200</v>
+        <v>35704700</v>
       </c>
       <c r="E8" s="3">
-        <v>52197900</v>
+        <v>44031100</v>
       </c>
       <c r="F8" s="3">
-        <v>47925900</v>
+        <v>55746500</v>
       </c>
       <c r="G8" s="3">
-        <v>47239100</v>
+        <v>51184100</v>
       </c>
       <c r="H8" s="3">
-        <v>43969500</v>
+        <v>50450700</v>
       </c>
       <c r="I8" s="3">
-        <v>51625200</v>
+        <v>46958800</v>
       </c>
       <c r="J8" s="3">
+        <v>55135000</v>
+      </c>
+      <c r="K8" s="3">
         <v>44537700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>44750100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>43683900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>48933300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>45715500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>46241700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>45287900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>48127400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>45305500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>34106300</v>
+        <v>31364600</v>
       </c>
       <c r="E9" s="3">
-        <v>39035100</v>
+        <v>37154900</v>
       </c>
       <c r="F9" s="3">
-        <v>38318500</v>
+        <v>41688900</v>
       </c>
       <c r="G9" s="3">
-        <v>38691800</v>
+        <v>40923600</v>
       </c>
       <c r="H9" s="3">
-        <v>35583900</v>
+        <v>41322200</v>
       </c>
       <c r="I9" s="3">
-        <v>42511900</v>
+        <v>38003000</v>
       </c>
       <c r="J9" s="3">
+        <v>45402100</v>
+      </c>
+      <c r="K9" s="3">
         <v>35716800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>35691600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>34213700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>38599800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>36155000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>36374900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>35893900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>38207500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>34973700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7121900</v>
+        <v>4340100</v>
       </c>
       <c r="E10" s="3">
-        <v>13162700</v>
+        <v>6876200</v>
       </c>
       <c r="F10" s="3">
-        <v>9607300</v>
+        <v>14057600</v>
       </c>
       <c r="G10" s="3">
-        <v>8547300</v>
+        <v>10260500</v>
       </c>
       <c r="H10" s="3">
-        <v>8385600</v>
+        <v>9128400</v>
       </c>
       <c r="I10" s="3">
-        <v>9113300</v>
+        <v>8955700</v>
       </c>
       <c r="J10" s="3">
+        <v>9732900</v>
+      </c>
+      <c r="K10" s="3">
         <v>8820900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9058500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9470300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10333500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9560500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9866800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9394000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9919900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10331900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,58 +910,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1907300</v>
+        <v>1826400</v>
       </c>
       <c r="E12" s="3">
-        <v>1715700</v>
+        <v>2037000</v>
       </c>
       <c r="F12" s="3">
-        <v>1953800</v>
+        <v>1832300</v>
       </c>
       <c r="G12" s="3">
-        <v>1737800</v>
+        <v>2086600</v>
       </c>
       <c r="H12" s="3">
-        <v>1887400</v>
+        <v>1856000</v>
       </c>
       <c r="I12" s="3">
-        <v>1632600</v>
+        <v>2015700</v>
       </c>
       <c r="J12" s="3">
+        <v>1743600</v>
+      </c>
+      <c r="K12" s="3">
         <v>1966000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1778800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1879800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1603300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1847900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1586500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1699700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1711400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1523600</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -998,28 +1014,31 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>796400</v>
+        <v>1152100</v>
       </c>
       <c r="E14" s="3">
-        <v>4995300</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>120700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5334900</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>2404600</v>
-      </c>
       <c r="H14" s="3">
-        <v>-795300</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+        <v>2568100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-849300</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -1048,8 +1067,11 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1098,8 +1120,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40569200</v>
+        <v>37778300</v>
       </c>
       <c r="E17" s="3">
-        <v>51659600</v>
+        <v>43327300</v>
       </c>
       <c r="F17" s="3">
-        <v>45043900</v>
+        <v>55171600</v>
       </c>
       <c r="G17" s="3">
-        <v>49101000</v>
+        <v>48106200</v>
       </c>
       <c r="H17" s="3">
-        <v>40991200</v>
+        <v>52439100</v>
       </c>
       <c r="I17" s="3">
-        <v>48600400</v>
+        <v>43777900</v>
       </c>
       <c r="J17" s="3">
+        <v>51904500</v>
+      </c>
+      <c r="K17" s="3">
         <v>42365700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41811800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>40518400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>45339600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>42011800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>42363000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>41665600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>44481500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>40581000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>659000</v>
+        <v>-2073600</v>
       </c>
       <c r="E18" s="3">
-        <v>538300</v>
+        <v>703800</v>
       </c>
       <c r="F18" s="3">
-        <v>2882000</v>
+        <v>574900</v>
       </c>
       <c r="G18" s="3">
-        <v>-1861900</v>
+        <v>3077900</v>
       </c>
       <c r="H18" s="3">
-        <v>2978300</v>
+        <v>-1988500</v>
       </c>
       <c r="I18" s="3">
-        <v>3024900</v>
+        <v>3180800</v>
       </c>
       <c r="J18" s="3">
+        <v>3230500</v>
+      </c>
+      <c r="K18" s="3">
         <v>2172000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2938200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3165500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3593700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3703700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3878700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3622400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3645900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4724600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,258 +1267,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>65300</v>
+        <v>98200</v>
       </c>
       <c r="E20" s="3">
-        <v>-58700</v>
+        <v>69800</v>
       </c>
       <c r="F20" s="3">
-        <v>142900</v>
+        <v>-62700</v>
       </c>
       <c r="G20" s="3">
-        <v>219300</v>
+        <v>152600</v>
       </c>
       <c r="H20" s="3">
-        <v>158400</v>
+        <v>234200</v>
       </c>
       <c r="I20" s="3">
-        <v>-21000</v>
+        <v>169200</v>
       </c>
       <c r="J20" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="K20" s="3">
         <v>615800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>516100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>242300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>117800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>316400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>807600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>409700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2918500</v>
+        <v>947500</v>
       </c>
       <c r="E21" s="3">
-        <v>2905200</v>
+        <v>3116900</v>
       </c>
       <c r="F21" s="3">
-        <v>5148100</v>
+        <v>3102700</v>
       </c>
       <c r="G21" s="3">
-        <v>398700</v>
+        <v>5498100</v>
       </c>
       <c r="H21" s="3">
-        <v>5131500</v>
+        <v>425800</v>
       </c>
       <c r="I21" s="3">
-        <v>4918900</v>
+        <v>5480400</v>
       </c>
       <c r="J21" s="3">
+        <v>5253300</v>
+      </c>
+      <c r="K21" s="3">
         <v>4563300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4576500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5304400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5539300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5374300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5749100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6060400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5675400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6385500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>126300</v>
+        <v>85200</v>
       </c>
       <c r="E22" s="3">
-        <v>142900</v>
+        <v>134900</v>
       </c>
       <c r="F22" s="3">
-        <v>172800</v>
+        <v>152600</v>
       </c>
       <c r="G22" s="3">
-        <v>209300</v>
+        <v>184500</v>
       </c>
       <c r="H22" s="3">
-        <v>231500</v>
+        <v>223600</v>
       </c>
       <c r="I22" s="3">
-        <v>264700</v>
+        <v>247200</v>
       </c>
       <c r="J22" s="3">
+        <v>282700</v>
+      </c>
+      <c r="K22" s="3">
         <v>190500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>157000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>116400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>115600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>108800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>98700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>97400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>111500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>598100</v>
+        <v>-2060600</v>
       </c>
       <c r="E23" s="3">
-        <v>336700</v>
+        <v>638800</v>
       </c>
       <c r="F23" s="3">
-        <v>2852100</v>
+        <v>359600</v>
       </c>
       <c r="G23" s="3">
-        <v>-1851900</v>
+        <v>3046000</v>
       </c>
       <c r="H23" s="3">
-        <v>2905200</v>
+        <v>-1977800</v>
       </c>
       <c r="I23" s="3">
-        <v>2739100</v>
+        <v>3102700</v>
       </c>
       <c r="J23" s="3">
+        <v>2925300</v>
+      </c>
+      <c r="K23" s="3">
         <v>2597300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2777900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3565200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3720500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3712700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4096400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4332500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3944000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4648300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>412000</v>
+        <v>194000</v>
       </c>
       <c r="E24" s="3">
-        <v>348900</v>
+        <v>440000</v>
       </c>
       <c r="F24" s="3">
-        <v>844000</v>
+        <v>372600</v>
       </c>
       <c r="G24" s="3">
-        <v>-476300</v>
+        <v>901400</v>
       </c>
       <c r="H24" s="3">
-        <v>525000</v>
+        <v>-508600</v>
       </c>
       <c r="I24" s="3">
-        <v>920400</v>
+        <v>560700</v>
       </c>
       <c r="J24" s="3">
+        <v>983000</v>
+      </c>
+      <c r="K24" s="3">
         <v>646800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>774100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>980500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>112200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1202800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1277900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1219600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1354600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1448500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>186100</v>
+        <v>-2254600</v>
       </c>
       <c r="E26" s="3">
-        <v>-12200</v>
+        <v>198700</v>
       </c>
       <c r="F26" s="3">
-        <v>2008100</v>
+        <v>-13000</v>
       </c>
       <c r="G26" s="3">
-        <v>-1375600</v>
+        <v>2144600</v>
       </c>
       <c r="H26" s="3">
-        <v>2380200</v>
+        <v>-1469200</v>
       </c>
       <c r="I26" s="3">
-        <v>1818700</v>
+        <v>2542100</v>
       </c>
       <c r="J26" s="3">
+        <v>1942300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1950500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2003900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2584700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3608300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2509900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2818400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3112900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2589400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3199800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>104100</v>
+        <v>-2367000</v>
       </c>
       <c r="E27" s="3">
-        <v>-120700</v>
+        <v>111200</v>
       </c>
       <c r="F27" s="3">
-        <v>1904000</v>
+        <v>-128900</v>
       </c>
       <c r="G27" s="3">
-        <v>-1470900</v>
+        <v>2033400</v>
       </c>
       <c r="H27" s="3">
-        <v>2320400</v>
+        <v>-1570900</v>
       </c>
       <c r="I27" s="3">
-        <v>1729000</v>
+        <v>2478200</v>
       </c>
       <c r="J27" s="3">
+        <v>1846500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1870700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1895100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2495800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3513000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2407800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2742100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3001400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2522500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,8 +1742,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1735,8 +1795,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-65300</v>
+        <v>-98200</v>
       </c>
       <c r="E32" s="3">
-        <v>58700</v>
+        <v>-69800</v>
       </c>
       <c r="F32" s="3">
-        <v>-142900</v>
+        <v>62700</v>
       </c>
       <c r="G32" s="3">
-        <v>-219300</v>
+        <v>-152600</v>
       </c>
       <c r="H32" s="3">
-        <v>-158400</v>
+        <v>-234200</v>
       </c>
       <c r="I32" s="3">
-        <v>21000</v>
+        <v>-169200</v>
       </c>
       <c r="J32" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-615800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-516100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-242300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-117800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-316400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-807600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-409700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>104100</v>
+        <v>-2367000</v>
       </c>
       <c r="E33" s="3">
-        <v>-120700</v>
+        <v>111200</v>
       </c>
       <c r="F33" s="3">
-        <v>1904000</v>
+        <v>-128900</v>
       </c>
       <c r="G33" s="3">
-        <v>-1470900</v>
+        <v>2033400</v>
       </c>
       <c r="H33" s="3">
-        <v>2320400</v>
+        <v>-1570900</v>
       </c>
       <c r="I33" s="3">
-        <v>1729000</v>
+        <v>2478200</v>
       </c>
       <c r="J33" s="3">
+        <v>1846500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1870700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1895100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2495800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3513000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2407800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2742100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3001400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2522500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>104100</v>
+        <v>-2367000</v>
       </c>
       <c r="E35" s="3">
-        <v>-120700</v>
+        <v>111200</v>
       </c>
       <c r="F35" s="3">
-        <v>1904000</v>
+        <v>-128900</v>
       </c>
       <c r="G35" s="3">
-        <v>-1470900</v>
+        <v>2033400</v>
       </c>
       <c r="H35" s="3">
-        <v>2320400</v>
+        <v>-1570900</v>
       </c>
       <c r="I35" s="3">
-        <v>1729000</v>
+        <v>2478200</v>
       </c>
       <c r="J35" s="3">
+        <v>1846500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1870700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1895100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2495800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3513000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2407800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2742100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3001400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2522500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,458 +2215,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17876700</v>
+        <v>25963500</v>
       </c>
       <c r="E41" s="3">
-        <v>20914800</v>
+        <v>19092000</v>
       </c>
       <c r="F41" s="3">
-        <v>18817000</v>
+        <v>22336700</v>
       </c>
       <c r="G41" s="3">
-        <v>13866000</v>
+        <v>20096300</v>
       </c>
       <c r="H41" s="3">
-        <v>18383900</v>
+        <v>14808700</v>
       </c>
       <c r="I41" s="3">
-        <v>17558800</v>
+        <v>19633800</v>
       </c>
       <c r="J41" s="3">
+        <v>18752500</v>
+      </c>
+      <c r="K41" s="3">
         <v>16629500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15738700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15435700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13544700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19523700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14580300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15219600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12889600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16655200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12119400</v>
+        <v>13354900</v>
       </c>
       <c r="E42" s="3">
-        <v>11763800</v>
+        <v>12943300</v>
       </c>
       <c r="F42" s="3">
-        <v>12853700</v>
+        <v>12563600</v>
       </c>
       <c r="G42" s="3">
-        <v>13521600</v>
+        <v>13727600</v>
       </c>
       <c r="H42" s="3">
-        <v>13584700</v>
+        <v>14440800</v>
       </c>
       <c r="I42" s="3">
-        <v>13097400</v>
+        <v>14508300</v>
       </c>
       <c r="J42" s="3">
+        <v>13987800</v>
+      </c>
+      <c r="K42" s="3">
         <v>14208300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>15096400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14413400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14221200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14027100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13316900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>13057500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14655000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>13659600</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>64779100</v>
+        <v>65116300</v>
       </c>
       <c r="E43" s="3">
-        <v>69904000</v>
+        <v>69183100</v>
       </c>
       <c r="F43" s="3">
-        <v>66688600</v>
+        <v>74656400</v>
       </c>
       <c r="G43" s="3">
-        <v>65093700</v>
+        <v>71222400</v>
       </c>
       <c r="H43" s="3">
-        <v>66172500</v>
+        <v>69519000</v>
       </c>
       <c r="I43" s="3">
-        <v>64269600</v>
+        <v>70671200</v>
       </c>
       <c r="J43" s="3">
+        <v>68639000</v>
+      </c>
+      <c r="K43" s="3">
         <v>61167200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>57758100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>56931300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>57725300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>54084400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>53110500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>56567100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>56624600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>53759300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>35657000</v>
+        <v>35626600</v>
       </c>
       <c r="E44" s="3">
-        <v>32958900</v>
+        <v>38081100</v>
       </c>
       <c r="F44" s="3">
-        <v>39377400</v>
+        <v>35199600</v>
       </c>
       <c r="G44" s="3">
-        <v>37059200</v>
+        <v>42054500</v>
       </c>
       <c r="H44" s="3">
-        <v>37110100</v>
+        <v>39578700</v>
       </c>
       <c r="I44" s="3">
-        <v>32662000</v>
+        <v>39633100</v>
       </c>
       <c r="J44" s="3">
+        <v>34882500</v>
+      </c>
+      <c r="K44" s="3">
         <v>35582800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>32008900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>30281700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>28819400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>30246600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>29426400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>31289100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>29796000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>31845500</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6368700</v>
+        <v>6315500</v>
       </c>
       <c r="E45" s="3">
-        <v>6009800</v>
+        <v>6801700</v>
       </c>
       <c r="F45" s="3">
-        <v>6188200</v>
+        <v>6418400</v>
       </c>
       <c r="G45" s="3">
-        <v>6295600</v>
+        <v>6608900</v>
       </c>
       <c r="H45" s="3">
-        <v>6548100</v>
+        <v>6723600</v>
       </c>
       <c r="I45" s="3">
-        <v>7110800</v>
+        <v>6993300</v>
       </c>
       <c r="J45" s="3">
+        <v>7594200</v>
+      </c>
+      <c r="K45" s="3">
         <v>6833900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6323400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5979700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5625700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5643600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5530300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5720000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5824400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5884300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>136800800</v>
+        <v>146376800</v>
       </c>
       <c r="E46" s="3">
-        <v>141551300</v>
+        <v>146101200</v>
       </c>
       <c r="F46" s="3">
-        <v>143924900</v>
+        <v>151174600</v>
       </c>
       <c r="G46" s="3">
-        <v>135836100</v>
+        <v>153709600</v>
       </c>
       <c r="H46" s="3">
-        <v>141799400</v>
+        <v>145070900</v>
       </c>
       <c r="I46" s="3">
-        <v>134698600</v>
+        <v>151439600</v>
       </c>
       <c r="J46" s="3">
+        <v>143856000</v>
+      </c>
+      <c r="K46" s="3">
         <v>134421700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>126925500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>123041900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>119936200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>123525500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>115964400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>121853200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>119789700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>121803900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>70467700</v>
+        <v>73343300</v>
       </c>
       <c r="E47" s="3">
-        <v>69719000</v>
+        <v>75258500</v>
       </c>
       <c r="F47" s="3">
-        <v>70477700</v>
+        <v>74458800</v>
       </c>
       <c r="G47" s="3">
-        <v>69414400</v>
+        <v>75269100</v>
       </c>
       <c r="H47" s="3">
-        <v>69957100</v>
+        <v>74133500</v>
       </c>
       <c r="I47" s="3">
-        <v>66062800</v>
+        <v>74713100</v>
       </c>
       <c r="J47" s="3">
+        <v>70554100</v>
+      </c>
+      <c r="K47" s="3">
         <v>63870900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>63911300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>63030700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>62396100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>60986900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>59315100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>62174400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>59838500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>58128200</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>97275000</v>
+        <v>100850500</v>
       </c>
       <c r="E48" s="3">
-        <v>98161100</v>
+        <v>103888200</v>
       </c>
       <c r="F48" s="3">
-        <v>97777800</v>
+        <v>104834500</v>
       </c>
       <c r="G48" s="3">
-        <v>95433000</v>
+        <v>104425200</v>
       </c>
       <c r="H48" s="3">
-        <v>94534800</v>
+        <v>101921000</v>
       </c>
       <c r="I48" s="3">
-        <v>89077600</v>
+        <v>100961700</v>
       </c>
       <c r="J48" s="3">
+        <v>95133500</v>
+      </c>
+      <c r="K48" s="3">
         <v>87098300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>85089500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>82541100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>84211000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>83246000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>82615500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>86853700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>86067300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>77534800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18060500</v>
+        <v>19620800</v>
       </c>
       <c r="E49" s="3">
-        <v>17697200</v>
+        <v>19288400</v>
       </c>
       <c r="F49" s="3">
-        <v>17582000</v>
+        <v>18900400</v>
       </c>
       <c r="G49" s="3">
-        <v>17038200</v>
+        <v>18777400</v>
       </c>
       <c r="H49" s="3">
-        <v>16642800</v>
+        <v>18196600</v>
       </c>
       <c r="I49" s="3">
-        <v>16393600</v>
+        <v>17774300</v>
       </c>
       <c r="J49" s="3">
+        <v>17508100</v>
+      </c>
+      <c r="K49" s="3">
         <v>16093400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15661900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15330300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15410500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>14909000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14512900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14723100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14200800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>12920100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7087500</v>
+        <v>8486100</v>
       </c>
       <c r="E52" s="3">
-        <v>7851800</v>
+        <v>7569400</v>
       </c>
       <c r="F52" s="3">
-        <v>8475400</v>
+        <v>8385600</v>
       </c>
       <c r="G52" s="3">
-        <v>8114300</v>
+        <v>9051600</v>
       </c>
       <c r="H52" s="3">
-        <v>6573600</v>
+        <v>8665900</v>
       </c>
       <c r="I52" s="3">
-        <v>5688600</v>
+        <v>7020500</v>
       </c>
       <c r="J52" s="3">
+        <v>6075400</v>
+      </c>
+      <c r="K52" s="3">
         <v>4853500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4945400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4596200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4540700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4130000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4270300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5344400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5325600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5596700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>329691500</v>
+        <v>348677500</v>
       </c>
       <c r="E54" s="3">
-        <v>334980300</v>
+        <v>352105600</v>
       </c>
       <c r="F54" s="3">
-        <v>338237800</v>
+        <v>357753900</v>
       </c>
       <c r="G54" s="3">
-        <v>325836000</v>
+        <v>361232800</v>
       </c>
       <c r="H54" s="3">
-        <v>329507700</v>
+        <v>347987900</v>
       </c>
       <c r="I54" s="3">
-        <v>311921200</v>
+        <v>351909200</v>
       </c>
       <c r="J54" s="3">
+        <v>333127100</v>
+      </c>
+      <c r="K54" s="3">
         <v>306337800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>296533600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>288540100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>286494500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>286797500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>276678200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>290948800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>285221700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>275983900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,308 +2999,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15702400</v>
+        <v>16164300</v>
       </c>
       <c r="E57" s="3">
-        <v>14074300</v>
+        <v>16770000</v>
       </c>
       <c r="F57" s="3">
-        <v>17908800</v>
+        <v>15031100</v>
       </c>
       <c r="G57" s="3">
-        <v>16828900</v>
+        <v>19126300</v>
       </c>
       <c r="H57" s="3">
-        <v>17458000</v>
+        <v>17973000</v>
       </c>
       <c r="I57" s="3">
-        <v>15711300</v>
+        <v>18644900</v>
       </c>
       <c r="J57" s="3">
+        <v>16779400</v>
+      </c>
+      <c r="K57" s="3">
         <v>18182400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17256200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16321800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13969900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17054200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>15677600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16264300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13577500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16265500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>68252500</v>
+        <v>72984900</v>
       </c>
       <c r="E58" s="3">
-        <v>69336900</v>
+        <v>72892700</v>
       </c>
       <c r="F58" s="3">
-        <v>66741800</v>
+        <v>74050700</v>
       </c>
       <c r="G58" s="3">
-        <v>72119200</v>
+        <v>71279200</v>
       </c>
       <c r="H58" s="3">
-        <v>66102700</v>
+        <v>77022200</v>
       </c>
       <c r="I58" s="3">
-        <v>62291400</v>
+        <v>70596700</v>
       </c>
       <c r="J58" s="3">
+        <v>66526300</v>
+      </c>
+      <c r="K58" s="3">
         <v>58944300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>55475400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>53963400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>54692500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>50942800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>50789100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>51668800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>55507100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>52715800</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>30994000</v>
+        <v>33309300</v>
       </c>
       <c r="E59" s="3">
-        <v>33775200</v>
+        <v>33101100</v>
       </c>
       <c r="F59" s="3">
-        <v>33663300</v>
+        <v>36071400</v>
       </c>
       <c r="G59" s="3">
-        <v>32412800</v>
+        <v>35951900</v>
       </c>
       <c r="H59" s="3">
-        <v>31829100</v>
+        <v>34616400</v>
       </c>
       <c r="I59" s="3">
-        <v>30488900</v>
+        <v>33993000</v>
       </c>
       <c r="J59" s="3">
+        <v>32561700</v>
+      </c>
+      <c r="K59" s="3">
         <v>30066900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28935600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28596300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>29650800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>27662700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>26797600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>34037000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>30051900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>28641000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>114948900</v>
+        <v>122458500</v>
       </c>
       <c r="E60" s="3">
-        <v>117186300</v>
+        <v>122763700</v>
       </c>
       <c r="F60" s="3">
-        <v>118313800</v>
+        <v>125153200</v>
       </c>
       <c r="G60" s="3">
-        <v>121360800</v>
+        <v>126357400</v>
       </c>
       <c r="H60" s="3">
-        <v>115389800</v>
+        <v>129611500</v>
       </c>
       <c r="I60" s="3">
-        <v>108491600</v>
+        <v>123234500</v>
       </c>
       <c r="J60" s="3">
+        <v>115867400</v>
+      </c>
+      <c r="K60" s="3">
         <v>107193500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>101667100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>98881500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>98313300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>95659700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>93264300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>101970000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>99136500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>97622300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>107101600</v>
+        <v>113429500</v>
       </c>
       <c r="E61" s="3">
-        <v>109850700</v>
+        <v>114382900</v>
       </c>
       <c r="F61" s="3">
-        <v>110192900</v>
+        <v>117318800</v>
       </c>
       <c r="G61" s="3">
-        <v>98565300</v>
+        <v>117684400</v>
       </c>
       <c r="H61" s="3">
-        <v>105476700</v>
+        <v>105266300</v>
       </c>
       <c r="I61" s="3">
-        <v>98202000</v>
+        <v>112647600</v>
       </c>
       <c r="J61" s="3">
+        <v>104878300</v>
+      </c>
+      <c r="K61" s="3">
         <v>97366900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>95093400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>88104600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>87939300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>88054900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>83288700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>86016800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>82633900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>78530200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>37681700</v>
+        <v>43167600</v>
       </c>
       <c r="E62" s="3">
-        <v>38340700</v>
+        <v>40243400</v>
       </c>
       <c r="F62" s="3">
-        <v>40204800</v>
+        <v>40947300</v>
       </c>
       <c r="G62" s="3">
-        <v>37482300</v>
+        <v>42938100</v>
       </c>
       <c r="H62" s="3">
-        <v>33472800</v>
+        <v>40030500</v>
       </c>
       <c r="I62" s="3">
-        <v>32067200</v>
+        <v>35748400</v>
       </c>
       <c r="J62" s="3">
+        <v>34247300</v>
+      </c>
+      <c r="K62" s="3">
         <v>29170900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29285900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>28112100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>27134200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>32700400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>32046300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>34324600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>34040500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>35561700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>261426800</v>
+        <v>280760100</v>
       </c>
       <c r="E66" s="3">
-        <v>267035700</v>
+        <v>279199900</v>
       </c>
       <c r="F66" s="3">
-        <v>270271000</v>
+        <v>285190100</v>
       </c>
       <c r="G66" s="3">
-        <v>258843900</v>
+        <v>288645300</v>
       </c>
       <c r="H66" s="3">
-        <v>255914300</v>
+        <v>276441400</v>
       </c>
       <c r="I66" s="3">
-        <v>240296000</v>
+        <v>273312600</v>
       </c>
       <c r="J66" s="3">
+        <v>256632500</v>
+      </c>
+      <c r="K66" s="3">
         <v>235201100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>227401300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>216609000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>214834200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>217724400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>209829000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>223534500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>217199500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>212960800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>51979700</v>
+        <v>50908500</v>
       </c>
       <c r="E72" s="3">
-        <v>51314000</v>
+        <v>55513500</v>
       </c>
       <c r="F72" s="3">
-        <v>50906400</v>
+        <v>54802600</v>
       </c>
       <c r="G72" s="3">
-        <v>50213000</v>
+        <v>54367300</v>
       </c>
       <c r="H72" s="3">
-        <v>56804400</v>
+        <v>53626800</v>
       </c>
       <c r="I72" s="3">
-        <v>54815100</v>
+        <v>60666200</v>
       </c>
       <c r="J72" s="3">
+        <v>58541700</v>
+      </c>
+      <c r="K72" s="3">
         <v>54364300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>51995800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>54531100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>53354000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>50207900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>47608300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>47154300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>47865600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>42799500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>68264700</v>
+        <v>67917400</v>
       </c>
       <c r="E76" s="3">
-        <v>67944600</v>
+        <v>72905700</v>
       </c>
       <c r="F76" s="3">
-        <v>67966800</v>
+        <v>72563800</v>
       </c>
       <c r="G76" s="3">
-        <v>66992100</v>
+        <v>72587500</v>
       </c>
       <c r="H76" s="3">
-        <v>73593400</v>
+        <v>71546500</v>
       </c>
       <c r="I76" s="3">
-        <v>71625200</v>
+        <v>78596600</v>
       </c>
       <c r="J76" s="3">
+        <v>76494600</v>
+      </c>
+      <c r="K76" s="3">
         <v>71136700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>69132300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>71931100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>71660400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>69073100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>66849300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>67414300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>68022300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>63023000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>104100</v>
+        <v>-2367000</v>
       </c>
       <c r="E81" s="3">
-        <v>-120700</v>
+        <v>111200</v>
       </c>
       <c r="F81" s="3">
-        <v>1904000</v>
+        <v>-128900</v>
       </c>
       <c r="G81" s="3">
-        <v>-1470900</v>
+        <v>2033400</v>
       </c>
       <c r="H81" s="3">
-        <v>2320400</v>
+        <v>-1570900</v>
       </c>
       <c r="I81" s="3">
-        <v>1729000</v>
+        <v>2478200</v>
       </c>
       <c r="J81" s="3">
+        <v>1846500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1870700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1895100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2495800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3513000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2407800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2742100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3001400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2522500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2194200</v>
+        <v>2922900</v>
       </c>
       <c r="E83" s="3">
-        <v>2425600</v>
+        <v>2343300</v>
       </c>
       <c r="F83" s="3">
-        <v>2123300</v>
+        <v>2590600</v>
       </c>
       <c r="G83" s="3">
-        <v>2041300</v>
+        <v>2267600</v>
       </c>
       <c r="H83" s="3">
-        <v>1994800</v>
+        <v>2180100</v>
       </c>
       <c r="I83" s="3">
-        <v>1915000</v>
+        <v>2130400</v>
       </c>
       <c r="J83" s="3">
+        <v>2045200</v>
+      </c>
+      <c r="K83" s="3">
         <v>1775500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1641500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1622800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1703200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1552800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1554000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1630400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1619900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1672500</v>
+        <v>8842200</v>
       </c>
       <c r="E89" s="3">
-        <v>1470900</v>
+        <v>1786200</v>
       </c>
       <c r="F89" s="3">
-        <v>4831400</v>
+        <v>1570900</v>
       </c>
       <c r="G89" s="3">
-        <v>1747800</v>
+        <v>5159800</v>
       </c>
       <c r="H89" s="3">
-        <v>686700</v>
+        <v>1866600</v>
       </c>
       <c r="I89" s="3">
-        <v>1299200</v>
+        <v>733400</v>
       </c>
       <c r="J89" s="3">
+        <v>1387500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1982600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>161400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>892700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6133900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1456300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>535200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2394600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>332200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>946100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +4604,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1785500</v>
+        <v>-1903300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2224100</v>
+        <v>-1906800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1962700</v>
+        <v>-2375300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1939400</v>
+        <v>-2096100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1847500</v>
+        <v>-2071300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2853200</v>
+        <v>-1973100</v>
       </c>
       <c r="J91" s="3">
+        <v>-3047200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2287200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1701900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1474600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2888000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1644800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1575300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5040300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3304300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2574200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1875200</v>
+        <v>-1963600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2726900</v>
+        <v>-2002600</v>
       </c>
       <c r="F94" s="3">
-        <v>-3182100</v>
+        <v>-2912300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1671400</v>
+        <v>-3398500</v>
       </c>
       <c r="H94" s="3">
-        <v>-4167900</v>
+        <v>-1785000</v>
       </c>
       <c r="I94" s="3">
-        <v>-3337200</v>
+        <v>-4451300</v>
       </c>
       <c r="J94" s="3">
+        <v>-3564100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2627200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2518800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2461700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4470000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3543200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3049600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>401400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9085300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2905200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,8 +4837,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4655,8 +4888,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,154 +5047,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2875300</v>
+        <v>254300</v>
       </c>
       <c r="E100" s="3">
-        <v>3691600</v>
+        <v>-3070800</v>
       </c>
       <c r="F100" s="3">
-        <v>2870900</v>
+        <v>3942600</v>
       </c>
       <c r="G100" s="3">
-        <v>-4372800</v>
+        <v>3066100</v>
       </c>
       <c r="H100" s="3">
-        <v>4043800</v>
+        <v>-4670100</v>
       </c>
       <c r="I100" s="3">
-        <v>2884200</v>
+        <v>4318800</v>
       </c>
       <c r="J100" s="3">
+        <v>3080300</v>
+      </c>
+      <c r="K100" s="3">
         <v>5461600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2378300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3870500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4680900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7325500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3165100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-461300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4831400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2236100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>39900</v>
+        <v>-261400</v>
       </c>
       <c r="E101" s="3">
-        <v>-337800</v>
+        <v>42600</v>
       </c>
       <c r="F101" s="3">
-        <v>430900</v>
+        <v>-360800</v>
       </c>
       <c r="G101" s="3">
-        <v>-221500</v>
+        <v>460100</v>
       </c>
       <c r="H101" s="3">
-        <v>262500</v>
+        <v>-236600</v>
       </c>
       <c r="I101" s="3">
-        <v>83100</v>
+        <v>280300</v>
       </c>
       <c r="J101" s="3">
+        <v>88700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-98600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>282200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-120800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-56100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-295100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-618200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>156100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3038100</v>
+        <v>6871500</v>
       </c>
       <c r="E102" s="3">
-        <v>2097800</v>
+        <v>-3244700</v>
       </c>
       <c r="F102" s="3">
-        <v>4951000</v>
+        <v>2240400</v>
       </c>
       <c r="G102" s="3">
-        <v>-4517900</v>
+        <v>5287600</v>
       </c>
       <c r="H102" s="3">
-        <v>825200</v>
+        <v>-4825000</v>
       </c>
       <c r="I102" s="3">
-        <v>929300</v>
+        <v>881300</v>
       </c>
       <c r="J102" s="3">
+        <v>992500</v>
+      </c>
+      <c r="K102" s="3">
         <v>753200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>303000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2180600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5979100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4943500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>32500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2330000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>235900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DDAIF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DDAIF_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,245 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35704700</v>
+        <v>48184100</v>
       </c>
       <c r="E8" s="3">
-        <v>44031100</v>
+        <v>36106100</v>
       </c>
       <c r="F8" s="3">
-        <v>55746500</v>
+        <v>44526200</v>
       </c>
       <c r="G8" s="3">
-        <v>51184100</v>
+        <v>56373300</v>
       </c>
       <c r="H8" s="3">
-        <v>50450700</v>
+        <v>51759600</v>
       </c>
       <c r="I8" s="3">
-        <v>46958800</v>
+        <v>51017900</v>
       </c>
       <c r="J8" s="3">
+        <v>47486700</v>
+      </c>
+      <c r="K8" s="3">
         <v>55135000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>44537700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>44750100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>43683900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>48933300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>45715500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>46241700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>45287900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>48127400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>45305500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>31364600</v>
+        <v>38631300</v>
       </c>
       <c r="E9" s="3">
-        <v>37154900</v>
+        <v>31717200</v>
       </c>
       <c r="F9" s="3">
-        <v>41688900</v>
+        <v>37572600</v>
       </c>
       <c r="G9" s="3">
-        <v>40923600</v>
+        <v>42157700</v>
       </c>
       <c r="H9" s="3">
-        <v>41322200</v>
+        <v>41383700</v>
       </c>
       <c r="I9" s="3">
-        <v>38003000</v>
+        <v>41786900</v>
       </c>
       <c r="J9" s="3">
+        <v>38430300</v>
+      </c>
+      <c r="K9" s="3">
         <v>45402100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>35716800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>35691600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>34213700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>38599800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>36155000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>36374900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>35893900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>38207500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>34973700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4340100</v>
+        <v>9552900</v>
       </c>
       <c r="E10" s="3">
-        <v>6876200</v>
+        <v>4388900</v>
       </c>
       <c r="F10" s="3">
-        <v>14057600</v>
+        <v>6953500</v>
       </c>
       <c r="G10" s="3">
-        <v>10260500</v>
+        <v>14215600</v>
       </c>
       <c r="H10" s="3">
-        <v>9128400</v>
+        <v>10375800</v>
       </c>
       <c r="I10" s="3">
-        <v>8955700</v>
+        <v>9231100</v>
       </c>
       <c r="J10" s="3">
+        <v>9056400</v>
+      </c>
+      <c r="K10" s="3">
         <v>9732900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8820900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9058500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9470300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10333500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9560500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9866800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9394000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9919900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>10331900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,61 +923,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1826400</v>
+        <v>1858900</v>
       </c>
       <c r="E12" s="3">
-        <v>2037000</v>
+        <v>1846900</v>
       </c>
       <c r="F12" s="3">
-        <v>1832300</v>
+        <v>2059900</v>
       </c>
       <c r="G12" s="3">
-        <v>2086600</v>
+        <v>1852900</v>
       </c>
       <c r="H12" s="3">
-        <v>1856000</v>
+        <v>2110100</v>
       </c>
       <c r="I12" s="3">
-        <v>2015700</v>
+        <v>1876800</v>
       </c>
       <c r="J12" s="3">
+        <v>2038300</v>
+      </c>
+      <c r="K12" s="3">
         <v>1743600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1966000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1778800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1879800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1603300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1847900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1586500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1699700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1711400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1523600</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1017,31 +1033,34 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1152100</v>
+        <v>489200</v>
       </c>
       <c r="E14" s="3">
-        <v>120700</v>
+        <v>1165100</v>
       </c>
       <c r="F14" s="3">
-        <v>5334900</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>122000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5394900</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>2568100</v>
-      </c>
       <c r="I14" s="3">
-        <v>-849300</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+        <v>2597000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-858900</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1070,8 +1089,11 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1123,8 +1145,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>37778300</v>
+        <v>44526200</v>
       </c>
       <c r="E17" s="3">
-        <v>43327300</v>
+        <v>38203000</v>
       </c>
       <c r="F17" s="3">
-        <v>55171600</v>
+        <v>43814400</v>
       </c>
       <c r="G17" s="3">
-        <v>48106200</v>
+        <v>55792000</v>
       </c>
       <c r="H17" s="3">
-        <v>52439100</v>
+        <v>48647100</v>
       </c>
       <c r="I17" s="3">
-        <v>43777900</v>
+        <v>53028700</v>
       </c>
       <c r="J17" s="3">
+        <v>44270200</v>
+      </c>
+      <c r="K17" s="3">
         <v>51904500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>42365700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>41811800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>40518400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>45339600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>42011800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>42363000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>41665600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>44481500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>40581000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2073600</v>
+        <v>3658000</v>
       </c>
       <c r="E18" s="3">
-        <v>703800</v>
+        <v>-2096900</v>
       </c>
       <c r="F18" s="3">
-        <v>574900</v>
+        <v>711700</v>
       </c>
       <c r="G18" s="3">
-        <v>3077900</v>
+        <v>581400</v>
       </c>
       <c r="H18" s="3">
-        <v>-1988500</v>
+        <v>3112500</v>
       </c>
       <c r="I18" s="3">
-        <v>3180800</v>
+        <v>-2010800</v>
       </c>
       <c r="J18" s="3">
+        <v>3216600</v>
+      </c>
+      <c r="K18" s="3">
         <v>3230500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2172000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2938200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3165500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3593700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3703700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3878700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3622400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3645900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4724600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,273 +1300,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>98200</v>
+        <v>41900</v>
       </c>
       <c r="E20" s="3">
-        <v>69800</v>
+        <v>99300</v>
       </c>
       <c r="F20" s="3">
-        <v>-62700</v>
+        <v>70600</v>
       </c>
       <c r="G20" s="3">
-        <v>152600</v>
+        <v>-63400</v>
       </c>
       <c r="H20" s="3">
-        <v>234200</v>
+        <v>154300</v>
       </c>
       <c r="I20" s="3">
-        <v>169200</v>
+        <v>236800</v>
       </c>
       <c r="J20" s="3">
+        <v>171100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-22500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>615800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>516100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>242300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>117800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>316400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>807600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>409700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>947500</v>
+        <v>6350600</v>
       </c>
       <c r="E21" s="3">
-        <v>3116900</v>
+        <v>958200</v>
       </c>
       <c r="F21" s="3">
-        <v>3102700</v>
+        <v>3152000</v>
       </c>
       <c r="G21" s="3">
-        <v>5498100</v>
+        <v>3137600</v>
       </c>
       <c r="H21" s="3">
-        <v>425800</v>
+        <v>5559900</v>
       </c>
       <c r="I21" s="3">
-        <v>5480400</v>
+        <v>430600</v>
       </c>
       <c r="J21" s="3">
+        <v>5542000</v>
+      </c>
+      <c r="K21" s="3">
         <v>5253300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4563300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4576500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5304400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5539300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5374300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5749100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6060400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5675400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6385500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>85200</v>
+        <v>73000</v>
       </c>
       <c r="E22" s="3">
-        <v>134900</v>
+        <v>86100</v>
       </c>
       <c r="F22" s="3">
-        <v>152600</v>
+        <v>136400</v>
       </c>
       <c r="G22" s="3">
-        <v>184500</v>
+        <v>154300</v>
       </c>
       <c r="H22" s="3">
-        <v>223600</v>
+        <v>186600</v>
       </c>
       <c r="I22" s="3">
-        <v>247200</v>
+        <v>226100</v>
       </c>
       <c r="J22" s="3">
+        <v>250000</v>
+      </c>
+      <c r="K22" s="3">
         <v>282700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>190500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>157000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>116400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>115600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>108800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>98700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>97400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>111500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2060600</v>
+        <v>3626900</v>
       </c>
       <c r="E23" s="3">
-        <v>638800</v>
+        <v>-2083800</v>
       </c>
       <c r="F23" s="3">
-        <v>359600</v>
+        <v>645900</v>
       </c>
       <c r="G23" s="3">
-        <v>3046000</v>
+        <v>363600</v>
       </c>
       <c r="H23" s="3">
-        <v>-1977800</v>
+        <v>3080200</v>
       </c>
       <c r="I23" s="3">
-        <v>3102700</v>
+        <v>-2000000</v>
       </c>
       <c r="J23" s="3">
+        <v>3137600</v>
+      </c>
+      <c r="K23" s="3">
         <v>2925300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2597300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2777900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3565200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3720500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3712700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4096400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4332500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3944000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4648300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>194000</v>
+        <v>1045500</v>
       </c>
       <c r="E24" s="3">
-        <v>440000</v>
+        <v>196200</v>
       </c>
       <c r="F24" s="3">
-        <v>372600</v>
+        <v>445000</v>
       </c>
       <c r="G24" s="3">
-        <v>901400</v>
+        <v>376800</v>
       </c>
       <c r="H24" s="3">
-        <v>-508600</v>
+        <v>911500</v>
       </c>
       <c r="I24" s="3">
-        <v>560700</v>
+        <v>-514400</v>
       </c>
       <c r="J24" s="3">
+        <v>567000</v>
+      </c>
+      <c r="K24" s="3">
         <v>983000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>646800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>774100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>980500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>112200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1202800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1277900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1219600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1354600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1448500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2254600</v>
+        <v>2581400</v>
       </c>
       <c r="E26" s="3">
-        <v>198700</v>
+        <v>-2280000</v>
       </c>
       <c r="F26" s="3">
-        <v>-13000</v>
+        <v>201000</v>
       </c>
       <c r="G26" s="3">
-        <v>2144600</v>
+        <v>-13200</v>
       </c>
       <c r="H26" s="3">
-        <v>-1469200</v>
+        <v>2168700</v>
       </c>
       <c r="I26" s="3">
-        <v>2542100</v>
+        <v>-1485700</v>
       </c>
       <c r="J26" s="3">
+        <v>2570600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1942300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1950500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2003900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2584700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3608300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2509900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2818400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3112900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2589400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3199800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2367000</v>
+        <v>2451000</v>
       </c>
       <c r="E27" s="3">
-        <v>111200</v>
+        <v>-2393600</v>
       </c>
       <c r="F27" s="3">
-        <v>-128900</v>
+        <v>112400</v>
       </c>
       <c r="G27" s="3">
-        <v>2033400</v>
+        <v>-130400</v>
       </c>
       <c r="H27" s="3">
-        <v>-1570900</v>
+        <v>2056300</v>
       </c>
       <c r="I27" s="3">
-        <v>2478200</v>
+        <v>-1588600</v>
       </c>
       <c r="J27" s="3">
+        <v>2506000</v>
+      </c>
+      <c r="K27" s="3">
         <v>1846500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1870700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1895100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2495800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3513000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2407800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2742100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3001400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2522500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1798,8 +1858,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +1970,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-98200</v>
+        <v>-41900</v>
       </c>
       <c r="E32" s="3">
-        <v>-69800</v>
+        <v>-99300</v>
       </c>
       <c r="F32" s="3">
-        <v>62700</v>
+        <v>-70600</v>
       </c>
       <c r="G32" s="3">
-        <v>-152600</v>
+        <v>63400</v>
       </c>
       <c r="H32" s="3">
-        <v>-234200</v>
+        <v>-154300</v>
       </c>
       <c r="I32" s="3">
-        <v>-169200</v>
+        <v>-236800</v>
       </c>
       <c r="J32" s="3">
+        <v>-171100</v>
+      </c>
+      <c r="K32" s="3">
         <v>22500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-615800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-516100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-242300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-117800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-316400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-807600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-409700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2367000</v>
+        <v>2451000</v>
       </c>
       <c r="E33" s="3">
-        <v>111200</v>
+        <v>-2393600</v>
       </c>
       <c r="F33" s="3">
-        <v>-128900</v>
+        <v>112400</v>
       </c>
       <c r="G33" s="3">
-        <v>2033400</v>
+        <v>-130400</v>
       </c>
       <c r="H33" s="3">
-        <v>-1570900</v>
+        <v>2056300</v>
       </c>
       <c r="I33" s="3">
-        <v>2478200</v>
+        <v>-1588600</v>
       </c>
       <c r="J33" s="3">
+        <v>2506000</v>
+      </c>
+      <c r="K33" s="3">
         <v>1846500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1870700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1895100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2495800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3513000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2407800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2742100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3001400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2522500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2367000</v>
+        <v>2451000</v>
       </c>
       <c r="E35" s="3">
-        <v>111200</v>
+        <v>-2393600</v>
       </c>
       <c r="F35" s="3">
-        <v>-128900</v>
+        <v>112400</v>
       </c>
       <c r="G35" s="3">
-        <v>2033400</v>
+        <v>-130400</v>
       </c>
       <c r="H35" s="3">
-        <v>-1570900</v>
+        <v>2056300</v>
       </c>
       <c r="I35" s="3">
-        <v>2478200</v>
+        <v>-1588600</v>
       </c>
       <c r="J35" s="3">
+        <v>2506000</v>
+      </c>
+      <c r="K35" s="3">
         <v>1846500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1870700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1895100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2495800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3513000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2407800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2742100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3001400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2522500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,485 +2301,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>25963500</v>
+        <v>29304500</v>
       </c>
       <c r="E41" s="3">
-        <v>19092000</v>
+        <v>26255400</v>
       </c>
       <c r="F41" s="3">
-        <v>22336700</v>
+        <v>19306700</v>
       </c>
       <c r="G41" s="3">
-        <v>20096300</v>
+        <v>22587800</v>
       </c>
       <c r="H41" s="3">
-        <v>14808700</v>
+        <v>20322200</v>
       </c>
       <c r="I41" s="3">
-        <v>19633800</v>
+        <v>14975200</v>
       </c>
       <c r="J41" s="3">
+        <v>19854500</v>
+      </c>
+      <c r="K41" s="3">
         <v>18752500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16629500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15738700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15435700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13544700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19523700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14580300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15219600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12889600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16655200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>13354900</v>
+        <v>12448900</v>
       </c>
       <c r="E42" s="3">
-        <v>12943300</v>
+        <v>13505100</v>
       </c>
       <c r="F42" s="3">
-        <v>12563600</v>
+        <v>13088800</v>
       </c>
       <c r="G42" s="3">
-        <v>13727600</v>
+        <v>12704800</v>
       </c>
       <c r="H42" s="3">
-        <v>14440800</v>
+        <v>13881900</v>
       </c>
       <c r="I42" s="3">
-        <v>14508300</v>
+        <v>14603200</v>
       </c>
       <c r="J42" s="3">
+        <v>14671400</v>
+      </c>
+      <c r="K42" s="3">
         <v>13987800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14208300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>15096400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14413400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14221200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14027100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>13316900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>13057500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14655000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>13659600</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>65116300</v>
+        <v>62794500</v>
       </c>
       <c r="E43" s="3">
-        <v>69183100</v>
+        <v>65848400</v>
       </c>
       <c r="F43" s="3">
-        <v>74656400</v>
+        <v>69961000</v>
       </c>
       <c r="G43" s="3">
-        <v>71222400</v>
+        <v>75495800</v>
       </c>
       <c r="H43" s="3">
-        <v>69519000</v>
+        <v>72023200</v>
       </c>
       <c r="I43" s="3">
-        <v>70671200</v>
+        <v>70300700</v>
       </c>
       <c r="J43" s="3">
+        <v>71465800</v>
+      </c>
+      <c r="K43" s="3">
         <v>68639000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>61167200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>57758100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>56931300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>57725300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>54084400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>53110500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>56567100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>56624600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>53759300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>35626600</v>
+        <v>35328600</v>
       </c>
       <c r="E44" s="3">
-        <v>38081100</v>
+        <v>36027200</v>
       </c>
       <c r="F44" s="3">
-        <v>35199600</v>
+        <v>38509300</v>
       </c>
       <c r="G44" s="3">
-        <v>42054500</v>
+        <v>35595300</v>
       </c>
       <c r="H44" s="3">
-        <v>39578700</v>
+        <v>42527300</v>
       </c>
       <c r="I44" s="3">
-        <v>39633100</v>
+        <v>40023700</v>
       </c>
       <c r="J44" s="3">
+        <v>40078700</v>
+      </c>
+      <c r="K44" s="3">
         <v>34882500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>35582800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>32008900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>30281700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>28819400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>30246600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>29426400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>31289100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>29796000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>31845500</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6315500</v>
+        <v>5412800</v>
       </c>
       <c r="E45" s="3">
-        <v>6801700</v>
+        <v>6386500</v>
       </c>
       <c r="F45" s="3">
-        <v>6418400</v>
+        <v>6878200</v>
       </c>
       <c r="G45" s="3">
-        <v>6608900</v>
+        <v>6490600</v>
       </c>
       <c r="H45" s="3">
-        <v>6723600</v>
+        <v>6683200</v>
       </c>
       <c r="I45" s="3">
-        <v>6993300</v>
+        <v>6799200</v>
       </c>
       <c r="J45" s="3">
+        <v>7071900</v>
+      </c>
+      <c r="K45" s="3">
         <v>7594200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6833900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6323400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5979700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5625700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5643600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5530300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5720000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5824400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5884300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>146376800</v>
+        <v>145289300</v>
       </c>
       <c r="E46" s="3">
-        <v>146101200</v>
+        <v>148022600</v>
       </c>
       <c r="F46" s="3">
-        <v>151174600</v>
+        <v>147743900</v>
       </c>
       <c r="G46" s="3">
-        <v>153709600</v>
+        <v>152874400</v>
       </c>
       <c r="H46" s="3">
-        <v>145070900</v>
+        <v>155437800</v>
       </c>
       <c r="I46" s="3">
-        <v>151439600</v>
+        <v>146702000</v>
       </c>
       <c r="J46" s="3">
+        <v>153142300</v>
+      </c>
+      <c r="K46" s="3">
         <v>143856000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>134421700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>126925500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>123041900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>119936200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>123525500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>115964400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>121853200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>119789700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>121803900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>73343300</v>
+        <v>75569900</v>
       </c>
       <c r="E47" s="3">
-        <v>75258500</v>
+        <v>74168000</v>
       </c>
       <c r="F47" s="3">
-        <v>74458800</v>
+        <v>76104600</v>
       </c>
       <c r="G47" s="3">
-        <v>75269100</v>
+        <v>75296000</v>
       </c>
       <c r="H47" s="3">
-        <v>74133500</v>
+        <v>76115400</v>
       </c>
       <c r="I47" s="3">
-        <v>74713100</v>
+        <v>74967100</v>
       </c>
       <c r="J47" s="3">
+        <v>75553200</v>
+      </c>
+      <c r="K47" s="3">
         <v>70554100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>63870900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>63911300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>63030700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>62396100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>60986900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>59315100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>62174400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>59838500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>58128200</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100850500</v>
+        <v>99040600</v>
       </c>
       <c r="E48" s="3">
-        <v>103888200</v>
+        <v>101984400</v>
       </c>
       <c r="F48" s="3">
-        <v>104834500</v>
+        <v>105056300</v>
       </c>
       <c r="G48" s="3">
-        <v>104425200</v>
+        <v>106013200</v>
       </c>
       <c r="H48" s="3">
-        <v>101921000</v>
+        <v>105599300</v>
       </c>
       <c r="I48" s="3">
-        <v>100961700</v>
+        <v>103067000</v>
       </c>
       <c r="J48" s="3">
+        <v>102096900</v>
+      </c>
+      <c r="K48" s="3">
         <v>95133500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>87098300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>85089500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>82541100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>84211000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>83246000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>82615500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>86853700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>86067300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>77534800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19620800</v>
+        <v>19653600</v>
       </c>
       <c r="E49" s="3">
-        <v>19288400</v>
+        <v>19841400</v>
       </c>
       <c r="F49" s="3">
-        <v>18900400</v>
+        <v>19505200</v>
       </c>
       <c r="G49" s="3">
-        <v>18777400</v>
+        <v>19112900</v>
       </c>
       <c r="H49" s="3">
-        <v>18196600</v>
+        <v>18988500</v>
       </c>
       <c r="I49" s="3">
-        <v>17774300</v>
+        <v>18401100</v>
       </c>
       <c r="J49" s="3">
+        <v>17974100</v>
+      </c>
+      <c r="K49" s="3">
         <v>17508100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16093400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15661900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15330300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15410500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>14909000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14512900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14723100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14200800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>12920100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +2915,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8486100</v>
+        <v>8125800</v>
       </c>
       <c r="E52" s="3">
-        <v>7569400</v>
+        <v>8581500</v>
       </c>
       <c r="F52" s="3">
-        <v>8385600</v>
+        <v>7654500</v>
       </c>
       <c r="G52" s="3">
-        <v>9051600</v>
+        <v>8479900</v>
       </c>
       <c r="H52" s="3">
-        <v>8665900</v>
+        <v>9153300</v>
       </c>
       <c r="I52" s="3">
-        <v>7020500</v>
+        <v>8763400</v>
       </c>
       <c r="J52" s="3">
+        <v>7099400</v>
+      </c>
+      <c r="K52" s="3">
         <v>6075400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4853500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4945400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4596200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4540700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4130000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4270300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5344400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5325600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5596700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>348677500</v>
+        <v>347679100</v>
       </c>
       <c r="E54" s="3">
-        <v>352105600</v>
+        <v>352597900</v>
       </c>
       <c r="F54" s="3">
-        <v>357753900</v>
+        <v>356064500</v>
       </c>
       <c r="G54" s="3">
-        <v>361232800</v>
+        <v>361776300</v>
       </c>
       <c r="H54" s="3">
-        <v>347987900</v>
+        <v>365294400</v>
       </c>
       <c r="I54" s="3">
-        <v>351909200</v>
+        <v>351900500</v>
       </c>
       <c r="J54" s="3">
+        <v>355865900</v>
+      </c>
+      <c r="K54" s="3">
         <v>333127100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>306337800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>296533600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>288540100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>286494500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>286797500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>276678200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>290948800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>285221700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>275983900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,326 +3129,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16164300</v>
+        <v>17795900</v>
       </c>
       <c r="E57" s="3">
-        <v>16770000</v>
+        <v>16346100</v>
       </c>
       <c r="F57" s="3">
-        <v>15031100</v>
+        <v>16958500</v>
       </c>
       <c r="G57" s="3">
-        <v>19126300</v>
+        <v>15200100</v>
       </c>
       <c r="H57" s="3">
-        <v>17973000</v>
+        <v>19341400</v>
       </c>
       <c r="I57" s="3">
-        <v>18644900</v>
+        <v>18175100</v>
       </c>
       <c r="J57" s="3">
+        <v>18854500</v>
+      </c>
+      <c r="K57" s="3">
         <v>16779400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18182400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17256200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16321800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>13969900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17054200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>15677600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16264300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13577500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16265500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>72984900</v>
+        <v>71237300</v>
       </c>
       <c r="E58" s="3">
-        <v>72892700</v>
+        <v>73805500</v>
       </c>
       <c r="F58" s="3">
-        <v>74050700</v>
+        <v>73712200</v>
       </c>
       <c r="G58" s="3">
-        <v>71279200</v>
+        <v>74883300</v>
       </c>
       <c r="H58" s="3">
-        <v>77022200</v>
+        <v>72080600</v>
       </c>
       <c r="I58" s="3">
-        <v>70596700</v>
+        <v>77888200</v>
       </c>
       <c r="J58" s="3">
+        <v>71390400</v>
+      </c>
+      <c r="K58" s="3">
         <v>66526300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>58944300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>55475400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>53963400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>54692500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>50942800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>50789100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>51668800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>55507100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>52715800</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33309300</v>
+        <v>32621600</v>
       </c>
       <c r="E59" s="3">
-        <v>33101100</v>
+        <v>33683800</v>
       </c>
       <c r="F59" s="3">
-        <v>36071400</v>
+        <v>33473300</v>
       </c>
       <c r="G59" s="3">
-        <v>35951900</v>
+        <v>36476900</v>
       </c>
       <c r="H59" s="3">
-        <v>34616400</v>
+        <v>36356100</v>
       </c>
       <c r="I59" s="3">
-        <v>33993000</v>
+        <v>35005600</v>
       </c>
       <c r="J59" s="3">
+        <v>34375200</v>
+      </c>
+      <c r="K59" s="3">
         <v>32561700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>30066900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>28935600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28596300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>29650800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>27662700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>26797600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>34037000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>30051900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>28641000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>122458500</v>
+        <v>121654700</v>
       </c>
       <c r="E60" s="3">
-        <v>122763700</v>
+        <v>123835400</v>
       </c>
       <c r="F60" s="3">
-        <v>125153200</v>
+        <v>124144000</v>
       </c>
       <c r="G60" s="3">
-        <v>126357400</v>
+        <v>126560400</v>
       </c>
       <c r="H60" s="3">
-        <v>129611500</v>
+        <v>127778100</v>
       </c>
       <c r="I60" s="3">
-        <v>123234500</v>
+        <v>131068800</v>
       </c>
       <c r="J60" s="3">
+        <v>124620100</v>
+      </c>
+      <c r="K60" s="3">
         <v>115867400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>107193500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>101667100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>98881500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>98313300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>95659700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>93264300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>101970000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>99136500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>97622300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>113429500</v>
+        <v>110848300</v>
       </c>
       <c r="E61" s="3">
-        <v>114382900</v>
+        <v>114704800</v>
       </c>
       <c r="F61" s="3">
-        <v>117318800</v>
+        <v>115669000</v>
       </c>
       <c r="G61" s="3">
-        <v>117684400</v>
+        <v>118637900</v>
       </c>
       <c r="H61" s="3">
-        <v>105266300</v>
+        <v>119007500</v>
       </c>
       <c r="I61" s="3">
-        <v>112647600</v>
+        <v>106449800</v>
       </c>
       <c r="J61" s="3">
+        <v>113914100</v>
+      </c>
+      <c r="K61" s="3">
         <v>104878300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>97366900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>95093400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>88104600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>87939300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>88054900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>83288700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>86016800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>82633900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>78530200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>43167600</v>
+        <v>45051300</v>
       </c>
       <c r="E62" s="3">
-        <v>40243400</v>
+        <v>43652900</v>
       </c>
       <c r="F62" s="3">
-        <v>40947300</v>
+        <v>40695900</v>
       </c>
       <c r="G62" s="3">
-        <v>42938100</v>
+        <v>41407700</v>
       </c>
       <c r="H62" s="3">
-        <v>40030500</v>
+        <v>43420900</v>
       </c>
       <c r="I62" s="3">
-        <v>35748400</v>
+        <v>40480600</v>
       </c>
       <c r="J62" s="3">
+        <v>36150400</v>
+      </c>
+      <c r="K62" s="3">
         <v>34247300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29170900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>29285900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>28112100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>27134200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>32700400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>32046300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>34324600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>34040500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>35561700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>280760100</v>
+        <v>279328300</v>
       </c>
       <c r="E66" s="3">
-        <v>279199900</v>
+        <v>283916900</v>
       </c>
       <c r="F66" s="3">
-        <v>285190100</v>
+        <v>282339100</v>
       </c>
       <c r="G66" s="3">
-        <v>288645300</v>
+        <v>288396600</v>
       </c>
       <c r="H66" s="3">
-        <v>276441400</v>
+        <v>291890700</v>
       </c>
       <c r="I66" s="3">
-        <v>273312600</v>
+        <v>279549500</v>
       </c>
       <c r="J66" s="3">
+        <v>276385600</v>
+      </c>
+      <c r="K66" s="3">
         <v>256632500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>235201100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>227401300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>216609000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>214834200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>217724400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>209829000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>223534500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>217199500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>212960800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>50908500</v>
+        <v>51763200</v>
       </c>
       <c r="E72" s="3">
-        <v>55513500</v>
+        <v>51480900</v>
       </c>
       <c r="F72" s="3">
-        <v>54802600</v>
+        <v>56137700</v>
       </c>
       <c r="G72" s="3">
-        <v>54367300</v>
+        <v>55418700</v>
       </c>
       <c r="H72" s="3">
-        <v>53626800</v>
+        <v>54978500</v>
       </c>
       <c r="I72" s="3">
-        <v>60666200</v>
+        <v>54229700</v>
       </c>
       <c r="J72" s="3">
+        <v>61348300</v>
+      </c>
+      <c r="K72" s="3">
         <v>58541700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>54364300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>51995800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>54531100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>53354000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>50207900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>47608300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>47154300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>47865600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>42799500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>67917400</v>
+        <v>68350900</v>
       </c>
       <c r="E76" s="3">
-        <v>72905700</v>
+        <v>68681000</v>
       </c>
       <c r="F76" s="3">
-        <v>72563800</v>
+        <v>73725400</v>
       </c>
       <c r="G76" s="3">
-        <v>72587500</v>
+        <v>73379700</v>
       </c>
       <c r="H76" s="3">
-        <v>71546500</v>
+        <v>73403600</v>
       </c>
       <c r="I76" s="3">
-        <v>78596600</v>
+        <v>72351000</v>
       </c>
       <c r="J76" s="3">
+        <v>79480300</v>
+      </c>
+      <c r="K76" s="3">
         <v>76494600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>71136700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>69132300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>71931100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>71660400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>69073100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>66849300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>67414300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>68022300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>63023000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2367000</v>
+        <v>2451000</v>
       </c>
       <c r="E81" s="3">
-        <v>111200</v>
+        <v>-2393600</v>
       </c>
       <c r="F81" s="3">
-        <v>-128900</v>
+        <v>112400</v>
       </c>
       <c r="G81" s="3">
-        <v>2033400</v>
+        <v>-130400</v>
       </c>
       <c r="H81" s="3">
-        <v>-1570900</v>
+        <v>2056300</v>
       </c>
       <c r="I81" s="3">
-        <v>2478200</v>
+        <v>-1588600</v>
       </c>
       <c r="J81" s="3">
+        <v>2506000</v>
+      </c>
+      <c r="K81" s="3">
         <v>1846500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1870700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1895100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2495800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3513000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2407800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2742100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3001400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2522500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4410,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2922900</v>
+        <v>2650800</v>
       </c>
       <c r="E83" s="3">
-        <v>2343300</v>
+        <v>2955800</v>
       </c>
       <c r="F83" s="3">
-        <v>2590600</v>
+        <v>2369700</v>
       </c>
       <c r="G83" s="3">
-        <v>2267600</v>
+        <v>2619700</v>
       </c>
       <c r="H83" s="3">
-        <v>2180100</v>
+        <v>2293100</v>
       </c>
       <c r="I83" s="3">
-        <v>2130400</v>
+        <v>2204600</v>
       </c>
       <c r="J83" s="3">
+        <v>2154400</v>
+      </c>
+      <c r="K83" s="3">
         <v>2045200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1775500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1641500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1622800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1703200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1552800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1554000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1630400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1619900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8842200</v>
+        <v>9908100</v>
       </c>
       <c r="E89" s="3">
-        <v>1786200</v>
+        <v>8941600</v>
       </c>
       <c r="F89" s="3">
-        <v>1570900</v>
+        <v>1806300</v>
       </c>
       <c r="G89" s="3">
-        <v>5159800</v>
+        <v>1588600</v>
       </c>
       <c r="H89" s="3">
-        <v>1866600</v>
+        <v>5217800</v>
       </c>
       <c r="I89" s="3">
-        <v>733400</v>
+        <v>1887600</v>
       </c>
       <c r="J89" s="3">
+        <v>741600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1387500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1982600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>161400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>892700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6133900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1456300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>535200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2394600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>332200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>946100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +4824,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1903300</v>
+        <v>-728500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1906800</v>
+        <v>-1924700</v>
       </c>
       <c r="F91" s="3">
-        <v>-2375300</v>
+        <v>-1928300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2096100</v>
+        <v>-2402000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2071300</v>
+        <v>-2119700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1973100</v>
+        <v>-2094500</v>
       </c>
       <c r="J91" s="3">
+        <v>-1995300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3047200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2287200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1701900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1474600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2888000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1644800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1575300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5040300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3304300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2574200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1963600</v>
+        <v>-2352900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2002600</v>
+        <v>-1985700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2912300</v>
+        <v>-2025200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3398500</v>
+        <v>-2945000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1785000</v>
+        <v>-3436700</v>
       </c>
       <c r="I94" s="3">
-        <v>-4451300</v>
+        <v>-1805100</v>
       </c>
       <c r="J94" s="3">
+        <v>-4501300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3564100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2627200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2518800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2461700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4470000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3543200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3049600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>401400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9085300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2905200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,13 +5070,14 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1151900</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4891,8 +5124,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,163 +5292,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>254300</v>
+        <v>-3973800</v>
       </c>
       <c r="E100" s="3">
-        <v>-3070800</v>
+        <v>257200</v>
       </c>
       <c r="F100" s="3">
-        <v>3942600</v>
+        <v>-3105300</v>
       </c>
       <c r="G100" s="3">
-        <v>3066100</v>
+        <v>3986900</v>
       </c>
       <c r="H100" s="3">
-        <v>-4670100</v>
+        <v>3100600</v>
       </c>
       <c r="I100" s="3">
-        <v>4318800</v>
+        <v>-4722600</v>
       </c>
       <c r="J100" s="3">
+        <v>4367300</v>
+      </c>
+      <c r="K100" s="3">
         <v>3080300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5461600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2378300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3870500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4680900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7325500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3165100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-461300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4831400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2236100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-261400</v>
+        <v>-532300</v>
       </c>
       <c r="E101" s="3">
-        <v>42600</v>
+        <v>-264400</v>
       </c>
       <c r="F101" s="3">
-        <v>-360800</v>
+        <v>43100</v>
       </c>
       <c r="G101" s="3">
-        <v>460100</v>
+        <v>-364800</v>
       </c>
       <c r="H101" s="3">
-        <v>-236600</v>
+        <v>465300</v>
       </c>
       <c r="I101" s="3">
-        <v>280300</v>
+        <v>-239200</v>
       </c>
       <c r="J101" s="3">
+        <v>283500</v>
+      </c>
+      <c r="K101" s="3">
         <v>88700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-98600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>282200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-120800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-56100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-295100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-618200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>156100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6871500</v>
+        <v>3049100</v>
       </c>
       <c r="E102" s="3">
-        <v>-3244700</v>
+        <v>6948700</v>
       </c>
       <c r="F102" s="3">
-        <v>2240400</v>
+        <v>-3281200</v>
       </c>
       <c r="G102" s="3">
-        <v>5287600</v>
+        <v>2265600</v>
       </c>
       <c r="H102" s="3">
-        <v>-4825000</v>
+        <v>5347000</v>
       </c>
       <c r="I102" s="3">
-        <v>881300</v>
+        <v>-4879300</v>
       </c>
       <c r="J102" s="3">
+        <v>891200</v>
+      </c>
+      <c r="K102" s="3">
         <v>992500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>753200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>303000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2180600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5979100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4943500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>32500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2330000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>235900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DDAIF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DDAIF_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>48184100</v>
+        <v>54844900</v>
       </c>
       <c r="E8" s="3">
-        <v>36106100</v>
+        <v>47386600</v>
       </c>
       <c r="F8" s="3">
-        <v>44526200</v>
+        <v>35508500</v>
       </c>
       <c r="G8" s="3">
-        <v>56373300</v>
+        <v>43789100</v>
       </c>
       <c r="H8" s="3">
-        <v>51759600</v>
+        <v>55440200</v>
       </c>
       <c r="I8" s="3">
-        <v>51017900</v>
+        <v>50902800</v>
       </c>
       <c r="J8" s="3">
+        <v>50173500</v>
+      </c>
+      <c r="K8" s="3">
         <v>47486700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>55135000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>44537700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>44750100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>43683900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>48933300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>45715500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>46241700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>45287900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>48127400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>45305500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>38631300</v>
+        <v>42895100</v>
       </c>
       <c r="E9" s="3">
-        <v>31717200</v>
+        <v>37991800</v>
       </c>
       <c r="F9" s="3">
-        <v>37572600</v>
+        <v>31192200</v>
       </c>
       <c r="G9" s="3">
-        <v>42157700</v>
+        <v>36950700</v>
       </c>
       <c r="H9" s="3">
-        <v>41383700</v>
+        <v>41459900</v>
       </c>
       <c r="I9" s="3">
-        <v>41786900</v>
+        <v>40698700</v>
       </c>
       <c r="J9" s="3">
+        <v>41095200</v>
+      </c>
+      <c r="K9" s="3">
         <v>38430300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>45402100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>35716800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>35691600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>34213700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>38599800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>36155000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>36374900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>35893900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>38207500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>34973700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9552900</v>
+        <v>11949900</v>
       </c>
       <c r="E10" s="3">
-        <v>4388900</v>
+        <v>9394700</v>
       </c>
       <c r="F10" s="3">
-        <v>6953500</v>
+        <v>4316200</v>
       </c>
       <c r="G10" s="3">
-        <v>14215600</v>
+        <v>6838400</v>
       </c>
       <c r="H10" s="3">
-        <v>10375800</v>
+        <v>13980300</v>
       </c>
       <c r="I10" s="3">
-        <v>9231100</v>
+        <v>10204100</v>
       </c>
       <c r="J10" s="3">
+        <v>9078300</v>
+      </c>
+      <c r="K10" s="3">
         <v>9056400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9732900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8820900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9058500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9470300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10333500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9560500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9866800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9394000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9919900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>10331900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,64 +936,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1858900</v>
+        <v>1524600</v>
       </c>
       <c r="E12" s="3">
-        <v>1846900</v>
+        <v>1828100</v>
       </c>
       <c r="F12" s="3">
-        <v>2059900</v>
+        <v>1816400</v>
       </c>
       <c r="G12" s="3">
-        <v>1852900</v>
+        <v>2025800</v>
       </c>
       <c r="H12" s="3">
-        <v>2110100</v>
+        <v>1822200</v>
       </c>
       <c r="I12" s="3">
-        <v>1876800</v>
+        <v>2075200</v>
       </c>
       <c r="J12" s="3">
+        <v>1845800</v>
+      </c>
+      <c r="K12" s="3">
         <v>2038300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1743600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1966000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1778800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1879800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1603300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1847900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1586500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1699700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1711400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1523600</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1036,34 +1052,37 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>489200</v>
+        <v>650500</v>
       </c>
       <c r="E14" s="3">
-        <v>1165100</v>
+        <v>481100</v>
       </c>
       <c r="F14" s="3">
-        <v>122000</v>
+        <v>1145800</v>
       </c>
       <c r="G14" s="3">
-        <v>5394900</v>
-      </c>
-      <c r="H14" s="3" t="s">
+        <v>120000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5305600</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>2597000</v>
-      </c>
       <c r="J14" s="3">
+        <v>2554000</v>
+      </c>
+      <c r="K14" s="3">
         <v>-858900</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1092,8 +1111,11 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1148,8 +1170,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>44526200</v>
+        <v>49833500</v>
       </c>
       <c r="E17" s="3">
-        <v>38203000</v>
+        <v>43789100</v>
       </c>
       <c r="F17" s="3">
-        <v>43814400</v>
+        <v>37570700</v>
       </c>
       <c r="G17" s="3">
-        <v>55792000</v>
+        <v>43089200</v>
       </c>
       <c r="H17" s="3">
-        <v>48647100</v>
+        <v>54868500</v>
       </c>
       <c r="I17" s="3">
-        <v>53028700</v>
+        <v>47841800</v>
       </c>
       <c r="J17" s="3">
+        <v>52151000</v>
+      </c>
+      <c r="K17" s="3">
         <v>44270200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>51904500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>42365700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>41811800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>40518400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>45339600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>42011800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>42363000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>41665600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>44481500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>40581000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3658000</v>
+        <v>5011500</v>
       </c>
       <c r="E18" s="3">
-        <v>-2096900</v>
+        <v>3597400</v>
       </c>
       <c r="F18" s="3">
-        <v>711700</v>
+        <v>-2062200</v>
       </c>
       <c r="G18" s="3">
-        <v>581400</v>
+        <v>700000</v>
       </c>
       <c r="H18" s="3">
-        <v>3112500</v>
+        <v>571700</v>
       </c>
       <c r="I18" s="3">
-        <v>-2010800</v>
+        <v>3061000</v>
       </c>
       <c r="J18" s="3">
+        <v>-1977500</v>
+      </c>
+      <c r="K18" s="3">
         <v>3216600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3230500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2172000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2938200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3165500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3593700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3703700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3878700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3622400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3645900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4724600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,288 +1333,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>41900</v>
+        <v>381200</v>
       </c>
       <c r="E20" s="3">
-        <v>99300</v>
+        <v>41200</v>
       </c>
       <c r="F20" s="3">
-        <v>70600</v>
+        <v>97600</v>
       </c>
       <c r="G20" s="3">
-        <v>-63400</v>
+        <v>69400</v>
       </c>
       <c r="H20" s="3">
-        <v>154300</v>
+        <v>-62300</v>
       </c>
       <c r="I20" s="3">
-        <v>236800</v>
+        <v>151800</v>
       </c>
       <c r="J20" s="3">
+        <v>232900</v>
+      </c>
+      <c r="K20" s="3">
         <v>171100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-22500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>615800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>516100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>242300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>117800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>316400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>807600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>409700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6350600</v>
+        <v>8085400</v>
       </c>
       <c r="E21" s="3">
-        <v>958200</v>
+        <v>6245500</v>
       </c>
       <c r="F21" s="3">
-        <v>3152000</v>
+        <v>942300</v>
       </c>
       <c r="G21" s="3">
-        <v>3137600</v>
+        <v>3099800</v>
       </c>
       <c r="H21" s="3">
-        <v>5559900</v>
+        <v>3085700</v>
       </c>
       <c r="I21" s="3">
-        <v>430600</v>
+        <v>5467900</v>
       </c>
       <c r="J21" s="3">
+        <v>423500</v>
+      </c>
+      <c r="K21" s="3">
         <v>5542000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5253300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4563300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4576500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5304400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5539300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5374300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5749100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6060400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5675400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6385500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>73000</v>
+        <v>88200</v>
       </c>
       <c r="E22" s="3">
-        <v>86100</v>
+        <v>71800</v>
       </c>
       <c r="F22" s="3">
-        <v>136400</v>
+        <v>84700</v>
       </c>
       <c r="G22" s="3">
-        <v>154300</v>
+        <v>134100</v>
       </c>
       <c r="H22" s="3">
-        <v>186600</v>
+        <v>151800</v>
       </c>
       <c r="I22" s="3">
-        <v>226100</v>
+        <v>183500</v>
       </c>
       <c r="J22" s="3">
+        <v>222300</v>
+      </c>
+      <c r="K22" s="3">
         <v>250000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>282700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>190500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>157000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>116400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>115600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>108800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>98700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>97400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>111500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3626900</v>
+        <v>5304400</v>
       </c>
       <c r="E23" s="3">
-        <v>-2083800</v>
+        <v>3566800</v>
       </c>
       <c r="F23" s="3">
-        <v>645900</v>
+        <v>-2049300</v>
       </c>
       <c r="G23" s="3">
-        <v>363600</v>
+        <v>635300</v>
       </c>
       <c r="H23" s="3">
-        <v>3080200</v>
+        <v>357600</v>
       </c>
       <c r="I23" s="3">
-        <v>-2000000</v>
+        <v>3029200</v>
       </c>
       <c r="J23" s="3">
+        <v>-1966900</v>
+      </c>
+      <c r="K23" s="3">
         <v>3137600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2925300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2597300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2777900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3565200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3720500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3712700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4096400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4332500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3944000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4648300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1045500</v>
+        <v>1082300</v>
       </c>
       <c r="E24" s="3">
-        <v>196200</v>
+        <v>1028200</v>
       </c>
       <c r="F24" s="3">
-        <v>445000</v>
+        <v>192900</v>
       </c>
       <c r="G24" s="3">
-        <v>376800</v>
+        <v>437600</v>
       </c>
       <c r="H24" s="3">
-        <v>911500</v>
+        <v>370600</v>
       </c>
       <c r="I24" s="3">
-        <v>-514400</v>
+        <v>896400</v>
       </c>
       <c r="J24" s="3">
+        <v>-505900</v>
+      </c>
+      <c r="K24" s="3">
         <v>567000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>983000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>646800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>774100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>980500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>112200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1202800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1277900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1219600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1354600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1448500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2581400</v>
+        <v>4222100</v>
       </c>
       <c r="E26" s="3">
-        <v>-2280000</v>
+        <v>2538700</v>
       </c>
       <c r="F26" s="3">
-        <v>201000</v>
+        <v>-2242200</v>
       </c>
       <c r="G26" s="3">
-        <v>-13200</v>
+        <v>197600</v>
       </c>
       <c r="H26" s="3">
-        <v>2168700</v>
+        <v>-12900</v>
       </c>
       <c r="I26" s="3">
-        <v>-1485700</v>
+        <v>2132800</v>
       </c>
       <c r="J26" s="3">
+        <v>-1461100</v>
+      </c>
+      <c r="K26" s="3">
         <v>2570600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1942300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1950500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2003900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2584700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3608300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2509900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2818400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3112900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2589400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3199800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2451000</v>
+        <v>4099800</v>
       </c>
       <c r="E27" s="3">
-        <v>-2393600</v>
+        <v>2410400</v>
       </c>
       <c r="F27" s="3">
-        <v>112400</v>
+        <v>-2354000</v>
       </c>
       <c r="G27" s="3">
-        <v>-130400</v>
+        <v>110600</v>
       </c>
       <c r="H27" s="3">
-        <v>2056300</v>
+        <v>-128200</v>
       </c>
       <c r="I27" s="3">
-        <v>-1588600</v>
+        <v>2022200</v>
       </c>
       <c r="J27" s="3">
+        <v>-1562300</v>
+      </c>
+      <c r="K27" s="3">
         <v>2506000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1846500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1870700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1895100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2495800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3513000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2407800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2742100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3001400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2522500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1805,8 +1862,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1861,8 +1921,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,120 +2039,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-41900</v>
+        <v>-381200</v>
       </c>
       <c r="E32" s="3">
-        <v>-99300</v>
+        <v>-41200</v>
       </c>
       <c r="F32" s="3">
-        <v>-70600</v>
+        <v>-97600</v>
       </c>
       <c r="G32" s="3">
-        <v>63400</v>
+        <v>-69400</v>
       </c>
       <c r="H32" s="3">
-        <v>-154300</v>
+        <v>62300</v>
       </c>
       <c r="I32" s="3">
-        <v>-236800</v>
+        <v>-151800</v>
       </c>
       <c r="J32" s="3">
+        <v>-232900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-171100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>22500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-615800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-516100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-242300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-117800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-316400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-807600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-409700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2451000</v>
+        <v>4099800</v>
       </c>
       <c r="E33" s="3">
-        <v>-2393600</v>
+        <v>2410400</v>
       </c>
       <c r="F33" s="3">
-        <v>112400</v>
+        <v>-2354000</v>
       </c>
       <c r="G33" s="3">
-        <v>-130400</v>
+        <v>110600</v>
       </c>
       <c r="H33" s="3">
-        <v>2056300</v>
+        <v>-128200</v>
       </c>
       <c r="I33" s="3">
-        <v>-1588600</v>
+        <v>2022200</v>
       </c>
       <c r="J33" s="3">
+        <v>-1562300</v>
+      </c>
+      <c r="K33" s="3">
         <v>2506000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1846500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1870700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1895100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2495800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3513000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2407800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2742100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3001400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2522500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2451000</v>
+        <v>4099800</v>
       </c>
       <c r="E35" s="3">
-        <v>-2393600</v>
+        <v>2410400</v>
       </c>
       <c r="F35" s="3">
-        <v>112400</v>
+        <v>-2354000</v>
       </c>
       <c r="G35" s="3">
-        <v>-130400</v>
+        <v>110600</v>
       </c>
       <c r="H35" s="3">
-        <v>2056300</v>
+        <v>-128200</v>
       </c>
       <c r="I35" s="3">
-        <v>-1588600</v>
+        <v>2022200</v>
       </c>
       <c r="J35" s="3">
+        <v>-1562300</v>
+      </c>
+      <c r="K35" s="3">
         <v>2506000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1846500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1870700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1895100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2495800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3513000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2407800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2742100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3001400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2522500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,512 +2387,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>29304500</v>
+        <v>27113700</v>
       </c>
       <c r="E41" s="3">
-        <v>26255400</v>
+        <v>28819400</v>
       </c>
       <c r="F41" s="3">
-        <v>19306700</v>
+        <v>25820800</v>
       </c>
       <c r="G41" s="3">
-        <v>22587800</v>
+        <v>18987100</v>
       </c>
       <c r="H41" s="3">
-        <v>20322200</v>
+        <v>22214000</v>
       </c>
       <c r="I41" s="3">
-        <v>14975200</v>
+        <v>19985900</v>
       </c>
       <c r="J41" s="3">
+        <v>14727400</v>
+      </c>
+      <c r="K41" s="3">
         <v>19854500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18752500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16629500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15738700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15435700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13544700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19523700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14580300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15219600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>12889600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16655200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>12448900</v>
+        <v>9544100</v>
       </c>
       <c r="E42" s="3">
-        <v>13505100</v>
+        <v>12242800</v>
       </c>
       <c r="F42" s="3">
-        <v>13088800</v>
+        <v>13281600</v>
       </c>
       <c r="G42" s="3">
-        <v>12704800</v>
+        <v>12872200</v>
       </c>
       <c r="H42" s="3">
-        <v>13881900</v>
+        <v>12494500</v>
       </c>
       <c r="I42" s="3">
-        <v>14603200</v>
+        <v>13652100</v>
       </c>
       <c r="J42" s="3">
+        <v>14361500</v>
+      </c>
+      <c r="K42" s="3">
         <v>14671400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13987800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14208300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>15096400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14413400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14221200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14027100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>13316900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>13057500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14655000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>13659600</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>62794500</v>
+        <v>62496300</v>
       </c>
       <c r="E43" s="3">
-        <v>65848400</v>
+        <v>61755100</v>
       </c>
       <c r="F43" s="3">
-        <v>69961000</v>
+        <v>64758500</v>
       </c>
       <c r="G43" s="3">
-        <v>75495800</v>
+        <v>68802900</v>
       </c>
       <c r="H43" s="3">
-        <v>72023200</v>
+        <v>74246100</v>
       </c>
       <c r="I43" s="3">
-        <v>70300700</v>
+        <v>70831000</v>
       </c>
       <c r="J43" s="3">
+        <v>69137000</v>
+      </c>
+      <c r="K43" s="3">
         <v>71465800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>68639000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>61167200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>57758100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>56931300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>57725300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>54084400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>53110500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>56567100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>56624600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>53759300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>35328600</v>
+        <v>31108700</v>
       </c>
       <c r="E44" s="3">
-        <v>36027200</v>
+        <v>34743800</v>
       </c>
       <c r="F44" s="3">
-        <v>38509300</v>
+        <v>35430800</v>
       </c>
       <c r="G44" s="3">
-        <v>35595300</v>
+        <v>37871800</v>
       </c>
       <c r="H44" s="3">
-        <v>42527300</v>
+        <v>35006100</v>
       </c>
       <c r="I44" s="3">
-        <v>40023700</v>
+        <v>41823400</v>
       </c>
       <c r="J44" s="3">
+        <v>39361200</v>
+      </c>
+      <c r="K44" s="3">
         <v>40078700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>34882500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>35582800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>32008900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>30281700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>28819400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>30246600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>29426400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>31289100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>29796000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>31845500</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5412800</v>
+        <v>5333800</v>
       </c>
       <c r="E45" s="3">
-        <v>6386500</v>
+        <v>5323200</v>
       </c>
       <c r="F45" s="3">
-        <v>6878200</v>
+        <v>6280800</v>
       </c>
       <c r="G45" s="3">
-        <v>6490600</v>
+        <v>6764300</v>
       </c>
       <c r="H45" s="3">
-        <v>6683200</v>
+        <v>6383100</v>
       </c>
       <c r="I45" s="3">
-        <v>6799200</v>
+        <v>6572500</v>
       </c>
       <c r="J45" s="3">
+        <v>6686700</v>
+      </c>
+      <c r="K45" s="3">
         <v>7071900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7594200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6833900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6323400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5979700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5625700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5643600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5530300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5720000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5824400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5884300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>145289300</v>
+        <v>135596600</v>
       </c>
       <c r="E46" s="3">
-        <v>148022600</v>
+        <v>142884400</v>
       </c>
       <c r="F46" s="3">
-        <v>147743900</v>
+        <v>145572400</v>
       </c>
       <c r="G46" s="3">
-        <v>152874400</v>
+        <v>145298300</v>
       </c>
       <c r="H46" s="3">
-        <v>155437800</v>
+        <v>150343900</v>
       </c>
       <c r="I46" s="3">
-        <v>146702000</v>
+        <v>152864900</v>
       </c>
       <c r="J46" s="3">
+        <v>144273700</v>
+      </c>
+      <c r="K46" s="3">
         <v>153142300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>143856000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>134421700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>126925500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>123041900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>119936200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>123525500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>115964400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>121853200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>119789700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>121803900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>75569900</v>
+        <v>75414300</v>
       </c>
       <c r="E47" s="3">
-        <v>74168000</v>
+        <v>74319100</v>
       </c>
       <c r="F47" s="3">
-        <v>76104600</v>
+        <v>72940300</v>
       </c>
       <c r="G47" s="3">
-        <v>75296000</v>
+        <v>74844900</v>
       </c>
       <c r="H47" s="3">
-        <v>76115400</v>
+        <v>74049700</v>
       </c>
       <c r="I47" s="3">
-        <v>74967100</v>
+        <v>74855500</v>
       </c>
       <c r="J47" s="3">
+        <v>73726200</v>
+      </c>
+      <c r="K47" s="3">
         <v>75553200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>70554100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>63870900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>63911300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>63030700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>62396100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>60986900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>59315100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>62174400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>59838500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>58128200</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>99040600</v>
+        <v>97403600</v>
       </c>
       <c r="E48" s="3">
-        <v>101984400</v>
+        <v>97401200</v>
       </c>
       <c r="F48" s="3">
-        <v>105056300</v>
+        <v>100296300</v>
       </c>
       <c r="G48" s="3">
-        <v>106013200</v>
+        <v>103317300</v>
       </c>
       <c r="H48" s="3">
-        <v>105599300</v>
+        <v>104258500</v>
       </c>
       <c r="I48" s="3">
-        <v>103067000</v>
+        <v>103851400</v>
       </c>
       <c r="J48" s="3">
+        <v>101361000</v>
+      </c>
+      <c r="K48" s="3">
         <v>102096900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>95133500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>87098300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>85089500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>82541100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>84211000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>83246000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>82615500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>86853700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>86067300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>77534800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19653600</v>
+        <v>19291800</v>
       </c>
       <c r="E49" s="3">
-        <v>19841400</v>
+        <v>19328300</v>
       </c>
       <c r="F49" s="3">
-        <v>19505200</v>
+        <v>19512900</v>
       </c>
       <c r="G49" s="3">
-        <v>19112900</v>
+        <v>19182400</v>
       </c>
       <c r="H49" s="3">
-        <v>18988500</v>
+        <v>18796500</v>
       </c>
       <c r="I49" s="3">
-        <v>18401100</v>
+        <v>18674200</v>
       </c>
       <c r="J49" s="3">
+        <v>18096600</v>
+      </c>
+      <c r="K49" s="3">
         <v>17974100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17508100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16093400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15661900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15330300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15410500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>14909000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14512900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14723100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14200800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>12920100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,64 +3034,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8125800</v>
+        <v>8434800</v>
       </c>
       <c r="E52" s="3">
-        <v>8581500</v>
+        <v>7991300</v>
       </c>
       <c r="F52" s="3">
-        <v>7654500</v>
+        <v>8439500</v>
       </c>
       <c r="G52" s="3">
-        <v>8479900</v>
+        <v>7527800</v>
       </c>
       <c r="H52" s="3">
-        <v>9153300</v>
+        <v>8339500</v>
       </c>
       <c r="I52" s="3">
-        <v>8763400</v>
+        <v>9001800</v>
       </c>
       <c r="J52" s="3">
+        <v>8618300</v>
+      </c>
+      <c r="K52" s="3">
         <v>7099400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6075400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4853500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4945400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4596200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4540700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4130000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4270300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5344400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5325600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5596700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>347679100</v>
+        <v>336141000</v>
       </c>
       <c r="E54" s="3">
-        <v>352597900</v>
+        <v>341924200</v>
       </c>
       <c r="F54" s="3">
-        <v>356064500</v>
+        <v>346761500</v>
       </c>
       <c r="G54" s="3">
-        <v>361776300</v>
+        <v>350170800</v>
       </c>
       <c r="H54" s="3">
-        <v>365294400</v>
+        <v>355788100</v>
       </c>
       <c r="I54" s="3">
-        <v>351900500</v>
+        <v>359247900</v>
       </c>
       <c r="J54" s="3">
+        <v>346075700</v>
+      </c>
+      <c r="K54" s="3">
         <v>355865900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>333127100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>306337800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>296533600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>288540100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>286494500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>286797500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>276678200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>290948800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>285221700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>275983900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,344 +3259,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17795900</v>
+        <v>14561500</v>
       </c>
       <c r="E57" s="3">
-        <v>16346100</v>
+        <v>17501300</v>
       </c>
       <c r="F57" s="3">
-        <v>16958500</v>
+        <v>16075500</v>
       </c>
       <c r="G57" s="3">
-        <v>15200100</v>
+        <v>16677800</v>
       </c>
       <c r="H57" s="3">
-        <v>19341400</v>
+        <v>14948500</v>
       </c>
       <c r="I57" s="3">
-        <v>18175100</v>
+        <v>19021200</v>
       </c>
       <c r="J57" s="3">
+        <v>17874200</v>
+      </c>
+      <c r="K57" s="3">
         <v>18854500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16779400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18182400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17256200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16321800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>13969900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17054200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>15677600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16264300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13577500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>16265500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>71237300</v>
+        <v>69764000</v>
       </c>
       <c r="E58" s="3">
-        <v>73805500</v>
+        <v>70058100</v>
       </c>
       <c r="F58" s="3">
-        <v>73712200</v>
+        <v>72583900</v>
       </c>
       <c r="G58" s="3">
-        <v>74883300</v>
+        <v>72492100</v>
       </c>
       <c r="H58" s="3">
-        <v>72080600</v>
+        <v>73643800</v>
       </c>
       <c r="I58" s="3">
-        <v>77888200</v>
+        <v>70887500</v>
       </c>
       <c r="J58" s="3">
+        <v>76598900</v>
+      </c>
+      <c r="K58" s="3">
         <v>71390400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>66526300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>58944300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>55475400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>53963400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>54692500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>50942800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>50789100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>51668800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>55507100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>52715800</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>32621600</v>
+        <v>33089800</v>
       </c>
       <c r="E59" s="3">
-        <v>33683800</v>
+        <v>32081600</v>
       </c>
       <c r="F59" s="3">
-        <v>33473300</v>
+        <v>33126200</v>
       </c>
       <c r="G59" s="3">
-        <v>36476900</v>
+        <v>32919200</v>
       </c>
       <c r="H59" s="3">
-        <v>36356100</v>
+        <v>35873100</v>
       </c>
       <c r="I59" s="3">
-        <v>35005600</v>
+        <v>35754300</v>
       </c>
       <c r="J59" s="3">
+        <v>34426200</v>
+      </c>
+      <c r="K59" s="3">
         <v>34375200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32561700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>30066900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>28935600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>28596300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>29650800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>27662700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>26797600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>34037000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>30051900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>28641000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>121654700</v>
+        <v>117415300</v>
       </c>
       <c r="E60" s="3">
-        <v>123835400</v>
+        <v>119641100</v>
       </c>
       <c r="F60" s="3">
-        <v>124144000</v>
+        <v>121785600</v>
       </c>
       <c r="G60" s="3">
-        <v>126560400</v>
+        <v>122089100</v>
       </c>
       <c r="H60" s="3">
-        <v>127778100</v>
+        <v>124465500</v>
       </c>
       <c r="I60" s="3">
-        <v>131068800</v>
+        <v>125663000</v>
       </c>
       <c r="J60" s="3">
+        <v>128899300</v>
+      </c>
+      <c r="K60" s="3">
         <v>124620100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>115867400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>107193500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>101667100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>98881500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>98313300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>95659700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>93264300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>101970000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>99136500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>97622300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>110848300</v>
+        <v>101804500</v>
       </c>
       <c r="E61" s="3">
-        <v>114704800</v>
+        <v>109013500</v>
       </c>
       <c r="F61" s="3">
-        <v>115669000</v>
+        <v>112806200</v>
       </c>
       <c r="G61" s="3">
-        <v>118637900</v>
+        <v>113754400</v>
       </c>
       <c r="H61" s="3">
-        <v>119007500</v>
+        <v>116674200</v>
       </c>
       <c r="I61" s="3">
-        <v>106449800</v>
+        <v>117037700</v>
       </c>
       <c r="J61" s="3">
+        <v>104687800</v>
+      </c>
+      <c r="K61" s="3">
         <v>113914100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>104878300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>97366900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>95093400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>88104600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>87939300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>88054900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>83288700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>86016800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>82633900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>78530200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>45051300</v>
+        <v>43692700</v>
       </c>
       <c r="E62" s="3">
-        <v>43652900</v>
+        <v>44305600</v>
       </c>
       <c r="F62" s="3">
-        <v>40695900</v>
+        <v>42930400</v>
       </c>
       <c r="G62" s="3">
-        <v>41407700</v>
+        <v>40022300</v>
       </c>
       <c r="H62" s="3">
-        <v>43420900</v>
+        <v>40722300</v>
       </c>
       <c r="I62" s="3">
-        <v>40480600</v>
+        <v>42702100</v>
       </c>
       <c r="J62" s="3">
+        <v>39810600</v>
+      </c>
+      <c r="K62" s="3">
         <v>36150400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34247300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>29170900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>29285900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>28112100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>27134200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>32700400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>32046300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>34324600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>34040500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>35561700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>279328300</v>
+        <v>264744100</v>
       </c>
       <c r="E66" s="3">
-        <v>283916900</v>
+        <v>274704700</v>
       </c>
       <c r="F66" s="3">
-        <v>282339100</v>
+        <v>279217400</v>
       </c>
       <c r="G66" s="3">
-        <v>288396600</v>
+        <v>277665700</v>
       </c>
       <c r="H66" s="3">
-        <v>291890700</v>
+        <v>283623000</v>
       </c>
       <c r="I66" s="3">
-        <v>279549500</v>
+        <v>287059200</v>
       </c>
       <c r="J66" s="3">
+        <v>274922300</v>
+      </c>
+      <c r="K66" s="3">
         <v>276385600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>256632500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>235201100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>227401300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>216609000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>214834200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>217724400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>209829000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>223534500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>217199500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>212960800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,8 +3988,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>51763200</v>
+        <v>55421400</v>
       </c>
       <c r="E72" s="3">
-        <v>51480900</v>
+        <v>50906400</v>
       </c>
       <c r="F72" s="3">
-        <v>56137700</v>
+        <v>50628700</v>
       </c>
       <c r="G72" s="3">
-        <v>55418700</v>
+        <v>55208500</v>
       </c>
       <c r="H72" s="3">
-        <v>54978500</v>
+        <v>54501400</v>
       </c>
       <c r="I72" s="3">
-        <v>54229700</v>
+        <v>54068500</v>
       </c>
       <c r="J72" s="3">
+        <v>53332100</v>
+      </c>
+      <c r="K72" s="3">
         <v>61348300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>58541700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>54364300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>51995800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>54531100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>53354000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>50207900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>47608300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>47154300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>47865600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>42799500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>68350900</v>
+        <v>71396900</v>
       </c>
       <c r="E76" s="3">
-        <v>68681000</v>
+        <v>67219500</v>
       </c>
       <c r="F76" s="3">
-        <v>73725400</v>
+        <v>67544200</v>
       </c>
       <c r="G76" s="3">
-        <v>73379700</v>
+        <v>72505100</v>
       </c>
       <c r="H76" s="3">
-        <v>73403600</v>
+        <v>72165100</v>
       </c>
       <c r="I76" s="3">
-        <v>72351000</v>
+        <v>72188600</v>
       </c>
       <c r="J76" s="3">
+        <v>71153400</v>
+      </c>
+      <c r="K76" s="3">
         <v>79480300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>76494600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>71136700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>69132300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>71931100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>71660400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>69073100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>66849300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>67414300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>68022300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>63023000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2451000</v>
+        <v>4099800</v>
       </c>
       <c r="E81" s="3">
-        <v>-2393600</v>
+        <v>2410400</v>
       </c>
       <c r="F81" s="3">
-        <v>112400</v>
+        <v>-2354000</v>
       </c>
       <c r="G81" s="3">
-        <v>-130400</v>
+        <v>110600</v>
       </c>
       <c r="H81" s="3">
-        <v>2056300</v>
+        <v>-128200</v>
       </c>
       <c r="I81" s="3">
-        <v>-1588600</v>
+        <v>2022200</v>
       </c>
       <c r="J81" s="3">
+        <v>-1562300</v>
+      </c>
+      <c r="K81" s="3">
         <v>2506000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1846500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1870700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1895100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2495800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3513000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2407800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2742100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3001400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2522500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,64 +4608,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2650800</v>
+        <v>2692800</v>
       </c>
       <c r="E83" s="3">
-        <v>2955800</v>
+        <v>2606900</v>
       </c>
       <c r="F83" s="3">
-        <v>2369700</v>
+        <v>2906900</v>
       </c>
       <c r="G83" s="3">
-        <v>2619700</v>
+        <v>2330400</v>
       </c>
       <c r="H83" s="3">
-        <v>2293100</v>
+        <v>2576300</v>
       </c>
       <c r="I83" s="3">
-        <v>2204600</v>
+        <v>2255200</v>
       </c>
       <c r="J83" s="3">
+        <v>2168100</v>
+      </c>
+      <c r="K83" s="3">
         <v>2154400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2045200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1775500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1641500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1622800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1703200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1552800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1554000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1630400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1619900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9908100</v>
+        <v>5957300</v>
       </c>
       <c r="E89" s="3">
-        <v>8941600</v>
+        <v>9744100</v>
       </c>
       <c r="F89" s="3">
-        <v>1806300</v>
+        <v>8793600</v>
       </c>
       <c r="G89" s="3">
-        <v>1588600</v>
+        <v>1776400</v>
       </c>
       <c r="H89" s="3">
-        <v>5217800</v>
+        <v>1562300</v>
       </c>
       <c r="I89" s="3">
-        <v>1887600</v>
+        <v>5131500</v>
       </c>
       <c r="J89" s="3">
+        <v>1856400</v>
+      </c>
+      <c r="K89" s="3">
         <v>741600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1387500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1982600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>161400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>892700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6133900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1456300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>535200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2394600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>332200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>946100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,64 +5044,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-728500</v>
+        <v>-2248100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1924700</v>
+        <v>-716400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1928300</v>
+        <v>-1892800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2402000</v>
+        <v>-1896400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2119700</v>
+        <v>-2362200</v>
       </c>
       <c r="I91" s="3">
-        <v>-2094500</v>
+        <v>-2084600</v>
       </c>
       <c r="J91" s="3">
+        <v>-2059900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1995300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3047200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2287200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1701900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1474600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2888000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1644800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1575300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5040300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3304300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2574200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2352900</v>
+        <v>-1295200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1985700</v>
+        <v>-2314000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2025200</v>
+        <v>-1952800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2945000</v>
+        <v>-1991600</v>
       </c>
       <c r="H94" s="3">
-        <v>-3436700</v>
+        <v>-2896300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1805100</v>
+        <v>-3379800</v>
       </c>
       <c r="J94" s="3">
+        <v>-1775200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4501300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3564100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2627200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2518800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2461700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4470000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3543200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3049600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>401400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9085300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2905200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,16 +5303,17 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1151900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1132900</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -5127,8 +5360,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,172 +5537,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3973800</v>
+        <v>-5933800</v>
       </c>
       <c r="E100" s="3">
-        <v>257200</v>
+        <v>-3908000</v>
       </c>
       <c r="F100" s="3">
-        <v>-3105300</v>
+        <v>252900</v>
       </c>
       <c r="G100" s="3">
-        <v>3986900</v>
+        <v>-3053900</v>
       </c>
       <c r="H100" s="3">
-        <v>3100600</v>
+        <v>3920900</v>
       </c>
       <c r="I100" s="3">
-        <v>-4722600</v>
+        <v>3049200</v>
       </c>
       <c r="J100" s="3">
+        <v>-4644400</v>
+      </c>
+      <c r="K100" s="3">
         <v>4367300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3080300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5461600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2378300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3870500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4680900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7325500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3165100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-461300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4831400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2236100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-532300</v>
+        <v>-434100</v>
       </c>
       <c r="E101" s="3">
-        <v>-264400</v>
+        <v>-523500</v>
       </c>
       <c r="F101" s="3">
-        <v>43100</v>
+        <v>-260000</v>
       </c>
       <c r="G101" s="3">
-        <v>-364800</v>
+        <v>42400</v>
       </c>
       <c r="H101" s="3">
-        <v>465300</v>
+        <v>-358800</v>
       </c>
       <c r="I101" s="3">
-        <v>-239200</v>
+        <v>457600</v>
       </c>
       <c r="J101" s="3">
+        <v>-235300</v>
+      </c>
+      <c r="K101" s="3">
         <v>283500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>88700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-98600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>282200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-120800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-56100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-295100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-618200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>156100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3049100</v>
+        <v>-1705800</v>
       </c>
       <c r="E102" s="3">
-        <v>6948700</v>
+        <v>2998600</v>
       </c>
       <c r="F102" s="3">
-        <v>-3281200</v>
+        <v>6833700</v>
       </c>
       <c r="G102" s="3">
-        <v>2265600</v>
+        <v>-3226900</v>
       </c>
       <c r="H102" s="3">
-        <v>5347000</v>
+        <v>2228100</v>
       </c>
       <c r="I102" s="3">
-        <v>-4879300</v>
+        <v>5258500</v>
       </c>
       <c r="J102" s="3">
+        <v>-4798500</v>
+      </c>
+      <c r="K102" s="3">
         <v>891200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>992500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>753200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>303000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2180600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5979100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4943500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>32500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2330000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>235900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DDAIF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DDAIF_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>54844900</v>
+        <v>50245400</v>
       </c>
       <c r="E8" s="3">
-        <v>47386600</v>
+        <v>57110300</v>
       </c>
       <c r="F8" s="3">
-        <v>35508500</v>
+        <v>49343800</v>
       </c>
       <c r="G8" s="3">
-        <v>43789100</v>
+        <v>36975100</v>
       </c>
       <c r="H8" s="3">
-        <v>55440200</v>
+        <v>45597800</v>
       </c>
       <c r="I8" s="3">
-        <v>50902800</v>
+        <v>57730100</v>
       </c>
       <c r="J8" s="3">
+        <v>53005300</v>
+      </c>
+      <c r="K8" s="3">
         <v>50173500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>47486700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>55135000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>44537700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>44750100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>43683900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>48933300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>45715500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>46241700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>45287900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>48127400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>45305500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>42895100</v>
+        <v>38567600</v>
       </c>
       <c r="E9" s="3">
-        <v>37991800</v>
+        <v>44666800</v>
       </c>
       <c r="F9" s="3">
-        <v>31192200</v>
+        <v>39561100</v>
       </c>
       <c r="G9" s="3">
-        <v>36950700</v>
+        <v>32480600</v>
       </c>
       <c r="H9" s="3">
-        <v>41459900</v>
+        <v>38476900</v>
       </c>
       <c r="I9" s="3">
-        <v>40698700</v>
+        <v>43172300</v>
       </c>
       <c r="J9" s="3">
+        <v>42379800</v>
+      </c>
+      <c r="K9" s="3">
         <v>41095200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>38430300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>45402100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>35716800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>35691600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>34213700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>38599800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>36155000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>36374900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>35893900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>38207500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>34973700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11949900</v>
+        <v>11677800</v>
       </c>
       <c r="E10" s="3">
-        <v>9394700</v>
+        <v>12443400</v>
       </c>
       <c r="F10" s="3">
-        <v>4316200</v>
+        <v>9782800</v>
       </c>
       <c r="G10" s="3">
-        <v>6838400</v>
+        <v>4494500</v>
       </c>
       <c r="H10" s="3">
-        <v>13980300</v>
+        <v>7120900</v>
       </c>
       <c r="I10" s="3">
-        <v>10204100</v>
+        <v>14557800</v>
       </c>
       <c r="J10" s="3">
+        <v>10625600</v>
+      </c>
+      <c r="K10" s="3">
         <v>9078300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9056400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9732900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8820900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9058500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9470300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>10333500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9560500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9866800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9394000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>9919900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>10331900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,67 +949,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1524600</v>
+        <v>2243000</v>
       </c>
       <c r="E12" s="3">
-        <v>1828100</v>
+        <v>1587600</v>
       </c>
       <c r="F12" s="3">
-        <v>1816400</v>
+        <v>1903600</v>
       </c>
       <c r="G12" s="3">
-        <v>2025800</v>
+        <v>1891400</v>
       </c>
       <c r="H12" s="3">
-        <v>1822200</v>
+        <v>2109400</v>
       </c>
       <c r="I12" s="3">
-        <v>2075200</v>
+        <v>1897500</v>
       </c>
       <c r="J12" s="3">
+        <v>2160900</v>
+      </c>
+      <c r="K12" s="3">
         <v>1845800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2038300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1743600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1966000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1778800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1879800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1603300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1847900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1586500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1699700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1711400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1523600</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,37 +1071,40 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>650500</v>
+        <v>422600</v>
       </c>
       <c r="E14" s="3">
-        <v>481100</v>
+        <v>677400</v>
       </c>
       <c r="F14" s="3">
-        <v>1145800</v>
+        <v>501000</v>
       </c>
       <c r="G14" s="3">
-        <v>120000</v>
+        <v>1193100</v>
       </c>
       <c r="H14" s="3">
-        <v>5305600</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>124900</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5524700</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2554000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-858900</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1114,8 +1133,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1173,8 +1195,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>49833500</v>
+        <v>43980800</v>
       </c>
       <c r="E17" s="3">
-        <v>43789100</v>
+        <v>51891800</v>
       </c>
       <c r="F17" s="3">
-        <v>37570700</v>
+        <v>45597800</v>
       </c>
       <c r="G17" s="3">
-        <v>43089200</v>
+        <v>39122500</v>
       </c>
       <c r="H17" s="3">
-        <v>54868500</v>
+        <v>44868900</v>
       </c>
       <c r="I17" s="3">
-        <v>47841800</v>
+        <v>57134800</v>
       </c>
       <c r="J17" s="3">
+        <v>49817900</v>
+      </c>
+      <c r="K17" s="3">
         <v>52151000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>44270200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>51904500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>42365700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>41811800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>40518400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>45339600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>42011800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>42363000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>41665600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>44481500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>40581000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5011500</v>
+        <v>6264600</v>
       </c>
       <c r="E18" s="3">
-        <v>3597400</v>
+        <v>5218500</v>
       </c>
       <c r="F18" s="3">
-        <v>-2062200</v>
+        <v>3746000</v>
       </c>
       <c r="G18" s="3">
-        <v>700000</v>
+        <v>-2147400</v>
       </c>
       <c r="H18" s="3">
-        <v>571700</v>
+        <v>728900</v>
       </c>
       <c r="I18" s="3">
-        <v>3061000</v>
+        <v>595300</v>
       </c>
       <c r="J18" s="3">
+        <v>3187400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1977500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3216600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3230500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2172000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2938200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3165500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3593700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3703700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3878700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3622400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3645900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4724600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,303 +1366,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>381200</v>
+        <v>809700</v>
       </c>
       <c r="E20" s="3">
-        <v>41200</v>
+        <v>396900</v>
       </c>
       <c r="F20" s="3">
-        <v>97600</v>
+        <v>42900</v>
       </c>
       <c r="G20" s="3">
-        <v>69400</v>
+        <v>101700</v>
       </c>
       <c r="H20" s="3">
-        <v>-62300</v>
+        <v>72300</v>
       </c>
       <c r="I20" s="3">
-        <v>151800</v>
+        <v>-64900</v>
       </c>
       <c r="J20" s="3">
+        <v>158000</v>
+      </c>
+      <c r="K20" s="3">
         <v>232900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>171100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-22500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>615800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>516100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>242300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>117800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>316400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>807600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>409700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8085400</v>
+        <v>9298900</v>
       </c>
       <c r="E21" s="3">
-        <v>6245500</v>
+        <v>8419400</v>
       </c>
       <c r="F21" s="3">
-        <v>942300</v>
+        <v>6503500</v>
       </c>
       <c r="G21" s="3">
-        <v>3099800</v>
+        <v>981200</v>
       </c>
       <c r="H21" s="3">
-        <v>3085700</v>
+        <v>3227800</v>
       </c>
       <c r="I21" s="3">
-        <v>5467900</v>
+        <v>3213100</v>
       </c>
       <c r="J21" s="3">
+        <v>5693800</v>
+      </c>
+      <c r="K21" s="3">
         <v>423500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5542000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5253300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4563300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4576500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5304400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5539300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5374300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5749100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>6060400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5675400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6385500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>91900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>74700</v>
+      </c>
+      <c r="G22" s="3">
         <v>88200</v>
       </c>
-      <c r="E22" s="3">
-        <v>71800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>84700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>134100</v>
-      </c>
       <c r="H22" s="3">
-        <v>151800</v>
+        <v>139600</v>
       </c>
       <c r="I22" s="3">
-        <v>183500</v>
+        <v>158000</v>
       </c>
       <c r="J22" s="3">
+        <v>191100</v>
+      </c>
+      <c r="K22" s="3">
         <v>222300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>250000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>282700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>190500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>157000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>116400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>115600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>108800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>98700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>97400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>111500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5304400</v>
+        <v>6960400</v>
       </c>
       <c r="E23" s="3">
-        <v>3566800</v>
+        <v>5523500</v>
       </c>
       <c r="F23" s="3">
-        <v>-2049300</v>
+        <v>3714200</v>
       </c>
       <c r="G23" s="3">
-        <v>635300</v>
+        <v>-2133900</v>
       </c>
       <c r="H23" s="3">
-        <v>357600</v>
+        <v>661500</v>
       </c>
       <c r="I23" s="3">
-        <v>3029200</v>
+        <v>372400</v>
       </c>
       <c r="J23" s="3">
+        <v>3154300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1966900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3137600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2925300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2597300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2777900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3565200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3720500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3712700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4096400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4332500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3944000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4648300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1082300</v>
+        <v>1603500</v>
       </c>
       <c r="E24" s="3">
-        <v>1028200</v>
+        <v>1127000</v>
       </c>
       <c r="F24" s="3">
-        <v>192900</v>
+        <v>1070600</v>
       </c>
       <c r="G24" s="3">
-        <v>437600</v>
+        <v>200900</v>
       </c>
       <c r="H24" s="3">
-        <v>370600</v>
+        <v>455700</v>
       </c>
       <c r="I24" s="3">
-        <v>896400</v>
+        <v>385900</v>
       </c>
       <c r="J24" s="3">
+        <v>933400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-505900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>567000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>983000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>646800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>774100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>980500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>112200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1202800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1277900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1219600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1354600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1448500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4222100</v>
+        <v>5356900</v>
       </c>
       <c r="E26" s="3">
-        <v>2538700</v>
+        <v>4396500</v>
       </c>
       <c r="F26" s="3">
-        <v>-2242200</v>
+        <v>2643500</v>
       </c>
       <c r="G26" s="3">
-        <v>197600</v>
+        <v>-2334800</v>
       </c>
       <c r="H26" s="3">
-        <v>-12900</v>
+        <v>205800</v>
       </c>
       <c r="I26" s="3">
-        <v>2132800</v>
+        <v>-13500</v>
       </c>
       <c r="J26" s="3">
+        <v>2220900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1461100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2570600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1942300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1950500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2003900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2584700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3608300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2509900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2818400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3112900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2589400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3199800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4099800</v>
+        <v>5255200</v>
       </c>
       <c r="E27" s="3">
-        <v>2410400</v>
+        <v>4269100</v>
       </c>
       <c r="F27" s="3">
-        <v>-2354000</v>
+        <v>2510000</v>
       </c>
       <c r="G27" s="3">
-        <v>110600</v>
+        <v>-2451200</v>
       </c>
       <c r="H27" s="3">
-        <v>-128200</v>
+        <v>115100</v>
       </c>
       <c r="I27" s="3">
-        <v>2022200</v>
+        <v>-133500</v>
       </c>
       <c r="J27" s="3">
+        <v>2105800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1562300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2506000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1846500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1870700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1895100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2495800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3513000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2407800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2742100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3001400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2522500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,8 +1922,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1924,8 +1984,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-381200</v>
+        <v>-809700</v>
       </c>
       <c r="E32" s="3">
-        <v>-41200</v>
+        <v>-396900</v>
       </c>
       <c r="F32" s="3">
-        <v>-97600</v>
+        <v>-42900</v>
       </c>
       <c r="G32" s="3">
-        <v>-69400</v>
+        <v>-101700</v>
       </c>
       <c r="H32" s="3">
-        <v>62300</v>
+        <v>-72300</v>
       </c>
       <c r="I32" s="3">
-        <v>-151800</v>
+        <v>64900</v>
       </c>
       <c r="J32" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-232900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-171100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>22500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-615800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-516100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-242300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-117800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-316400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-807600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-409700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4099800</v>
+        <v>5255200</v>
       </c>
       <c r="E33" s="3">
-        <v>2410400</v>
+        <v>4269100</v>
       </c>
       <c r="F33" s="3">
-        <v>-2354000</v>
+        <v>2510000</v>
       </c>
       <c r="G33" s="3">
-        <v>110600</v>
+        <v>-2451200</v>
       </c>
       <c r="H33" s="3">
-        <v>-128200</v>
+        <v>115100</v>
       </c>
       <c r="I33" s="3">
-        <v>2022200</v>
+        <v>-133500</v>
       </c>
       <c r="J33" s="3">
+        <v>2105800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1562300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2506000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1846500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1870700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1895100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2495800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3513000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2407800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2742100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3001400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2522500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4099800</v>
+        <v>5255200</v>
       </c>
       <c r="E35" s="3">
-        <v>2410400</v>
+        <v>4269100</v>
       </c>
       <c r="F35" s="3">
-        <v>-2354000</v>
+        <v>2510000</v>
       </c>
       <c r="G35" s="3">
-        <v>110600</v>
+        <v>-2451200</v>
       </c>
       <c r="H35" s="3">
-        <v>-128200</v>
+        <v>115100</v>
       </c>
       <c r="I35" s="3">
-        <v>2022200</v>
+        <v>-133500</v>
       </c>
       <c r="J35" s="3">
+        <v>2105800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1562300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2506000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1846500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1870700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1895100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2495800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3513000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2407800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2742100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3001400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2522500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,539 +2473,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>27113700</v>
+        <v>31795800</v>
       </c>
       <c r="E41" s="3">
-        <v>28819400</v>
+        <v>28233600</v>
       </c>
       <c r="F41" s="3">
-        <v>25820800</v>
+        <v>30009800</v>
       </c>
       <c r="G41" s="3">
-        <v>18987100</v>
+        <v>26887300</v>
       </c>
       <c r="H41" s="3">
-        <v>22214000</v>
+        <v>19771300</v>
       </c>
       <c r="I41" s="3">
-        <v>19985900</v>
+        <v>23131500</v>
       </c>
       <c r="J41" s="3">
+        <v>20811400</v>
+      </c>
+      <c r="K41" s="3">
         <v>14727400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19854500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>18752500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16629500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15738700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15435700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13544700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19523700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14580300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15219600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>12889600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>16655200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9544100</v>
+        <v>10555700</v>
       </c>
       <c r="E42" s="3">
-        <v>12242800</v>
+        <v>9938300</v>
       </c>
       <c r="F42" s="3">
-        <v>13281600</v>
+        <v>12748500</v>
       </c>
       <c r="G42" s="3">
-        <v>12872200</v>
+        <v>13830100</v>
       </c>
       <c r="H42" s="3">
-        <v>12494500</v>
+        <v>13403800</v>
       </c>
       <c r="I42" s="3">
-        <v>13652100</v>
+        <v>13010600</v>
       </c>
       <c r="J42" s="3">
+        <v>14216000</v>
+      </c>
+      <c r="K42" s="3">
         <v>14361500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14671400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13987800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14208300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>15096400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14413400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14221200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14027100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>13316900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>13057500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>14655000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>13659600</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>62496300</v>
+        <v>66046600</v>
       </c>
       <c r="E43" s="3">
-        <v>61755100</v>
+        <v>65077600</v>
       </c>
       <c r="F43" s="3">
-        <v>64758500</v>
+        <v>64305900</v>
       </c>
       <c r="G43" s="3">
-        <v>68802900</v>
+        <v>67433200</v>
       </c>
       <c r="H43" s="3">
-        <v>74246100</v>
+        <v>71644800</v>
       </c>
       <c r="I43" s="3">
-        <v>70831000</v>
+        <v>77312800</v>
       </c>
       <c r="J43" s="3">
+        <v>73756600</v>
+      </c>
+      <c r="K43" s="3">
         <v>69137000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>71465800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>68639000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>61167200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>57758100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>56931300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>57725300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>54084400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>53110500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>56567100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>56624600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>53759300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>31108700</v>
+        <v>35307900</v>
       </c>
       <c r="E44" s="3">
-        <v>34743800</v>
+        <v>32393600</v>
       </c>
       <c r="F44" s="3">
-        <v>35430800</v>
+        <v>36178900</v>
       </c>
       <c r="G44" s="3">
-        <v>37871800</v>
+        <v>36894200</v>
       </c>
       <c r="H44" s="3">
-        <v>35006100</v>
+        <v>39436100</v>
       </c>
       <c r="I44" s="3">
-        <v>41823400</v>
+        <v>36452000</v>
       </c>
       <c r="J44" s="3">
+        <v>43550800</v>
+      </c>
+      <c r="K44" s="3">
         <v>39361200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>40078700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>34882500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>35582800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>32008900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>30281700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>28819400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>30246600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>29426400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>31289100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>29796000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>31845500</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5333800</v>
+        <v>6173900</v>
       </c>
       <c r="E45" s="3">
-        <v>5323200</v>
+        <v>5554100</v>
       </c>
       <c r="F45" s="3">
-        <v>6280800</v>
+        <v>5543100</v>
       </c>
       <c r="G45" s="3">
-        <v>6764300</v>
+        <v>6540200</v>
       </c>
       <c r="H45" s="3">
-        <v>6383100</v>
+        <v>7043700</v>
       </c>
       <c r="I45" s="3">
-        <v>6572500</v>
+        <v>6646800</v>
       </c>
       <c r="J45" s="3">
+        <v>6844000</v>
+      </c>
+      <c r="K45" s="3">
         <v>6686700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7071900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7594200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6833900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6323400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5979700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5625700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5643600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5530300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5720000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5824400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5884300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>135596600</v>
+        <v>149880000</v>
       </c>
       <c r="E46" s="3">
-        <v>142884400</v>
+        <v>141197200</v>
       </c>
       <c r="F46" s="3">
-        <v>145572400</v>
+        <v>148786100</v>
       </c>
       <c r="G46" s="3">
-        <v>145298300</v>
+        <v>151585200</v>
       </c>
       <c r="H46" s="3">
-        <v>150343900</v>
+        <v>151299700</v>
       </c>
       <c r="I46" s="3">
-        <v>152864900</v>
+        <v>156553700</v>
       </c>
       <c r="J46" s="3">
+        <v>159178900</v>
+      </c>
+      <c r="K46" s="3">
         <v>144273700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>153142300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>143856000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>134421700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>126925500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>123041900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>119936200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>123525500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>115964400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>121853200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>119789700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>121803900</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>75414300</v>
+        <v>81479000</v>
       </c>
       <c r="E47" s="3">
-        <v>74319100</v>
+        <v>78529200</v>
       </c>
       <c r="F47" s="3">
-        <v>72940300</v>
+        <v>77388700</v>
       </c>
       <c r="G47" s="3">
-        <v>74844900</v>
+        <v>75953100</v>
       </c>
       <c r="H47" s="3">
-        <v>74049700</v>
+        <v>77936300</v>
       </c>
       <c r="I47" s="3">
-        <v>74855500</v>
+        <v>77108200</v>
       </c>
       <c r="J47" s="3">
+        <v>77947300</v>
+      </c>
+      <c r="K47" s="3">
         <v>73726200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>75553200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>70554100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>63870900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>63911300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>63030700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>62396100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>60986900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>59315100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>62174400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>59838500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>58128200</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>97403600</v>
+        <v>102292800</v>
       </c>
       <c r="E48" s="3">
-        <v>97401200</v>
+        <v>101426700</v>
       </c>
       <c r="F48" s="3">
-        <v>100296300</v>
+        <v>101424300</v>
       </c>
       <c r="G48" s="3">
-        <v>103317300</v>
+        <v>104439000</v>
       </c>
       <c r="H48" s="3">
-        <v>104258500</v>
+        <v>107584700</v>
       </c>
       <c r="I48" s="3">
-        <v>103851400</v>
+        <v>108564700</v>
       </c>
       <c r="J48" s="3">
+        <v>108140900</v>
+      </c>
+      <c r="K48" s="3">
         <v>101361000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>102096900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>95133500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>87098300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>85089500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>82541100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>84211000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>83246000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>82615500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>86853700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>86067300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>77534800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19291800</v>
+        <v>20230700</v>
       </c>
       <c r="E49" s="3">
-        <v>19328300</v>
+        <v>20088600</v>
       </c>
       <c r="F49" s="3">
-        <v>19512900</v>
+        <v>20126600</v>
       </c>
       <c r="G49" s="3">
-        <v>19182400</v>
+        <v>20318900</v>
       </c>
       <c r="H49" s="3">
-        <v>18796500</v>
+        <v>19974700</v>
       </c>
       <c r="I49" s="3">
-        <v>18674200</v>
+        <v>19572900</v>
       </c>
       <c r="J49" s="3">
+        <v>19445500</v>
+      </c>
+      <c r="K49" s="3">
         <v>18096600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17974100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17508100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>16093400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15661900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15330300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>15410500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>14909000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14512900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14723100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>14200800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>12920100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,67 +3153,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8434800</v>
+        <v>7903600</v>
       </c>
       <c r="E52" s="3">
-        <v>7991300</v>
+        <v>8783200</v>
       </c>
       <c r="F52" s="3">
-        <v>8439500</v>
+        <v>8321400</v>
       </c>
       <c r="G52" s="3">
-        <v>7527800</v>
+        <v>8788100</v>
       </c>
       <c r="H52" s="3">
-        <v>8339500</v>
+        <v>7838700</v>
       </c>
       <c r="I52" s="3">
-        <v>9001800</v>
+        <v>8684000</v>
       </c>
       <c r="J52" s="3">
+        <v>9373600</v>
+      </c>
+      <c r="K52" s="3">
         <v>8618300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7099400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6075400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4853500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4945400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4596200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4540700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4130000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4270300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5344400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5325600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5596700</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>336141000</v>
+        <v>361786100</v>
       </c>
       <c r="E54" s="3">
-        <v>341924200</v>
+        <v>350025000</v>
       </c>
       <c r="F54" s="3">
-        <v>346761500</v>
+        <v>356047000</v>
       </c>
       <c r="G54" s="3">
-        <v>350170800</v>
+        <v>361084200</v>
       </c>
       <c r="H54" s="3">
-        <v>355788100</v>
+        <v>364634200</v>
       </c>
       <c r="I54" s="3">
-        <v>359247900</v>
+        <v>370483500</v>
       </c>
       <c r="J54" s="3">
+        <v>374086200</v>
+      </c>
+      <c r="K54" s="3">
         <v>346075700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>355865900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>333127100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>306337800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>296533600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>288540100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>286494500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>286797500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>276678200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>290948800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>285221700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>275983900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,362 +3389,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14561500</v>
+        <v>18928500</v>
       </c>
       <c r="E57" s="3">
-        <v>17501300</v>
+        <v>15162900</v>
       </c>
       <c r="F57" s="3">
-        <v>16075500</v>
+        <v>18224200</v>
       </c>
       <c r="G57" s="3">
-        <v>16677800</v>
+        <v>16739500</v>
       </c>
       <c r="H57" s="3">
-        <v>14948500</v>
+        <v>17366700</v>
       </c>
       <c r="I57" s="3">
-        <v>19021200</v>
+        <v>15565900</v>
       </c>
       <c r="J57" s="3">
+        <v>19806900</v>
+      </c>
+      <c r="K57" s="3">
         <v>17874200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18854500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16779400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18182400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17256200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16321800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>13969900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>17054200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>15677600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16264300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13577500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>16265500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>69764000</v>
+        <v>75754600</v>
       </c>
       <c r="E58" s="3">
-        <v>70058100</v>
+        <v>72645600</v>
       </c>
       <c r="F58" s="3">
-        <v>72583900</v>
+        <v>72951800</v>
       </c>
       <c r="G58" s="3">
-        <v>72492100</v>
+        <v>75581900</v>
       </c>
       <c r="H58" s="3">
-        <v>73643800</v>
+        <v>75486300</v>
       </c>
       <c r="I58" s="3">
-        <v>70887500</v>
+        <v>76685600</v>
       </c>
       <c r="J58" s="3">
+        <v>73815400</v>
+      </c>
+      <c r="K58" s="3">
         <v>76598900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>71390400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>66526300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>58944300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>55475400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>53963400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>54692500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>50942800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>50789100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>51668800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>55507100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>52715800</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33089800</v>
+        <v>36437300</v>
       </c>
       <c r="E59" s="3">
-        <v>32081600</v>
+        <v>34456500</v>
       </c>
       <c r="F59" s="3">
-        <v>33126200</v>
+        <v>33406700</v>
       </c>
       <c r="G59" s="3">
-        <v>32919200</v>
+        <v>34494500</v>
       </c>
       <c r="H59" s="3">
-        <v>35873100</v>
+        <v>34278900</v>
       </c>
       <c r="I59" s="3">
-        <v>35754300</v>
+        <v>37354800</v>
       </c>
       <c r="J59" s="3">
+        <v>37231100</v>
+      </c>
+      <c r="K59" s="3">
         <v>34426200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34375200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>32561700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>30066900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>28935600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>28596300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>29650800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>27662700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>26797600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>34037000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>30051900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>28641000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>117415300</v>
+        <v>131120500</v>
       </c>
       <c r="E60" s="3">
-        <v>119641100</v>
+        <v>122265000</v>
       </c>
       <c r="F60" s="3">
-        <v>121785600</v>
+        <v>124582700</v>
       </c>
       <c r="G60" s="3">
-        <v>122089100</v>
+        <v>126815900</v>
       </c>
       <c r="H60" s="3">
-        <v>124465500</v>
+        <v>127131900</v>
       </c>
       <c r="I60" s="3">
-        <v>125663000</v>
+        <v>129606400</v>
       </c>
       <c r="J60" s="3">
+        <v>130853400</v>
+      </c>
+      <c r="K60" s="3">
         <v>128899300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>124620100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>115867400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>107193500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>101667100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>98881500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>98313300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>95659700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>93264300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>101970000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>99136500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>97622300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>101804500</v>
+        <v>104223400</v>
       </c>
       <c r="E61" s="3">
-        <v>109013500</v>
+        <v>106009400</v>
       </c>
       <c r="F61" s="3">
-        <v>112806200</v>
+        <v>113516100</v>
       </c>
       <c r="G61" s="3">
-        <v>113754400</v>
+        <v>117465500</v>
       </c>
       <c r="H61" s="3">
-        <v>116674200</v>
+        <v>118452900</v>
       </c>
       <c r="I61" s="3">
-        <v>117037700</v>
+        <v>121493300</v>
       </c>
       <c r="J61" s="3">
+        <v>121871800</v>
+      </c>
+      <c r="K61" s="3">
         <v>104687800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>113914100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>104878300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>97366900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>95093400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>88104600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>87939300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>88054900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>83288700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>86016800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>82633900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>78530200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>43692700</v>
+        <v>43151500</v>
       </c>
       <c r="E62" s="3">
-        <v>44305600</v>
+        <v>45497400</v>
       </c>
       <c r="F62" s="3">
-        <v>42930400</v>
+        <v>46135600</v>
       </c>
       <c r="G62" s="3">
-        <v>40022300</v>
+        <v>44703600</v>
       </c>
       <c r="H62" s="3">
-        <v>40722300</v>
+        <v>41675400</v>
       </c>
       <c r="I62" s="3">
-        <v>42702100</v>
+        <v>42404300</v>
       </c>
       <c r="J62" s="3">
+        <v>44465900</v>
+      </c>
+      <c r="K62" s="3">
         <v>39810600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>36150400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34247300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>29170900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>29285900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>28112100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>27134200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>32700400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>32046300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>34324600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>34040500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>35561700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>264744100</v>
+        <v>280471300</v>
       </c>
       <c r="E66" s="3">
-        <v>274704700</v>
+        <v>275679100</v>
       </c>
       <c r="F66" s="3">
-        <v>279217400</v>
+        <v>286051100</v>
       </c>
       <c r="G66" s="3">
-        <v>277665700</v>
+        <v>290750200</v>
       </c>
       <c r="H66" s="3">
-        <v>283623000</v>
+        <v>289134400</v>
       </c>
       <c r="I66" s="3">
-        <v>287059200</v>
+        <v>295337700</v>
       </c>
       <c r="J66" s="3">
+        <v>298915900</v>
+      </c>
+      <c r="K66" s="3">
         <v>274922300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>276385600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>256632500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>235201100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>227401300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>216609000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>214834200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>217724400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>209829000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>223534500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>217199500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>212960800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>55421400</v>
+        <v>63710500</v>
       </c>
       <c r="E72" s="3">
-        <v>50906400</v>
+        <v>57710500</v>
       </c>
       <c r="F72" s="3">
-        <v>50628700</v>
+        <v>53009000</v>
       </c>
       <c r="G72" s="3">
-        <v>55208500</v>
+        <v>52719900</v>
       </c>
       <c r="H72" s="3">
-        <v>54501400</v>
+        <v>57488800</v>
       </c>
       <c r="I72" s="3">
-        <v>54068500</v>
+        <v>56752600</v>
       </c>
       <c r="J72" s="3">
+        <v>56301800</v>
+      </c>
+      <c r="K72" s="3">
         <v>53332100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>61348300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>58541700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>54364300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>51995800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>54531100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>53354000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>50207900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>47608300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>47154300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>47865600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>42799500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>71396900</v>
+        <v>81314800</v>
       </c>
       <c r="E76" s="3">
-        <v>67219500</v>
+        <v>74345900</v>
       </c>
       <c r="F76" s="3">
-        <v>67544200</v>
+        <v>69995900</v>
       </c>
       <c r="G76" s="3">
-        <v>72505100</v>
+        <v>70334000</v>
       </c>
       <c r="H76" s="3">
-        <v>72165100</v>
+        <v>75499800</v>
       </c>
       <c r="I76" s="3">
-        <v>72188600</v>
+        <v>75145800</v>
       </c>
       <c r="J76" s="3">
+        <v>75170300</v>
+      </c>
+      <c r="K76" s="3">
         <v>71153400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>79480300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>76494600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>71136700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>69132300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>71931100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>71660400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>69073100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>66849300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>67414300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>68022300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>63023000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4099800</v>
+        <v>5255200</v>
       </c>
       <c r="E81" s="3">
-        <v>2410400</v>
+        <v>4269100</v>
       </c>
       <c r="F81" s="3">
-        <v>-2354000</v>
+        <v>2510000</v>
       </c>
       <c r="G81" s="3">
-        <v>110600</v>
+        <v>-2451200</v>
       </c>
       <c r="H81" s="3">
-        <v>-128200</v>
+        <v>115100</v>
       </c>
       <c r="I81" s="3">
-        <v>2022200</v>
+        <v>-133500</v>
       </c>
       <c r="J81" s="3">
+        <v>2105800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1562300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2506000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1846500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1870700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1895100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2495800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3513000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2407800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2742100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3001400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2522500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2692800</v>
+        <v>2224600</v>
       </c>
       <c r="E83" s="3">
-        <v>2606900</v>
+        <v>2804000</v>
       </c>
       <c r="F83" s="3">
-        <v>2906900</v>
+        <v>2714600</v>
       </c>
       <c r="G83" s="3">
-        <v>2330400</v>
+        <v>3027000</v>
       </c>
       <c r="H83" s="3">
-        <v>2576300</v>
+        <v>2426700</v>
       </c>
       <c r="I83" s="3">
-        <v>2255200</v>
+        <v>2682700</v>
       </c>
       <c r="J83" s="3">
+        <v>2348300</v>
+      </c>
+      <c r="K83" s="3">
         <v>2168100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2154400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2045200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1775500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1641500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1622800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1703200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1552800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1554000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1630400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1619900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5957300</v>
+        <v>5976700</v>
       </c>
       <c r="E89" s="3">
-        <v>9744100</v>
+        <v>6203300</v>
       </c>
       <c r="F89" s="3">
-        <v>8793600</v>
+        <v>10146600</v>
       </c>
       <c r="G89" s="3">
-        <v>1776400</v>
+        <v>9156800</v>
       </c>
       <c r="H89" s="3">
-        <v>1562300</v>
+        <v>1849700</v>
       </c>
       <c r="I89" s="3">
-        <v>5131500</v>
+        <v>1626800</v>
       </c>
       <c r="J89" s="3">
+        <v>5343400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1856400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>741600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1387500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1982600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>161400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>892700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6133900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1456300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>535200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2394600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>332200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>946100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,67 +5264,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2248100</v>
+        <v>-1452800</v>
       </c>
       <c r="E91" s="3">
-        <v>-716400</v>
+        <v>-2341000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1892800</v>
+        <v>-746000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1896400</v>
+        <v>-2328700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2362200</v>
+        <v>-1617000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2084600</v>
+        <v>-2459800</v>
       </c>
       <c r="J91" s="3">
+        <v>-2170700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2059900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1995300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3047200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2287200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1701900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1474600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2888000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1644800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1575300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5040300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3304300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2574200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1295200</v>
+        <v>-915100</v>
       </c>
       <c r="E94" s="3">
-        <v>-2314000</v>
+        <v>-1348700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1952800</v>
+        <v>-2409600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1991600</v>
+        <v>-2391200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2896300</v>
+        <v>-1716200</v>
       </c>
       <c r="I94" s="3">
-        <v>-3379800</v>
+        <v>-3015900</v>
       </c>
       <c r="J94" s="3">
+        <v>-3519400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1775200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4501300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3564100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2627200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2518800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2461700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4470000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3543200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3049600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>401400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9085300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2905200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,8 +5536,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5313,10 +5546,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1132900</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1179700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5363,8 +5596,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,181 +5782,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5933800</v>
+        <v>-2028600</v>
       </c>
       <c r="E100" s="3">
-        <v>-3908000</v>
+        <v>-6178800</v>
       </c>
       <c r="F100" s="3">
-        <v>252900</v>
+        <v>-4069400</v>
       </c>
       <c r="G100" s="3">
-        <v>-3053900</v>
+        <v>263400</v>
       </c>
       <c r="H100" s="3">
-        <v>3920900</v>
+        <v>-3180100</v>
       </c>
       <c r="I100" s="3">
-        <v>3049200</v>
+        <v>4082900</v>
       </c>
       <c r="J100" s="3">
+        <v>3175200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4644400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4367300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3080300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5461600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2378300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3870500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4680900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>7325500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3165100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-461300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4831400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2236100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-434100</v>
+        <v>529200</v>
       </c>
       <c r="E101" s="3">
-        <v>-523500</v>
+        <v>-452000</v>
       </c>
       <c r="F101" s="3">
-        <v>-260000</v>
+        <v>-545100</v>
       </c>
       <c r="G101" s="3">
-        <v>42400</v>
+        <v>-270700</v>
       </c>
       <c r="H101" s="3">
-        <v>-358800</v>
+        <v>44100</v>
       </c>
       <c r="I101" s="3">
-        <v>457600</v>
+        <v>-373600</v>
       </c>
       <c r="J101" s="3">
+        <v>476500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-235300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>283500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>88700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-98600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>282200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-120800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-56100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-295100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-618200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>156100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1705800</v>
+        <v>3562300</v>
       </c>
       <c r="E102" s="3">
-        <v>2998600</v>
+        <v>-1776200</v>
       </c>
       <c r="F102" s="3">
-        <v>6833700</v>
+        <v>3122500</v>
       </c>
       <c r="G102" s="3">
-        <v>-3226900</v>
+        <v>7116000</v>
       </c>
       <c r="H102" s="3">
-        <v>2228100</v>
+        <v>-3360100</v>
       </c>
       <c r="I102" s="3">
-        <v>5258500</v>
+        <v>2320100</v>
       </c>
       <c r="J102" s="3">
+        <v>5475700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4798500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>891200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>992500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>753200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>303000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2180600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5979100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4943500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>32500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2330000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>235900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DDAIF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DDAIF_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,281 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>50245400</v>
+        <v>50761300</v>
       </c>
       <c r="E8" s="3">
-        <v>57110300</v>
+        <v>47883700</v>
       </c>
       <c r="F8" s="3">
-        <v>49343800</v>
+        <v>54425800</v>
       </c>
       <c r="G8" s="3">
-        <v>36975100</v>
+        <v>47024400</v>
       </c>
       <c r="H8" s="3">
-        <v>45597800</v>
+        <v>35237100</v>
       </c>
       <c r="I8" s="3">
-        <v>57730100</v>
+        <v>43454500</v>
       </c>
       <c r="J8" s="3">
+        <v>55016500</v>
+      </c>
+      <c r="K8" s="3">
         <v>53005300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>50173500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>47486700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>55135000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>44537700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>44750100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>43683900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>48933300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>45715500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>46241700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>45287900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>48127400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>45305500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>38567600</v>
+        <v>39049900</v>
       </c>
       <c r="E9" s="3">
-        <v>44666800</v>
+        <v>36754700</v>
       </c>
       <c r="F9" s="3">
-        <v>39561100</v>
+        <v>42567300</v>
       </c>
       <c r="G9" s="3">
-        <v>32480600</v>
+        <v>37701500</v>
       </c>
       <c r="H9" s="3">
-        <v>38476900</v>
+        <v>30953900</v>
       </c>
       <c r="I9" s="3">
-        <v>43172300</v>
+        <v>36668300</v>
       </c>
       <c r="J9" s="3">
+        <v>41143000</v>
+      </c>
+      <c r="K9" s="3">
         <v>42379800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>41095200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>38430300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>45402100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>35716800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>35691600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>34213700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>38599800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>36155000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>36374900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>35893900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>38207500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>34973700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11677800</v>
+        <v>11711500</v>
       </c>
       <c r="E10" s="3">
-        <v>12443400</v>
+        <v>11128900</v>
       </c>
       <c r="F10" s="3">
-        <v>9782800</v>
+        <v>11858600</v>
       </c>
       <c r="G10" s="3">
-        <v>4494500</v>
+        <v>9322900</v>
       </c>
       <c r="H10" s="3">
-        <v>7120900</v>
+        <v>4283200</v>
       </c>
       <c r="I10" s="3">
-        <v>14557800</v>
+        <v>6786200</v>
       </c>
       <c r="J10" s="3">
+        <v>13873500</v>
+      </c>
+      <c r="K10" s="3">
         <v>10625600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9078300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9056400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9732900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8820900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9058500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9470300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>10333500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9560500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9866800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>9394000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>9919900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>10331900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,70 +962,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2243000</v>
+        <v>2086200</v>
       </c>
       <c r="E12" s="3">
-        <v>1587600</v>
+        <v>2137500</v>
       </c>
       <c r="F12" s="3">
-        <v>1903600</v>
+        <v>1513000</v>
       </c>
       <c r="G12" s="3">
-        <v>1891400</v>
+        <v>1814200</v>
       </c>
       <c r="H12" s="3">
-        <v>2109400</v>
+        <v>1802500</v>
       </c>
       <c r="I12" s="3">
-        <v>1897500</v>
+        <v>2010300</v>
       </c>
       <c r="J12" s="3">
+        <v>1808300</v>
+      </c>
+      <c r="K12" s="3">
         <v>2160900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1845800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2038300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1743600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1966000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1778800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1879800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1603300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1847900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1586500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1699700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1711400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1523600</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1074,40 +1090,43 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>422600</v>
+        <v>135400</v>
       </c>
       <c r="E14" s="3">
-        <v>677400</v>
+        <v>402800</v>
       </c>
       <c r="F14" s="3">
-        <v>501000</v>
+        <v>645600</v>
       </c>
       <c r="G14" s="3">
-        <v>1193100</v>
+        <v>477500</v>
       </c>
       <c r="H14" s="3">
-        <v>124900</v>
+        <v>1137100</v>
       </c>
       <c r="I14" s="3">
-        <v>5524700</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>119100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5265000</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2554000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-858900</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1136,8 +1155,11 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1198,8 +1220,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>43980800</v>
+        <v>45455400</v>
       </c>
       <c r="E17" s="3">
-        <v>51891800</v>
+        <v>41913500</v>
       </c>
       <c r="F17" s="3">
-        <v>45597800</v>
+        <v>49452700</v>
       </c>
       <c r="G17" s="3">
-        <v>39122500</v>
+        <v>43454500</v>
       </c>
       <c r="H17" s="3">
-        <v>44868900</v>
+        <v>37283600</v>
       </c>
       <c r="I17" s="3">
-        <v>57134800</v>
+        <v>42759900</v>
       </c>
       <c r="J17" s="3">
+        <v>54449200</v>
+      </c>
+      <c r="K17" s="3">
         <v>49817900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>52151000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>44270200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>51904500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>42365700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>41811800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>40518400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>45339600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>42011800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>42363000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>41665600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>44481500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>40581000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6264600</v>
+        <v>5305900</v>
       </c>
       <c r="E18" s="3">
-        <v>5218500</v>
+        <v>5970100</v>
       </c>
       <c r="F18" s="3">
-        <v>3746000</v>
+        <v>4973200</v>
       </c>
       <c r="G18" s="3">
-        <v>-2147400</v>
+        <v>3569900</v>
       </c>
       <c r="H18" s="3">
-        <v>728900</v>
+        <v>-2046500</v>
       </c>
       <c r="I18" s="3">
-        <v>595300</v>
+        <v>694600</v>
       </c>
       <c r="J18" s="3">
+        <v>567400</v>
+      </c>
+      <c r="K18" s="3">
         <v>3187400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1977500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3216600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3230500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2172000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2938200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3165500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3593700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3703700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3878700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3622400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3645900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4724600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,318 +1399,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>809700</v>
+        <v>777500</v>
       </c>
       <c r="E20" s="3">
-        <v>396900</v>
+        <v>771700</v>
       </c>
       <c r="F20" s="3">
-        <v>42900</v>
+        <v>378200</v>
       </c>
       <c r="G20" s="3">
-        <v>101700</v>
+        <v>40900</v>
       </c>
       <c r="H20" s="3">
-        <v>72300</v>
+        <v>96900</v>
       </c>
       <c r="I20" s="3">
-        <v>-64900</v>
+        <v>68900</v>
       </c>
       <c r="J20" s="3">
+        <v>-61900</v>
+      </c>
+      <c r="K20" s="3">
         <v>158000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>232900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>171100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-22500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>615800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>516100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>242300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>117800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>316400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>807600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>409700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9298900</v>
+        <v>8245400</v>
       </c>
       <c r="E21" s="3">
-        <v>8419400</v>
+        <v>8861800</v>
       </c>
       <c r="F21" s="3">
-        <v>6503500</v>
+        <v>8023600</v>
       </c>
       <c r="G21" s="3">
-        <v>981200</v>
+        <v>6197800</v>
       </c>
       <c r="H21" s="3">
-        <v>3227800</v>
+        <v>935100</v>
       </c>
       <c r="I21" s="3">
-        <v>3213100</v>
+        <v>3076100</v>
       </c>
       <c r="J21" s="3">
+        <v>3062100</v>
+      </c>
+      <c r="K21" s="3">
         <v>5693800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>423500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5542000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5253300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4563300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4576500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5304400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5539300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5374300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5749100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>6060400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5675400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6385500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>113900</v>
+        <v>142400</v>
       </c>
       <c r="E22" s="3">
-        <v>91900</v>
+        <v>108600</v>
       </c>
       <c r="F22" s="3">
-        <v>74700</v>
+        <v>87600</v>
       </c>
       <c r="G22" s="3">
-        <v>88200</v>
+        <v>71200</v>
       </c>
       <c r="H22" s="3">
-        <v>139600</v>
+        <v>84100</v>
       </c>
       <c r="I22" s="3">
-        <v>158000</v>
+        <v>133100</v>
       </c>
       <c r="J22" s="3">
+        <v>150600</v>
+      </c>
+      <c r="K22" s="3">
         <v>191100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>222300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>250000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>282700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>190500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>157000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>116400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>115600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>108800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>98700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>97400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>111500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6960400</v>
+        <v>5940900</v>
       </c>
       <c r="E23" s="3">
-        <v>5523500</v>
+        <v>6633200</v>
       </c>
       <c r="F23" s="3">
-        <v>3714200</v>
+        <v>5263900</v>
       </c>
       <c r="G23" s="3">
-        <v>-2133900</v>
+        <v>3539600</v>
       </c>
       <c r="H23" s="3">
-        <v>661500</v>
+        <v>-2033600</v>
       </c>
       <c r="I23" s="3">
-        <v>372400</v>
+        <v>630400</v>
       </c>
       <c r="J23" s="3">
+        <v>354900</v>
+      </c>
+      <c r="K23" s="3">
         <v>3154300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1966900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3137600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2925300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2597300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2777900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3565200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3720500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3712700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4096400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4332500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3944000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4648300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1603500</v>
+        <v>1616900</v>
       </c>
       <c r="E24" s="3">
-        <v>1127000</v>
+        <v>1528100</v>
       </c>
       <c r="F24" s="3">
-        <v>1070600</v>
+        <v>1074000</v>
       </c>
       <c r="G24" s="3">
-        <v>200900</v>
+        <v>1020300</v>
       </c>
       <c r="H24" s="3">
-        <v>455700</v>
+        <v>191500</v>
       </c>
       <c r="I24" s="3">
-        <v>385900</v>
+        <v>434300</v>
       </c>
       <c r="J24" s="3">
+        <v>367700</v>
+      </c>
+      <c r="K24" s="3">
         <v>933400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-505900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>567000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>983000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>646800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>774100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>980500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>112200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1202800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1277900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1219600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1354600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1448500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5356900</v>
+        <v>4324100</v>
       </c>
       <c r="E26" s="3">
-        <v>4396500</v>
+        <v>5105100</v>
       </c>
       <c r="F26" s="3">
-        <v>2643500</v>
+        <v>4189800</v>
       </c>
       <c r="G26" s="3">
-        <v>-2334800</v>
+        <v>2519300</v>
       </c>
       <c r="H26" s="3">
-        <v>205800</v>
+        <v>-2225100</v>
       </c>
       <c r="I26" s="3">
-        <v>-13500</v>
+        <v>196100</v>
       </c>
       <c r="J26" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="K26" s="3">
         <v>2220900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1461100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2570600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1942300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1950500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2003900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2584700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3608300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2509900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2818400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3112900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2589400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3199800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5255200</v>
+        <v>4200300</v>
       </c>
       <c r="E27" s="3">
-        <v>4269100</v>
+        <v>5008200</v>
       </c>
       <c r="F27" s="3">
-        <v>2510000</v>
+        <v>4068400</v>
       </c>
       <c r="G27" s="3">
-        <v>-2451200</v>
+        <v>2392000</v>
       </c>
       <c r="H27" s="3">
-        <v>115100</v>
+        <v>-2336000</v>
       </c>
       <c r="I27" s="3">
-        <v>-133500</v>
+        <v>109700</v>
       </c>
       <c r="J27" s="3">
+        <v>-127200</v>
+      </c>
+      <c r="K27" s="3">
         <v>2105800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1562300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2506000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1846500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1870700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1895100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2495800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3513000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2407800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2742100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3001400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2522500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,8 +1982,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1987,8 +2047,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2177,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-809700</v>
+        <v>-777500</v>
       </c>
       <c r="E32" s="3">
-        <v>-396900</v>
+        <v>-771700</v>
       </c>
       <c r="F32" s="3">
-        <v>-42900</v>
+        <v>-378200</v>
       </c>
       <c r="G32" s="3">
-        <v>-101700</v>
+        <v>-40900</v>
       </c>
       <c r="H32" s="3">
-        <v>-72300</v>
+        <v>-96900</v>
       </c>
       <c r="I32" s="3">
-        <v>64900</v>
+        <v>-68900</v>
       </c>
       <c r="J32" s="3">
+        <v>61900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-158000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-232900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-171100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>22500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-615800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-516100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-242300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-117800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-316400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-807600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-409700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5255200</v>
+        <v>4200300</v>
       </c>
       <c r="E33" s="3">
-        <v>4269100</v>
+        <v>5008200</v>
       </c>
       <c r="F33" s="3">
-        <v>2510000</v>
+        <v>4068400</v>
       </c>
       <c r="G33" s="3">
-        <v>-2451200</v>
+        <v>2392000</v>
       </c>
       <c r="H33" s="3">
-        <v>115100</v>
+        <v>-2336000</v>
       </c>
       <c r="I33" s="3">
-        <v>-133500</v>
+        <v>109700</v>
       </c>
       <c r="J33" s="3">
+        <v>-127200</v>
+      </c>
+      <c r="K33" s="3">
         <v>2105800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1562300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2506000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1846500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1870700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1895100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2495800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3513000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2407800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2742100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3001400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2522500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5255200</v>
+        <v>4200300</v>
       </c>
       <c r="E35" s="3">
-        <v>4269100</v>
+        <v>5008200</v>
       </c>
       <c r="F35" s="3">
-        <v>2510000</v>
+        <v>4068400</v>
       </c>
       <c r="G35" s="3">
-        <v>-2451200</v>
+        <v>2392000</v>
       </c>
       <c r="H35" s="3">
-        <v>115100</v>
+        <v>-2336000</v>
       </c>
       <c r="I35" s="3">
-        <v>-133500</v>
+        <v>109700</v>
       </c>
       <c r="J35" s="3">
+        <v>-127200</v>
+      </c>
+      <c r="K35" s="3">
         <v>2105800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1562300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2506000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1846500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1870700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1895100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2495800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3513000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2407800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2742100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3001400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2522500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,566 +2559,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>31795800</v>
+        <v>30562800</v>
       </c>
       <c r="E41" s="3">
-        <v>28233600</v>
+        <v>30301300</v>
       </c>
       <c r="F41" s="3">
-        <v>30009800</v>
+        <v>26906500</v>
       </c>
       <c r="G41" s="3">
-        <v>26887300</v>
+        <v>28599200</v>
       </c>
       <c r="H41" s="3">
-        <v>19771300</v>
+        <v>25623500</v>
       </c>
       <c r="I41" s="3">
-        <v>23131500</v>
+        <v>18842000</v>
       </c>
       <c r="J41" s="3">
+        <v>22044200</v>
+      </c>
+      <c r="K41" s="3">
         <v>20811400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14727400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19854500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18752500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16629500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15738700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15435700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13544700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>19523700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14580300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15219600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12889600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>16655200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10555700</v>
+        <v>9018200</v>
       </c>
       <c r="E42" s="3">
-        <v>9938300</v>
+        <v>10059600</v>
       </c>
       <c r="F42" s="3">
-        <v>12748500</v>
+        <v>9471200</v>
       </c>
       <c r="G42" s="3">
-        <v>13830100</v>
+        <v>12149200</v>
       </c>
       <c r="H42" s="3">
-        <v>13403800</v>
+        <v>13180100</v>
       </c>
       <c r="I42" s="3">
-        <v>13010600</v>
+        <v>12773800</v>
       </c>
       <c r="J42" s="3">
+        <v>12399100</v>
+      </c>
+      <c r="K42" s="3">
         <v>14216000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14361500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14671400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13987800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14208300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>15096400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14413400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14221200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14027100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>13316900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>13057500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>14655000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>13659600</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>66046600</v>
+        <v>60448500</v>
       </c>
       <c r="E43" s="3">
-        <v>65077600</v>
+        <v>62942100</v>
       </c>
       <c r="F43" s="3">
-        <v>64305900</v>
+        <v>62018700</v>
       </c>
       <c r="G43" s="3">
-        <v>67433200</v>
+        <v>61283200</v>
       </c>
       <c r="H43" s="3">
-        <v>71644800</v>
+        <v>64263600</v>
       </c>
       <c r="I43" s="3">
-        <v>77312800</v>
+        <v>68277100</v>
       </c>
       <c r="J43" s="3">
+        <v>73678700</v>
+      </c>
+      <c r="K43" s="3">
         <v>73756600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>69137000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>71465800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>68639000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>61167200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>57758100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>56931300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>57725300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>54084400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>53110500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>56567100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>56624600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>53759300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>35307900</v>
+        <v>33755700</v>
       </c>
       <c r="E44" s="3">
-        <v>32393600</v>
+        <v>33648300</v>
       </c>
       <c r="F44" s="3">
-        <v>36178900</v>
+        <v>30871000</v>
       </c>
       <c r="G44" s="3">
-        <v>36894200</v>
+        <v>34478300</v>
       </c>
       <c r="H44" s="3">
-        <v>39436100</v>
+        <v>35160100</v>
       </c>
       <c r="I44" s="3">
-        <v>36452000</v>
+        <v>37582400</v>
       </c>
       <c r="J44" s="3">
+        <v>34738600</v>
+      </c>
+      <c r="K44" s="3">
         <v>43550800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>39361200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>40078700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>34882500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>35582800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>32008900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>30281700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>28819400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>30246600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>29426400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>31289100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>29796000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>31845500</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6173900</v>
+        <v>5658400</v>
       </c>
       <c r="E45" s="3">
-        <v>5554100</v>
+        <v>5883700</v>
       </c>
       <c r="F45" s="3">
-        <v>5543100</v>
+        <v>5293000</v>
       </c>
       <c r="G45" s="3">
-        <v>6540200</v>
+        <v>5282500</v>
       </c>
       <c r="H45" s="3">
-        <v>7043700</v>
+        <v>6232800</v>
       </c>
       <c r="I45" s="3">
-        <v>6646800</v>
+        <v>6712600</v>
       </c>
       <c r="J45" s="3">
+        <v>6334400</v>
+      </c>
+      <c r="K45" s="3">
         <v>6844000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6686700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7071900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7594200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6833900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6323400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5979700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5625700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5643600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5530300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5720000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5824400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5884300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>149880000</v>
+        <v>139443600</v>
       </c>
       <c r="E46" s="3">
-        <v>141197200</v>
+        <v>142834900</v>
       </c>
       <c r="F46" s="3">
-        <v>148786100</v>
+        <v>134560300</v>
       </c>
       <c r="G46" s="3">
-        <v>151585200</v>
+        <v>141792500</v>
       </c>
       <c r="H46" s="3">
-        <v>151299700</v>
+        <v>144460000</v>
       </c>
       <c r="I46" s="3">
-        <v>156553700</v>
+        <v>144188000</v>
       </c>
       <c r="J46" s="3">
+        <v>149195000</v>
+      </c>
+      <c r="K46" s="3">
         <v>159178900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>144273700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>153142300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>143856000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>134421700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>126925500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>123041900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>119936200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>123525500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>115964400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>121853200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>119789700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>121803900</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>81479000</v>
+        <v>78944900</v>
       </c>
       <c r="E47" s="3">
-        <v>78529200</v>
+        <v>77649100</v>
       </c>
       <c r="F47" s="3">
-        <v>77388700</v>
+        <v>74838000</v>
       </c>
       <c r="G47" s="3">
-        <v>75953100</v>
+        <v>73751100</v>
       </c>
       <c r="H47" s="3">
-        <v>77936300</v>
+        <v>72382900</v>
       </c>
       <c r="I47" s="3">
-        <v>77108200</v>
+        <v>74273000</v>
       </c>
       <c r="J47" s="3">
+        <v>73483800</v>
+      </c>
+      <c r="K47" s="3">
         <v>77947300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>73726200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>75553200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>70554100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>63870900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>63911300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>63030700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>62396100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>60986900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>59315100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>62174400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>59838500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>58128200</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>102292800</v>
+        <v>97038600</v>
       </c>
       <c r="E48" s="3">
-        <v>101426700</v>
+        <v>97484600</v>
       </c>
       <c r="F48" s="3">
-        <v>101424300</v>
+        <v>96659200</v>
       </c>
       <c r="G48" s="3">
-        <v>104439000</v>
+        <v>96656900</v>
       </c>
       <c r="H48" s="3">
-        <v>107584700</v>
+        <v>99529900</v>
       </c>
       <c r="I48" s="3">
-        <v>108564700</v>
+        <v>102527800</v>
       </c>
       <c r="J48" s="3">
+        <v>103461700</v>
+      </c>
+      <c r="K48" s="3">
         <v>108140900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>101361000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>102096900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>95133500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>87098300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>85089500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>82541100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>84211000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>83246000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>82615500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>86853700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>86067300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>77534800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20230700</v>
+        <v>19255300</v>
       </c>
       <c r="E49" s="3">
-        <v>20088600</v>
+        <v>19279800</v>
       </c>
       <c r="F49" s="3">
-        <v>20126600</v>
+        <v>19144400</v>
       </c>
       <c r="G49" s="3">
-        <v>20318900</v>
+        <v>19180500</v>
       </c>
       <c r="H49" s="3">
-        <v>19974700</v>
+        <v>19363800</v>
       </c>
       <c r="I49" s="3">
-        <v>19572900</v>
+        <v>19035800</v>
       </c>
       <c r="J49" s="3">
+        <v>18652900</v>
+      </c>
+      <c r="K49" s="3">
         <v>19445500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18096600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17974100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17508100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>16093400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>15661900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>15330300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>15410500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>14909000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14512900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>14723100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>14200800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>12920100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3272,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7903600</v>
+        <v>7055800</v>
       </c>
       <c r="E52" s="3">
-        <v>8783200</v>
+        <v>7532100</v>
       </c>
       <c r="F52" s="3">
-        <v>8321400</v>
+        <v>8370300</v>
       </c>
       <c r="G52" s="3">
-        <v>8788100</v>
+        <v>7930200</v>
       </c>
       <c r="H52" s="3">
-        <v>7838700</v>
+        <v>8375000</v>
       </c>
       <c r="I52" s="3">
-        <v>8684000</v>
+        <v>7470300</v>
       </c>
       <c r="J52" s="3">
+        <v>8275800</v>
+      </c>
+      <c r="K52" s="3">
         <v>9373600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8618300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7099400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6075400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4853500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4945400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4596200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4540700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4130000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4270300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5344400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5325600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5596700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>361786100</v>
+        <v>341738300</v>
       </c>
       <c r="E54" s="3">
-        <v>350025000</v>
+        <v>344780500</v>
       </c>
       <c r="F54" s="3">
-        <v>356047000</v>
+        <v>333572200</v>
       </c>
       <c r="G54" s="3">
-        <v>361084200</v>
+        <v>339311200</v>
       </c>
       <c r="H54" s="3">
-        <v>364634200</v>
+        <v>344111600</v>
       </c>
       <c r="I54" s="3">
-        <v>370483500</v>
+        <v>347494800</v>
       </c>
       <c r="J54" s="3">
+        <v>353069100</v>
+      </c>
+      <c r="K54" s="3">
         <v>374086200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>346075700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>355865900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>333127100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>306337800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>296533600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>288540100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>286494500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>286797500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>276678200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>290948800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>285221700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>275983900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,380 +3519,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18928500</v>
+        <v>17855500</v>
       </c>
       <c r="E57" s="3">
-        <v>15162900</v>
+        <v>18038800</v>
       </c>
       <c r="F57" s="3">
-        <v>18224200</v>
+        <v>14450200</v>
       </c>
       <c r="G57" s="3">
-        <v>16739500</v>
+        <v>17367600</v>
       </c>
       <c r="H57" s="3">
-        <v>17366700</v>
+        <v>15952700</v>
       </c>
       <c r="I57" s="3">
-        <v>15565900</v>
+        <v>16550400</v>
       </c>
       <c r="J57" s="3">
+        <v>14834300</v>
+      </c>
+      <c r="K57" s="3">
         <v>19806900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17874200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18854500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16779400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18182400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>17256200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16321800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>13969900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>17054200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>15677600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>16264300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>13577500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>16265500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>75754600</v>
+        <v>71248200</v>
       </c>
       <c r="E58" s="3">
-        <v>72645600</v>
+        <v>72193800</v>
       </c>
       <c r="F58" s="3">
-        <v>72951800</v>
+        <v>69230900</v>
       </c>
       <c r="G58" s="3">
-        <v>75581900</v>
+        <v>69522800</v>
       </c>
       <c r="H58" s="3">
-        <v>75486300</v>
+        <v>72029200</v>
       </c>
       <c r="I58" s="3">
-        <v>76685600</v>
+        <v>71938100</v>
       </c>
       <c r="J58" s="3">
+        <v>73081000</v>
+      </c>
+      <c r="K58" s="3">
         <v>73815400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>76598900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>71390400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>66526300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>58944300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>55475400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>53963400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>54692500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>50942800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>50789100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>51668800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>55507100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>52715800</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>36437300</v>
+        <v>32511200</v>
       </c>
       <c r="E59" s="3">
-        <v>34456500</v>
+        <v>34724600</v>
       </c>
       <c r="F59" s="3">
-        <v>33406700</v>
+        <v>32836900</v>
       </c>
       <c r="G59" s="3">
-        <v>34494500</v>
+        <v>31836400</v>
       </c>
       <c r="H59" s="3">
-        <v>34278900</v>
+        <v>32873100</v>
       </c>
       <c r="I59" s="3">
-        <v>37354800</v>
+        <v>32667600</v>
       </c>
       <c r="J59" s="3">
+        <v>35599000</v>
+      </c>
+      <c r="K59" s="3">
         <v>37231100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>34426200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34375200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>32561700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>30066900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>28935600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>28596300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>29650800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>27662700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>26797600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>34037000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>30051900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>28641000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>131120500</v>
+        <v>121614900</v>
       </c>
       <c r="E60" s="3">
-        <v>122265000</v>
+        <v>124957200</v>
       </c>
       <c r="F60" s="3">
-        <v>124582700</v>
+        <v>116518000</v>
       </c>
       <c r="G60" s="3">
-        <v>126815900</v>
+        <v>118726800</v>
       </c>
       <c r="H60" s="3">
-        <v>127131900</v>
+        <v>120855000</v>
       </c>
       <c r="I60" s="3">
-        <v>129606400</v>
+        <v>121156100</v>
       </c>
       <c r="J60" s="3">
+        <v>123514300</v>
+      </c>
+      <c r="K60" s="3">
         <v>130853400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>128899300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>124620100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>115867400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>107193500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>101667100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>98881500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>98313300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>95659700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>93264300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>101970000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>99136500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>97622300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>104223400</v>
+        <v>95247800</v>
       </c>
       <c r="E61" s="3">
-        <v>106009400</v>
+        <v>99324400</v>
       </c>
       <c r="F61" s="3">
-        <v>113516100</v>
+        <v>101026500</v>
       </c>
       <c r="G61" s="3">
-        <v>117465500</v>
+        <v>108180400</v>
       </c>
       <c r="H61" s="3">
-        <v>118452900</v>
+        <v>111944100</v>
       </c>
       <c r="I61" s="3">
-        <v>121493300</v>
+        <v>112885000</v>
       </c>
       <c r="J61" s="3">
+        <v>115782600</v>
+      </c>
+      <c r="K61" s="3">
         <v>121871800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>104687800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>113914100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>104878300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>97366900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>95093400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>88104600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>87939300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>88054900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>83288700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>86016800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>82633900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>78530200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>43151500</v>
+        <v>40657400</v>
       </c>
       <c r="E62" s="3">
-        <v>45497400</v>
+        <v>41123200</v>
       </c>
       <c r="F62" s="3">
-        <v>46135600</v>
+        <v>43358800</v>
       </c>
       <c r="G62" s="3">
-        <v>44703600</v>
+        <v>43967000</v>
       </c>
       <c r="H62" s="3">
-        <v>41675400</v>
+        <v>42602300</v>
       </c>
       <c r="I62" s="3">
-        <v>42404300</v>
+        <v>39716500</v>
       </c>
       <c r="J62" s="3">
+        <v>40411100</v>
+      </c>
+      <c r="K62" s="3">
         <v>44465900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>39810600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>36150400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>34247300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>29170900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>29285900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>28112100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>27134200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>32700400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>32046300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>34324600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>34040500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>35561700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>280471300</v>
+        <v>259250200</v>
       </c>
       <c r="E66" s="3">
-        <v>275679100</v>
+        <v>267287900</v>
       </c>
       <c r="F66" s="3">
-        <v>286051100</v>
+        <v>262721000</v>
       </c>
       <c r="G66" s="3">
-        <v>290750200</v>
+        <v>272605400</v>
       </c>
       <c r="H66" s="3">
-        <v>289134400</v>
+        <v>277083600</v>
       </c>
       <c r="I66" s="3">
-        <v>295337700</v>
+        <v>275543800</v>
       </c>
       <c r="J66" s="3">
+        <v>281455500</v>
+      </c>
+      <c r="K66" s="3">
         <v>298915900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>274922300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>276385600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>256632500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>235201100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>227401300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>216609000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>214834200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>217724400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>209829000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>223534500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>217199500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>212960800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4322,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4387,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4452,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>63710500</v>
+        <v>65714700</v>
       </c>
       <c r="E72" s="3">
-        <v>57710500</v>
+        <v>60715800</v>
       </c>
       <c r="F72" s="3">
-        <v>53009000</v>
+        <v>54997900</v>
       </c>
       <c r="G72" s="3">
-        <v>52719900</v>
+        <v>50517300</v>
       </c>
       <c r="H72" s="3">
-        <v>57488800</v>
+        <v>50241800</v>
       </c>
       <c r="I72" s="3">
-        <v>56752600</v>
+        <v>54786600</v>
       </c>
       <c r="J72" s="3">
+        <v>54084900</v>
+      </c>
+      <c r="K72" s="3">
         <v>56301800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>53332100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>61348300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>58541700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>54364300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>51995800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>54531100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>53354000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>50207900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>47608300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>47154300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>47865600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>42799500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>81314800</v>
+        <v>82488000</v>
       </c>
       <c r="E76" s="3">
-        <v>74345900</v>
+        <v>77492700</v>
       </c>
       <c r="F76" s="3">
-        <v>69995900</v>
+        <v>70851300</v>
       </c>
       <c r="G76" s="3">
-        <v>70334000</v>
+        <v>66705800</v>
       </c>
       <c r="H76" s="3">
-        <v>75499800</v>
+        <v>67028000</v>
       </c>
       <c r="I76" s="3">
-        <v>75145800</v>
+        <v>71951000</v>
       </c>
       <c r="J76" s="3">
+        <v>71613600</v>
+      </c>
+      <c r="K76" s="3">
         <v>75170300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>71153400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>79480300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>76494600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>71136700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>69132300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>71931100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>71660400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>69073100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>66849300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>67414300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>68022300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>63023000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5255200</v>
+        <v>4200300</v>
       </c>
       <c r="E81" s="3">
-        <v>4269100</v>
+        <v>5008200</v>
       </c>
       <c r="F81" s="3">
-        <v>2510000</v>
+        <v>4068400</v>
       </c>
       <c r="G81" s="3">
-        <v>-2451200</v>
+        <v>2392000</v>
       </c>
       <c r="H81" s="3">
-        <v>115100</v>
+        <v>-2336000</v>
       </c>
       <c r="I81" s="3">
-        <v>-133500</v>
+        <v>109700</v>
       </c>
       <c r="J81" s="3">
+        <v>-127200</v>
+      </c>
+      <c r="K81" s="3">
         <v>2105800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1562300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2506000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1846500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1870700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1895100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2495800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3513000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2407800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2742100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3001400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2522500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5004,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2224600</v>
+        <v>2162000</v>
       </c>
       <c r="E83" s="3">
-        <v>2804000</v>
+        <v>2120000</v>
       </c>
       <c r="F83" s="3">
-        <v>2714600</v>
+        <v>2672200</v>
       </c>
       <c r="G83" s="3">
-        <v>3027000</v>
+        <v>2587000</v>
       </c>
       <c r="H83" s="3">
-        <v>2426700</v>
+        <v>2884700</v>
       </c>
       <c r="I83" s="3">
-        <v>2682700</v>
+        <v>2312600</v>
       </c>
       <c r="J83" s="3">
+        <v>2556600</v>
+      </c>
+      <c r="K83" s="3">
         <v>2348300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2168100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2154400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2045200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1775500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1641500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1622800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1703200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1552800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1554000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1630400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1619900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5392,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5976700</v>
+        <v>8222100</v>
       </c>
       <c r="E89" s="3">
-        <v>6203300</v>
+        <v>5695800</v>
       </c>
       <c r="F89" s="3">
-        <v>10146600</v>
+        <v>5911800</v>
       </c>
       <c r="G89" s="3">
-        <v>9156800</v>
+        <v>9669700</v>
       </c>
       <c r="H89" s="3">
-        <v>1849700</v>
+        <v>8726400</v>
       </c>
       <c r="I89" s="3">
-        <v>1626800</v>
+        <v>1762800</v>
       </c>
       <c r="J89" s="3">
+        <v>1550300</v>
+      </c>
+      <c r="K89" s="3">
         <v>5343400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1856400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>741600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1387500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1982600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>161400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>892700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6133900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1456300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>535200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2394600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>332200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>946100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,70 +5484,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1452800</v>
+        <v>-1223400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2341000</v>
+        <v>-1384500</v>
       </c>
       <c r="F91" s="3">
-        <v>-746000</v>
+        <v>-2230900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2328700</v>
+        <v>-1392700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1617000</v>
+        <v>-1537500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2459800</v>
+        <v>-1541000</v>
       </c>
       <c r="J91" s="3">
+        <v>-2344200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2170700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2059900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1995300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3047200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2287200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1701900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1474600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2888000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1644800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1575300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5040300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3304300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2574200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5677,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-915100</v>
+        <v>-1572500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1348700</v>
+        <v>-872100</v>
       </c>
       <c r="F94" s="3">
-        <v>-2409600</v>
+        <v>-1285300</v>
       </c>
       <c r="G94" s="3">
-        <v>-2391200</v>
+        <v>-2978100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1716200</v>
+        <v>-1597000</v>
       </c>
       <c r="I94" s="3">
-        <v>-3015900</v>
+        <v>-1635500</v>
       </c>
       <c r="J94" s="3">
+        <v>-2874200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3519400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1775200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4501300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3564100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2627200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2518800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2461700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4470000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3543200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3049600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>401400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-9085300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2905200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,8 +5769,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5549,10 +5782,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1179700</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1124200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5599,8 +5832,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,190 +6027,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2028600</v>
+        <v>-6340200</v>
       </c>
       <c r="E100" s="3">
-        <v>-6178800</v>
+        <v>-1933200</v>
       </c>
       <c r="F100" s="3">
-        <v>-4069400</v>
+        <v>-5888400</v>
       </c>
       <c r="G100" s="3">
-        <v>263400</v>
+        <v>-3878100</v>
       </c>
       <c r="H100" s="3">
-        <v>-3180100</v>
+        <v>251000</v>
       </c>
       <c r="I100" s="3">
-        <v>4082900</v>
+        <v>-3030600</v>
       </c>
       <c r="J100" s="3">
+        <v>3891000</v>
+      </c>
+      <c r="K100" s="3">
         <v>3175200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4644400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4367300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3080300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5461600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2378300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3870500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4680900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>7325500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3165100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-461300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4831400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2236100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>529200</v>
+        <v>-47900</v>
       </c>
       <c r="E101" s="3">
-        <v>-452000</v>
+        <v>504300</v>
       </c>
       <c r="F101" s="3">
-        <v>-545100</v>
+        <v>-430800</v>
       </c>
       <c r="G101" s="3">
-        <v>-270700</v>
+        <v>-519500</v>
       </c>
       <c r="H101" s="3">
-        <v>44100</v>
+        <v>-258000</v>
       </c>
       <c r="I101" s="3">
-        <v>-373600</v>
+        <v>42000</v>
       </c>
       <c r="J101" s="3">
+        <v>-356100</v>
+      </c>
+      <c r="K101" s="3">
         <v>476500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-235300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>283500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>88700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-98600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>282200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-120800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-56100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-295100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-618200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>156100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3562300</v>
+        <v>261500</v>
       </c>
       <c r="E102" s="3">
-        <v>-1776200</v>
+        <v>3394800</v>
       </c>
       <c r="F102" s="3">
-        <v>3122500</v>
+        <v>-1692700</v>
       </c>
       <c r="G102" s="3">
-        <v>7116000</v>
+        <v>2975700</v>
       </c>
       <c r="H102" s="3">
-        <v>-3360100</v>
+        <v>6781500</v>
       </c>
       <c r="I102" s="3">
-        <v>2320100</v>
+        <v>-3202200</v>
       </c>
       <c r="J102" s="3">
+        <v>2211100</v>
+      </c>
+      <c r="K102" s="3">
         <v>5475700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4798500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>891200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>992500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>753200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>303000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2180600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5979100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4943500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>32500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2330000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>235900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DDAIF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DDAIF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>DDAIF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,293 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>50761300</v>
+        <v>35732600</v>
       </c>
       <c r="E8" s="3">
-        <v>47883700</v>
+        <v>75656500</v>
       </c>
       <c r="F8" s="3">
-        <v>54425800</v>
+        <v>46312300</v>
       </c>
       <c r="G8" s="3">
-        <v>47024400</v>
+        <v>52639800</v>
       </c>
       <c r="H8" s="3">
-        <v>35237100</v>
+        <v>35702100</v>
       </c>
       <c r="I8" s="3">
-        <v>43454500</v>
+        <v>60377500</v>
       </c>
       <c r="J8" s="3">
+        <v>42028500</v>
+      </c>
+      <c r="K8" s="3">
         <v>55016500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>53005300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>50173500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>47486700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>55135000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>44537700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>44750100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>43683900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>48933300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>45715500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>46241700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>45287900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>48127400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>45305500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>39049900</v>
+        <v>27936200</v>
       </c>
       <c r="E9" s="3">
-        <v>36754700</v>
+        <v>57595400</v>
       </c>
       <c r="F9" s="3">
-        <v>42567300</v>
+        <v>35548600</v>
       </c>
       <c r="G9" s="3">
-        <v>37701500</v>
+        <v>41170400</v>
       </c>
       <c r="H9" s="3">
-        <v>30953900</v>
+        <v>28588800</v>
       </c>
       <c r="I9" s="3">
-        <v>36668300</v>
+        <v>51757900</v>
       </c>
       <c r="J9" s="3">
+        <v>35465000</v>
+      </c>
+      <c r="K9" s="3">
         <v>41143000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>42379800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>41095200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>38430300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>45402100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>35716800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>35691600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>34213700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>38599800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>36155000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>36374900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>35893900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>38207500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>34973700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>11711500</v>
+        <v>7796400</v>
       </c>
       <c r="E10" s="3">
-        <v>11128900</v>
+        <v>18061100</v>
       </c>
       <c r="F10" s="3">
-        <v>11858600</v>
+        <v>10763700</v>
       </c>
       <c r="G10" s="3">
-        <v>9322900</v>
+        <v>11469400</v>
       </c>
       <c r="H10" s="3">
-        <v>4283200</v>
+        <v>7113300</v>
       </c>
       <c r="I10" s="3">
-        <v>6786200</v>
+        <v>8619500</v>
       </c>
       <c r="J10" s="3">
+        <v>6563500</v>
+      </c>
+      <c r="K10" s="3">
         <v>13873500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10625600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9078300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9056400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9732900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8820900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9058500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9470300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10333500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9560500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>9866800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>9394000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>9919900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>10331900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,73 +975,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2086200</v>
+        <v>1525400</v>
       </c>
       <c r="E12" s="3">
-        <v>2137500</v>
+        <v>3387300</v>
       </c>
       <c r="F12" s="3">
-        <v>1513000</v>
+        <v>2067400</v>
       </c>
       <c r="G12" s="3">
-        <v>1814200</v>
+        <v>1463300</v>
       </c>
       <c r="H12" s="3">
-        <v>1802500</v>
+        <v>1404600</v>
       </c>
       <c r="I12" s="3">
-        <v>2010300</v>
+        <v>2944700</v>
       </c>
       <c r="J12" s="3">
+        <v>1944300</v>
+      </c>
+      <c r="K12" s="3">
         <v>1808300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2160900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1845800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2038300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1743600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1966000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1778800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1879800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1603300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1847900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1586500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1699700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1711400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1523600</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,43 +1109,46 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>135400</v>
+        <v>215700</v>
       </c>
       <c r="E14" s="3">
-        <v>402800</v>
+        <v>722600</v>
       </c>
       <c r="F14" s="3">
-        <v>645600</v>
+        <v>389500</v>
       </c>
       <c r="G14" s="3">
-        <v>477500</v>
+        <v>624400</v>
       </c>
       <c r="H14" s="3">
-        <v>1137100</v>
+        <v>461800</v>
       </c>
       <c r="I14" s="3">
-        <v>119100</v>
+        <v>1214900</v>
       </c>
       <c r="J14" s="3">
+        <v>115200</v>
+      </c>
+      <c r="K14" s="3">
         <v>5265000</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2554000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-858900</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1158,8 +1177,11 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1223,8 +1245,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1270,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>45455400</v>
+        <v>32599400</v>
       </c>
       <c r="E17" s="3">
-        <v>41913500</v>
+        <v>66859700</v>
       </c>
       <c r="F17" s="3">
-        <v>49452700</v>
+        <v>40538100</v>
       </c>
       <c r="G17" s="3">
-        <v>43454500</v>
+        <v>47829800</v>
       </c>
       <c r="H17" s="3">
-        <v>37283600</v>
+        <v>32867000</v>
       </c>
       <c r="I17" s="3">
-        <v>42759900</v>
+        <v>61120400</v>
       </c>
       <c r="J17" s="3">
+        <v>41356700</v>
+      </c>
+      <c r="K17" s="3">
         <v>54449200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>49817900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>52151000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>44270200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>51904500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>42365700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>41811800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>40518400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>45339600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>42011800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>42363000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>41665600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>44481500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>40581000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5305900</v>
+        <v>3133300</v>
       </c>
       <c r="E18" s="3">
-        <v>5970100</v>
+        <v>8796800</v>
       </c>
       <c r="F18" s="3">
-        <v>4973200</v>
+        <v>5774200</v>
       </c>
       <c r="G18" s="3">
-        <v>3569900</v>
+        <v>4810000</v>
       </c>
       <c r="H18" s="3">
-        <v>-2046500</v>
+        <v>2835200</v>
       </c>
       <c r="I18" s="3">
-        <v>694600</v>
+        <v>-742900</v>
       </c>
       <c r="J18" s="3">
+        <v>671800</v>
+      </c>
+      <c r="K18" s="3">
         <v>567400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3187400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1977500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3216600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3230500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2172000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2938200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3165500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3593700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3703700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3878700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3622400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3645900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4724600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,333 +1432,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>777500</v>
+        <v>214500</v>
       </c>
       <c r="E20" s="3">
-        <v>771700</v>
+        <v>1549100</v>
       </c>
       <c r="F20" s="3">
-        <v>378200</v>
+        <v>746300</v>
       </c>
       <c r="G20" s="3">
-        <v>40900</v>
+        <v>365800</v>
       </c>
       <c r="H20" s="3">
-        <v>96900</v>
+        <v>42900</v>
       </c>
       <c r="I20" s="3">
-        <v>68900</v>
+        <v>175000</v>
       </c>
       <c r="J20" s="3">
+        <v>66600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-61900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>158000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>232900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>171100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-22500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>615800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>516100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>242300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>117800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>316400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>807600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>409700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8245400</v>
+        <v>5281900</v>
       </c>
       <c r="E21" s="3">
-        <v>8861800</v>
+        <v>14487500</v>
       </c>
       <c r="F21" s="3">
-        <v>8023600</v>
+        <v>8571000</v>
       </c>
       <c r="G21" s="3">
-        <v>6197800</v>
+        <v>7760300</v>
       </c>
       <c r="H21" s="3">
-        <v>935100</v>
+        <v>5380200</v>
       </c>
       <c r="I21" s="3">
-        <v>3076100</v>
+        <v>4458800</v>
       </c>
       <c r="J21" s="3">
+        <v>2975200</v>
+      </c>
+      <c r="K21" s="3">
         <v>3062100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5693800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>423500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5542000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5253300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4563300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4576500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5304400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5539300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5374300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5749100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6060400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5675400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>6385500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>142400</v>
+        <v>97100</v>
       </c>
       <c r="E22" s="3">
-        <v>108600</v>
+        <v>216800</v>
       </c>
       <c r="F22" s="3">
-        <v>87600</v>
+        <v>105000</v>
       </c>
       <c r="G22" s="3">
-        <v>71200</v>
+        <v>84700</v>
       </c>
       <c r="H22" s="3">
-        <v>84100</v>
+        <v>54200</v>
       </c>
       <c r="I22" s="3">
-        <v>133100</v>
+        <v>182900</v>
       </c>
       <c r="J22" s="3">
+        <v>128700</v>
+      </c>
+      <c r="K22" s="3">
         <v>150600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>191100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>222300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>250000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>282700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>190500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>157000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>116400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>115600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>108800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>98700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>97400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>111500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5940900</v>
+        <v>3250700</v>
       </c>
       <c r="E23" s="3">
-        <v>6633200</v>
+        <v>10129200</v>
       </c>
       <c r="F23" s="3">
-        <v>5263900</v>
+        <v>6415500</v>
       </c>
       <c r="G23" s="3">
-        <v>3539600</v>
+        <v>5091100</v>
       </c>
       <c r="H23" s="3">
-        <v>-2033600</v>
+        <v>2823900</v>
       </c>
       <c r="I23" s="3">
-        <v>630400</v>
+        <v>-750900</v>
       </c>
       <c r="J23" s="3">
+        <v>609700</v>
+      </c>
+      <c r="K23" s="3">
         <v>354900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3154300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1966900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3137600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2925300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2597300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2777900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3565200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3720500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3712700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4096400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4332500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3944000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4648300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1616900</v>
+        <v>965400</v>
       </c>
       <c r="E24" s="3">
-        <v>1528100</v>
+        <v>2656800</v>
       </c>
       <c r="F24" s="3">
-        <v>1074000</v>
+        <v>1478000</v>
       </c>
       <c r="G24" s="3">
-        <v>1020300</v>
+        <v>1038800</v>
       </c>
       <c r="H24" s="3">
-        <v>191500</v>
+        <v>779100</v>
       </c>
       <c r="I24" s="3">
-        <v>434300</v>
+        <v>484400</v>
       </c>
       <c r="J24" s="3">
+        <v>420000</v>
+      </c>
+      <c r="K24" s="3">
         <v>367700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>933400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-505900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>567000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>983000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>646800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>774100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>980500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>112200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1202800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1277900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1219600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1354600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1448500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,138 +1838,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4324100</v>
+        <v>2285300</v>
       </c>
       <c r="E26" s="3">
-        <v>5105100</v>
+        <v>7472400</v>
       </c>
       <c r="F26" s="3">
-        <v>4189800</v>
+        <v>4937600</v>
       </c>
       <c r="G26" s="3">
-        <v>2519300</v>
+        <v>4052300</v>
       </c>
       <c r="H26" s="3">
-        <v>-2225100</v>
+        <v>2044800</v>
       </c>
       <c r="I26" s="3">
-        <v>196100</v>
+        <v>-1235200</v>
       </c>
       <c r="J26" s="3">
+        <v>189700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-12800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2220900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1461100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2570600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1942300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1950500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2003900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2584700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3608300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2509900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2818400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3112900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2589400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3199800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4200300</v>
+        <v>2178000</v>
       </c>
       <c r="E27" s="3">
-        <v>5008200</v>
+        <v>7279300</v>
       </c>
       <c r="F27" s="3">
-        <v>4068400</v>
+        <v>4843800</v>
       </c>
       <c r="G27" s="3">
-        <v>2392000</v>
+        <v>3934900</v>
       </c>
       <c r="H27" s="3">
-        <v>-2336000</v>
+        <v>1919500</v>
       </c>
       <c r="I27" s="3">
-        <v>109700</v>
+        <v>-1423800</v>
       </c>
       <c r="J27" s="3">
+        <v>106100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-127200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2105800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1562300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2506000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1846500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1870700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1895100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2495800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3513000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2407800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2742100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3001400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2522500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,31 +2042,34 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>610800</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>1627000</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>394100</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-729400</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2050,8 +2110,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2178,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,138 +2246,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-777500</v>
+        <v>-214500</v>
       </c>
       <c r="E32" s="3">
-        <v>-771700</v>
+        <v>-1549100</v>
       </c>
       <c r="F32" s="3">
-        <v>-378200</v>
+        <v>-746300</v>
       </c>
       <c r="G32" s="3">
-        <v>-40900</v>
+        <v>-365800</v>
       </c>
       <c r="H32" s="3">
-        <v>-96900</v>
+        <v>-42900</v>
       </c>
       <c r="I32" s="3">
-        <v>-68900</v>
+        <v>-175000</v>
       </c>
       <c r="J32" s="3">
+        <v>-66600</v>
+      </c>
+      <c r="K32" s="3">
         <v>61900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-158000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-232900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-171100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>22500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-615800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-516100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-242300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-117800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-316400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-807600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-409700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4200300</v>
+        <v>2788900</v>
       </c>
       <c r="E33" s="3">
-        <v>5008200</v>
+        <v>8906300</v>
       </c>
       <c r="F33" s="3">
-        <v>4068400</v>
+        <v>4843800</v>
       </c>
       <c r="G33" s="3">
-        <v>2392000</v>
+        <v>3934900</v>
       </c>
       <c r="H33" s="3">
-        <v>-2336000</v>
+        <v>2313500</v>
       </c>
       <c r="I33" s="3">
-        <v>109700</v>
+        <v>-2153200</v>
       </c>
       <c r="J33" s="3">
+        <v>106100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-127200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2105800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1562300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2506000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1846500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1870700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1895100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2495800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3513000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2407800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2742100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3001400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2522500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2450,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4200300</v>
+        <v>2788900</v>
       </c>
       <c r="E35" s="3">
-        <v>5008200</v>
+        <v>8906300</v>
       </c>
       <c r="F35" s="3">
-        <v>4068400</v>
+        <v>4843800</v>
       </c>
       <c r="G35" s="3">
-        <v>2392000</v>
+        <v>3934900</v>
       </c>
       <c r="H35" s="3">
-        <v>-2336000</v>
+        <v>2313500</v>
       </c>
       <c r="I35" s="3">
-        <v>109700</v>
+        <v>-2153200</v>
       </c>
       <c r="J35" s="3">
+        <v>106100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-127200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2105800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1562300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2506000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1846500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1870700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1895100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2495800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3513000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2407800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2742100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3001400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2522500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2619,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,593 +2645,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>30562800</v>
+        <v>22531200</v>
       </c>
       <c r="E41" s="3">
-        <v>30301300</v>
+        <v>29559800</v>
       </c>
       <c r="F41" s="3">
-        <v>26906500</v>
+        <v>29306900</v>
       </c>
       <c r="G41" s="3">
-        <v>28599200</v>
+        <v>26023500</v>
       </c>
       <c r="H41" s="3">
-        <v>25623500</v>
+        <v>27660700</v>
       </c>
       <c r="I41" s="3">
-        <v>18842000</v>
+        <v>24782600</v>
       </c>
       <c r="J41" s="3">
+        <v>18223700</v>
+      </c>
+      <c r="K41" s="3">
         <v>22044200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20811400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14727400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19854500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18752500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16629500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15738700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15435700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13544700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>19523700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14580300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15219600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12889600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>16655200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9018200</v>
+        <v>8933400</v>
       </c>
       <c r="E42" s="3">
-        <v>10059600</v>
+        <v>8722300</v>
       </c>
       <c r="F42" s="3">
-        <v>9471200</v>
+        <v>9729500</v>
       </c>
       <c r="G42" s="3">
-        <v>12149200</v>
+        <v>9160400</v>
       </c>
       <c r="H42" s="3">
-        <v>13180100</v>
+        <v>11750500</v>
       </c>
       <c r="I42" s="3">
-        <v>12773800</v>
+        <v>12747500</v>
       </c>
       <c r="J42" s="3">
+        <v>12354600</v>
+      </c>
+      <c r="K42" s="3">
         <v>12399100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14216000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14361500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14671400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>13987800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14208300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>15096400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14413400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14221200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14027100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>13316900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>13057500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>14655000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>13659600</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>60448500</v>
+        <v>43468100</v>
       </c>
       <c r="E43" s="3">
-        <v>62942100</v>
+        <v>58464800</v>
       </c>
       <c r="F43" s="3">
-        <v>62018700</v>
+        <v>60876600</v>
       </c>
       <c r="G43" s="3">
-        <v>61283200</v>
+        <v>59983400</v>
       </c>
       <c r="H43" s="3">
-        <v>64263600</v>
+        <v>59272100</v>
       </c>
       <c r="I43" s="3">
-        <v>68277100</v>
+        <v>62154700</v>
       </c>
       <c r="J43" s="3">
+        <v>66036500</v>
+      </c>
+      <c r="K43" s="3">
         <v>73678700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>73756600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>69137000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>71465800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>68639000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>61167200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>57758100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>56931300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>57725300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>54084400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>53110500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>56567100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>56624600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>53759300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>33755700</v>
+        <v>23371200</v>
       </c>
       <c r="E44" s="3">
-        <v>33648300</v>
+        <v>32647900</v>
       </c>
       <c r="F44" s="3">
-        <v>30871000</v>
+        <v>32544000</v>
       </c>
       <c r="G44" s="3">
-        <v>34478300</v>
+        <v>29857900</v>
       </c>
       <c r="H44" s="3">
-        <v>35160100</v>
+        <v>33346800</v>
       </c>
       <c r="I44" s="3">
-        <v>37582400</v>
+        <v>34006200</v>
       </c>
       <c r="J44" s="3">
+        <v>36349100</v>
+      </c>
+      <c r="K44" s="3">
         <v>34738600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>43550800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>39361200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>40078700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>34882500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>35582800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>32008900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>30281700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>28819400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>30246600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>29426400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>31289100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>29796000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>31845500</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5658400</v>
+        <v>63896900</v>
       </c>
       <c r="E45" s="3">
-        <v>5883700</v>
+        <v>5472700</v>
       </c>
       <c r="F45" s="3">
-        <v>5293000</v>
+        <v>5690700</v>
       </c>
       <c r="G45" s="3">
-        <v>5282500</v>
+        <v>5119300</v>
       </c>
       <c r="H45" s="3">
-        <v>6232800</v>
+        <v>5109200</v>
       </c>
       <c r="I45" s="3">
-        <v>6712600</v>
+        <v>6028300</v>
       </c>
       <c r="J45" s="3">
+        <v>6492300</v>
+      </c>
+      <c r="K45" s="3">
         <v>6334400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6844000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6686700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7071900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7594200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6833900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6323400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5979700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5625700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5643600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5530300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5720000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5824400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5884300</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>139443600</v>
+        <v>162200900</v>
       </c>
       <c r="E46" s="3">
-        <v>142834900</v>
+        <v>134867600</v>
       </c>
       <c r="F46" s="3">
-        <v>134560300</v>
+        <v>138147600</v>
       </c>
       <c r="G46" s="3">
-        <v>141792500</v>
+        <v>130144600</v>
       </c>
       <c r="H46" s="3">
-        <v>144460000</v>
+        <v>137139400</v>
       </c>
       <c r="I46" s="3">
-        <v>144188000</v>
+        <v>139719400</v>
       </c>
       <c r="J46" s="3">
+        <v>139456300</v>
+      </c>
+      <c r="K46" s="3">
         <v>149195000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>159178900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>144273700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>153142300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>143856000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>134421700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>126925500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>123041900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>119936200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>123525500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>115964400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>121853200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>119789700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>121803900</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>78944900</v>
+        <v>62517100</v>
       </c>
       <c r="E47" s="3">
-        <v>77649100</v>
+        <v>76354300</v>
       </c>
       <c r="F47" s="3">
-        <v>74838000</v>
+        <v>75101000</v>
       </c>
       <c r="G47" s="3">
-        <v>73751100</v>
+        <v>72382100</v>
       </c>
       <c r="H47" s="3">
-        <v>72382900</v>
+        <v>71330900</v>
       </c>
       <c r="I47" s="3">
-        <v>74273000</v>
+        <v>70007600</v>
       </c>
       <c r="J47" s="3">
+        <v>71835600</v>
+      </c>
+      <c r="K47" s="3">
         <v>73483800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>77947300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>73726200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>75553200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>70554100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>63870900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>63911300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>63030700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>62396100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>60986900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>59315100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>62174400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>59838500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>58128200</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>97038600</v>
+        <v>80568100</v>
       </c>
       <c r="E48" s="3">
-        <v>97484600</v>
+        <v>93854200</v>
       </c>
       <c r="F48" s="3">
-        <v>96659200</v>
+        <v>94285500</v>
       </c>
       <c r="G48" s="3">
-        <v>96656900</v>
+        <v>93487200</v>
       </c>
       <c r="H48" s="3">
-        <v>99529900</v>
+        <v>93485000</v>
       </c>
       <c r="I48" s="3">
-        <v>102527800</v>
+        <v>96263700</v>
       </c>
       <c r="J48" s="3">
+        <v>99163200</v>
+      </c>
+      <c r="K48" s="3">
         <v>103461700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>108140900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>101361000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>102096900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>95133500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>87098300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>85089500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>82541100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>84211000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>83246000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>82615500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>86853700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>86067300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>77534800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19255300</v>
+        <v>16794200</v>
       </c>
       <c r="E49" s="3">
-        <v>19279800</v>
+        <v>18623400</v>
       </c>
       <c r="F49" s="3">
-        <v>19144400</v>
+        <v>18647100</v>
       </c>
       <c r="G49" s="3">
-        <v>19180500</v>
+        <v>18516100</v>
       </c>
       <c r="H49" s="3">
-        <v>19363800</v>
+        <v>18551100</v>
       </c>
       <c r="I49" s="3">
-        <v>19035800</v>
+        <v>18728400</v>
       </c>
       <c r="J49" s="3">
+        <v>18411100</v>
+      </c>
+      <c r="K49" s="3">
         <v>18652900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>19445500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18096600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17974100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17508100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>16093400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>15661900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>15330300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>15410500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>14909000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>14512900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>14723100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>14200800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>12920100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3323,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,73 +3391,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7055800</v>
+        <v>4924000</v>
       </c>
       <c r="E52" s="3">
-        <v>7532100</v>
+        <v>6824300</v>
       </c>
       <c r="F52" s="3">
-        <v>8370300</v>
+        <v>7285000</v>
       </c>
       <c r="G52" s="3">
-        <v>7930200</v>
+        <v>8095600</v>
       </c>
       <c r="H52" s="3">
-        <v>8375000</v>
+        <v>7670000</v>
       </c>
       <c r="I52" s="3">
-        <v>7470300</v>
+        <v>8100200</v>
       </c>
       <c r="J52" s="3">
+        <v>7225100</v>
+      </c>
+      <c r="K52" s="3">
         <v>8275800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9373600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8618300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7099400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6075400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4853500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4945400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4596200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4540700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4130000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4270300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5344400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5325600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5596700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3527,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>341738300</v>
+        <v>327004300</v>
       </c>
       <c r="E54" s="3">
-        <v>344780500</v>
+        <v>330523700</v>
       </c>
       <c r="F54" s="3">
-        <v>333572200</v>
+        <v>333466100</v>
       </c>
       <c r="G54" s="3">
-        <v>339311200</v>
+        <v>322625600</v>
       </c>
       <c r="H54" s="3">
-        <v>344111600</v>
+        <v>328176300</v>
       </c>
       <c r="I54" s="3">
-        <v>347494800</v>
+        <v>332819200</v>
       </c>
       <c r="J54" s="3">
+        <v>336091300</v>
+      </c>
+      <c r="K54" s="3">
         <v>353069100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>374086200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>346075700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>355865900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>333127100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>306337800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>296533600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>288540100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>286494500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>286797500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>276678200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>290948800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>285221700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>275983900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3623,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,398 +3649,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17855500</v>
+        <v>12802900</v>
       </c>
       <c r="E57" s="3">
-        <v>18038800</v>
+        <v>17269600</v>
       </c>
       <c r="F57" s="3">
-        <v>14450200</v>
+        <v>17446900</v>
       </c>
       <c r="G57" s="3">
-        <v>17367600</v>
+        <v>13976000</v>
       </c>
       <c r="H57" s="3">
-        <v>15952700</v>
+        <v>16797600</v>
       </c>
       <c r="I57" s="3">
-        <v>16550400</v>
+        <v>15429200</v>
       </c>
       <c r="J57" s="3">
+        <v>16007300</v>
+      </c>
+      <c r="K57" s="3">
         <v>14834300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19806900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17874200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18854500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16779400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18182400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>17256200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>16321800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>13969900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>17054200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>15677600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>16264300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>13577500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>16265500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>71248200</v>
+        <v>60614600</v>
       </c>
       <c r="E58" s="3">
-        <v>72193800</v>
+        <v>68910100</v>
       </c>
       <c r="F58" s="3">
-        <v>69230900</v>
+        <v>69824700</v>
       </c>
       <c r="G58" s="3">
-        <v>69522800</v>
+        <v>66959000</v>
       </c>
       <c r="H58" s="3">
-        <v>72029200</v>
+        <v>67241300</v>
       </c>
       <c r="I58" s="3">
-        <v>71938100</v>
+        <v>69665500</v>
       </c>
       <c r="J58" s="3">
+        <v>69577400</v>
+      </c>
+      <c r="K58" s="3">
         <v>73081000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>73815400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>76598900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>71390400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>66526300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>58944300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>55475400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>53963400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>54692500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>50942800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>50789100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>51668800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>55507100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>52715800</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>32511200</v>
+        <v>51760200</v>
       </c>
       <c r="E59" s="3">
-        <v>34724600</v>
+        <v>31444300</v>
       </c>
       <c r="F59" s="3">
-        <v>32836900</v>
+        <v>33585100</v>
       </c>
       <c r="G59" s="3">
-        <v>31836400</v>
+        <v>31759300</v>
       </c>
       <c r="H59" s="3">
-        <v>32873100</v>
+        <v>30791700</v>
       </c>
       <c r="I59" s="3">
-        <v>32667600</v>
+        <v>31794300</v>
       </c>
       <c r="J59" s="3">
+        <v>31595600</v>
+      </c>
+      <c r="K59" s="3">
         <v>35599000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>37231100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>34426200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>34375200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>32561700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>30066900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>28935600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>28596300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>29650800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>27662700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>26797600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>34037000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>30051900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>28641000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>121614900</v>
+        <v>125177700</v>
       </c>
       <c r="E60" s="3">
-        <v>124957200</v>
+        <v>117624000</v>
       </c>
       <c r="F60" s="3">
-        <v>116518000</v>
+        <v>120856600</v>
       </c>
       <c r="G60" s="3">
-        <v>118726800</v>
+        <v>112694300</v>
       </c>
       <c r="H60" s="3">
-        <v>120855000</v>
+        <v>114830600</v>
       </c>
       <c r="I60" s="3">
-        <v>121156100</v>
+        <v>116888900</v>
       </c>
       <c r="J60" s="3">
+        <v>117180300</v>
+      </c>
+      <c r="K60" s="3">
         <v>123514300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>130853400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>128899300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>124620100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>115867400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>107193500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>101667100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>98881500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>98313300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>95659700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>93264300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>101970000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>99136500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>97622300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>95247800</v>
+        <v>86973400</v>
       </c>
       <c r="E61" s="3">
-        <v>99324400</v>
+        <v>92122100</v>
       </c>
       <c r="F61" s="3">
-        <v>101026500</v>
+        <v>96065000</v>
       </c>
       <c r="G61" s="3">
-        <v>108180400</v>
+        <v>97711200</v>
       </c>
       <c r="H61" s="3">
-        <v>111944100</v>
+        <v>104630300</v>
       </c>
       <c r="I61" s="3">
-        <v>112885000</v>
+        <v>108270500</v>
       </c>
       <c r="J61" s="3">
+        <v>109180600</v>
+      </c>
+      <c r="K61" s="3">
         <v>115782600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>121871800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>104687800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>113914100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>104878300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>97366900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>95093400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>88104600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>87939300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>88054900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>83288700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>86016800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>82633900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>78530200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>40657400</v>
+        <v>29865800</v>
       </c>
       <c r="E62" s="3">
-        <v>41123200</v>
+        <v>39323200</v>
       </c>
       <c r="F62" s="3">
-        <v>43358800</v>
+        <v>39773700</v>
       </c>
       <c r="G62" s="3">
-        <v>43967000</v>
+        <v>41935900</v>
       </c>
       <c r="H62" s="3">
-        <v>42602300</v>
+        <v>42524200</v>
       </c>
       <c r="I62" s="3">
-        <v>39716500</v>
+        <v>41204200</v>
       </c>
       <c r="J62" s="3">
+        <v>38413100</v>
+      </c>
+      <c r="K62" s="3">
         <v>40411100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>44465900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>39810600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>36150400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>34247300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>29170900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>29285900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>28112100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>27134200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>32700400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>32046300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>34324600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>34040500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>35561700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4123,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4040,8 +4191,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4259,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>259250200</v>
+        <v>243812200</v>
       </c>
       <c r="E66" s="3">
-        <v>267287900</v>
+        <v>250742600</v>
       </c>
       <c r="F66" s="3">
-        <v>262721000</v>
+        <v>258516500</v>
       </c>
       <c r="G66" s="3">
-        <v>272605400</v>
+        <v>254099400</v>
       </c>
       <c r="H66" s="3">
-        <v>277083600</v>
+        <v>263659500</v>
       </c>
       <c r="I66" s="3">
-        <v>275543800</v>
+        <v>267990800</v>
       </c>
       <c r="J66" s="3">
+        <v>266501500</v>
+      </c>
+      <c r="K66" s="3">
         <v>281455500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>298915900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>274922300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>276385600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>256632500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>235201100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>227401300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>216609000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>214834200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>217724400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>209829000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>223534500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>217199500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>212960800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4355,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4421,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,8 +4489,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4390,8 +4557,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,73 +4625,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>65714700</v>
+        <v>66473500</v>
       </c>
       <c r="E72" s="3">
-        <v>60715800</v>
+        <v>63558200</v>
       </c>
       <c r="F72" s="3">
-        <v>54997900</v>
+        <v>58723400</v>
       </c>
       <c r="G72" s="3">
-        <v>50517300</v>
+        <v>53193000</v>
       </c>
       <c r="H72" s="3">
-        <v>50241800</v>
+        <v>48859500</v>
       </c>
       <c r="I72" s="3">
-        <v>54786600</v>
+        <v>48593100</v>
       </c>
       <c r="J72" s="3">
+        <v>52988700</v>
+      </c>
+      <c r="K72" s="3">
         <v>54084900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>56301800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>53332100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>61348300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>58541700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>54364300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>51995800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>54531100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>53354000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>50207900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>47608300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>47154300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>47865600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>42799500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4761,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +4829,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +4897,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>82488000</v>
+        <v>83192100</v>
       </c>
       <c r="E76" s="3">
-        <v>77492700</v>
+        <v>79781100</v>
       </c>
       <c r="F76" s="3">
-        <v>70851300</v>
+        <v>74949700</v>
       </c>
       <c r="G76" s="3">
-        <v>66705800</v>
+        <v>68526200</v>
       </c>
       <c r="H76" s="3">
-        <v>67028000</v>
+        <v>64516800</v>
       </c>
       <c r="I76" s="3">
-        <v>71951000</v>
+        <v>64828400</v>
       </c>
       <c r="J76" s="3">
+        <v>69589800</v>
+      </c>
+      <c r="K76" s="3">
         <v>71613600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>75170300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>71153400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>79480300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>76494600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>71136700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>69132300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>71931100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>71660400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>69073100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>66849300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>67414300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>68022300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>63023000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5033,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4200300</v>
+        <v>2788900</v>
       </c>
       <c r="E81" s="3">
-        <v>5008200</v>
+        <v>8906300</v>
       </c>
       <c r="F81" s="3">
-        <v>4068400</v>
+        <v>4843800</v>
       </c>
       <c r="G81" s="3">
-        <v>2392000</v>
+        <v>3934900</v>
       </c>
       <c r="H81" s="3">
-        <v>-2336000</v>
+        <v>2313500</v>
       </c>
       <c r="I81" s="3">
-        <v>109700</v>
+        <v>-2153200</v>
       </c>
       <c r="J81" s="3">
+        <v>106100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-127200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2105800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1562300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2506000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1846500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1870700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1895100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2495800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3513000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2407800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2742100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3001400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2522500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,73 +5202,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2162000</v>
+        <v>1934100</v>
       </c>
       <c r="E83" s="3">
-        <v>2120000</v>
+        <v>4141500</v>
       </c>
       <c r="F83" s="3">
-        <v>2672200</v>
+        <v>2050400</v>
       </c>
       <c r="G83" s="3">
-        <v>2587000</v>
+        <v>2584500</v>
       </c>
       <c r="H83" s="3">
-        <v>2884700</v>
+        <v>2502100</v>
       </c>
       <c r="I83" s="3">
-        <v>2312600</v>
+        <v>5026800</v>
       </c>
       <c r="J83" s="3">
+        <v>2236700</v>
+      </c>
+      <c r="K83" s="3">
         <v>2556600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2348300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2168100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2154400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2045200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1775500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1641500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1622800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1703200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1552800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1554000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1630400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1619900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5336,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5404,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5472,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5540,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,73 +5608,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8222100</v>
+        <v>9653800</v>
       </c>
       <c r="E89" s="3">
-        <v>5695800</v>
+        <v>13461100</v>
       </c>
       <c r="F89" s="3">
-        <v>5911800</v>
+        <v>5508900</v>
       </c>
       <c r="G89" s="3">
-        <v>9669700</v>
+        <v>5717800</v>
       </c>
       <c r="H89" s="3">
-        <v>8726400</v>
+        <v>9352300</v>
       </c>
       <c r="I89" s="3">
-        <v>1762800</v>
+        <v>10145000</v>
       </c>
       <c r="J89" s="3">
+        <v>1704900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1550300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5343400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1856400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>741600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1387500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1982600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>161400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>892700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6133900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1456300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>535200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2394600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>332200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>946100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,73 +5704,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1223400</v>
+        <v>-1248800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1384500</v>
+        <v>-2522400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2230900</v>
+        <v>-1339100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1392700</v>
+        <v>-2157700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1537500</v>
+        <v>-1347000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1541000</v>
+        <v>-2977400</v>
       </c>
       <c r="J91" s="3">
+        <v>-1490400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2344200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2170700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2059900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1995300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3047200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2287200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1701900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1474600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2888000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1644800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1575300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5040300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3304300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2574200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +5838,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,73 +5906,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1572500</v>
+        <v>-2356400</v>
       </c>
       <c r="E94" s="3">
-        <v>-872100</v>
+        <v>-2364300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1285300</v>
+        <v>-843400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2978100</v>
+        <v>-1243100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1597000</v>
+        <v>-2880300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1635500</v>
+        <v>-3126500</v>
       </c>
       <c r="J94" s="3">
+        <v>-1581900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2874200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3519400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1775200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4501300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3564100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2627200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2518800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2461700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4470000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3543200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3049600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>401400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-9085300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2905200</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,8 +6002,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5779,16 +6012,16 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1630400</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-1124200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1087300</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -5835,8 +6068,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6136,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6204,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,199 +6272,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6340200</v>
+        <v>-8501000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1933200</v>
+        <v>-8001900</v>
       </c>
       <c r="F100" s="3">
-        <v>-5888400</v>
+        <v>-1869800</v>
       </c>
       <c r="G100" s="3">
-        <v>-3878100</v>
+        <v>-5695200</v>
       </c>
       <c r="H100" s="3">
-        <v>251000</v>
+        <v>-3750900</v>
       </c>
       <c r="I100" s="3">
-        <v>-3030600</v>
+        <v>-2688400</v>
       </c>
       <c r="J100" s="3">
+        <v>-2931100</v>
+      </c>
+      <c r="K100" s="3">
         <v>3891000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3175200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4644400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4367300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3080300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5461600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2378300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3870500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4680900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>7325500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3165100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-461300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4831400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2236100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-47900</v>
+        <v>272100</v>
       </c>
       <c r="E101" s="3">
-        <v>504300</v>
+        <v>441500</v>
       </c>
       <c r="F101" s="3">
-        <v>-430800</v>
+        <v>487800</v>
       </c>
       <c r="G101" s="3">
-        <v>-519500</v>
+        <v>-416600</v>
       </c>
       <c r="H101" s="3">
-        <v>-258000</v>
+        <v>-502400</v>
       </c>
       <c r="I101" s="3">
-        <v>42000</v>
+        <v>-208900</v>
       </c>
       <c r="J101" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-356100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>476500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-235300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>283500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>88700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-98600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>282200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-120800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-56100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-295100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-618200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>156100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>261500</v>
+        <v>-931500</v>
       </c>
       <c r="E102" s="3">
-        <v>3394800</v>
+        <v>3536300</v>
       </c>
       <c r="F102" s="3">
-        <v>-1692700</v>
+        <v>3283400</v>
       </c>
       <c r="G102" s="3">
-        <v>2975700</v>
+        <v>-1637200</v>
       </c>
       <c r="H102" s="3">
-        <v>6781500</v>
+        <v>2878100</v>
       </c>
       <c r="I102" s="3">
-        <v>-3202200</v>
+        <v>3461800</v>
       </c>
       <c r="J102" s="3">
+        <v>-3097100</v>
+      </c>
+      <c r="K102" s="3">
         <v>2211100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5475700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4798500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>891200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>992500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>753200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>303000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2180600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5979100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4943500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>32500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2330000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>235900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DDAIF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DDAIF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>DDAIF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,293 +665,305 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35732600</v>
+        <v>38443700</v>
       </c>
       <c r="E8" s="3">
-        <v>75656500</v>
+        <v>34524000</v>
       </c>
       <c r="F8" s="3">
-        <v>46312300</v>
+        <v>73097500</v>
       </c>
       <c r="G8" s="3">
-        <v>52639800</v>
+        <v>44745900</v>
       </c>
       <c r="H8" s="3">
-        <v>35702100</v>
+        <v>40018900</v>
       </c>
       <c r="I8" s="3">
-        <v>60377500</v>
+        <v>34494600</v>
       </c>
       <c r="J8" s="3">
+        <v>58335300</v>
+      </c>
+      <c r="K8" s="3">
         <v>42028500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>55016500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>53005300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>50173500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>47486700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>55135000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>44537700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>44750100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>43683900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>48933300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>45715500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>46241700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>45287900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>48127400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>45305500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>27936200</v>
+        <v>29244000</v>
       </c>
       <c r="E9" s="3">
-        <v>57595400</v>
+        <v>26991300</v>
       </c>
       <c r="F9" s="3">
-        <v>35548600</v>
+        <v>55647300</v>
       </c>
       <c r="G9" s="3">
-        <v>41170400</v>
+        <v>34346200</v>
       </c>
       <c r="H9" s="3">
-        <v>28588800</v>
+        <v>32653100</v>
       </c>
       <c r="I9" s="3">
-        <v>51757900</v>
+        <v>27621800</v>
       </c>
       <c r="J9" s="3">
+        <v>50007300</v>
+      </c>
+      <c r="K9" s="3">
         <v>35465000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>41143000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>42379800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>41095200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>38430300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>45402100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>35716800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>35691600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>34213700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>38599800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>36155000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>36374900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>35893900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>38207500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>34973700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7796400</v>
+        <v>9199600</v>
       </c>
       <c r="E10" s="3">
-        <v>18061100</v>
+        <v>7532700</v>
       </c>
       <c r="F10" s="3">
-        <v>10763700</v>
+        <v>17450200</v>
       </c>
       <c r="G10" s="3">
-        <v>11469400</v>
+        <v>10399600</v>
       </c>
       <c r="H10" s="3">
-        <v>7113300</v>
+        <v>7365800</v>
       </c>
       <c r="I10" s="3">
-        <v>8619500</v>
+        <v>6872700</v>
       </c>
       <c r="J10" s="3">
+        <v>8328000</v>
+      </c>
+      <c r="K10" s="3">
         <v>6563500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>13873500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10625600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9078300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9056400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9732900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8820900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9058500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9470300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>10333500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>9560500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>9866800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>9394000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>9919900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>10331900</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,76 +988,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1525400</v>
+        <v>1217500</v>
       </c>
       <c r="E12" s="3">
-        <v>3387300</v>
+        <v>1473800</v>
       </c>
       <c r="F12" s="3">
-        <v>2067400</v>
+        <v>3272700</v>
       </c>
       <c r="G12" s="3">
-        <v>1463300</v>
+        <v>1997500</v>
       </c>
       <c r="H12" s="3">
-        <v>1404600</v>
+        <v>3128700</v>
       </c>
       <c r="I12" s="3">
-        <v>2944700</v>
+        <v>1357100</v>
       </c>
       <c r="J12" s="3">
+        <v>2845100</v>
+      </c>
+      <c r="K12" s="3">
         <v>1944300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1808300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2160900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1845800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2038300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1743600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1966000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1778800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1879800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1603300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1847900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1586500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1699700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1711400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1523600</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1112,46 +1128,49 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>215700</v>
+        <v>-261800</v>
       </c>
       <c r="E14" s="3">
-        <v>722600</v>
+        <v>208400</v>
       </c>
       <c r="F14" s="3">
-        <v>389500</v>
+        <v>698200</v>
       </c>
       <c r="G14" s="3">
-        <v>624400</v>
+        <v>376400</v>
       </c>
       <c r="H14" s="3">
-        <v>461800</v>
+        <v>-1074500</v>
       </c>
       <c r="I14" s="3">
-        <v>1214900</v>
+        <v>446200</v>
       </c>
       <c r="J14" s="3">
+        <v>1173800</v>
+      </c>
+      <c r="K14" s="3">
         <v>115200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5265000</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2554000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-858900</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1180,8 +1199,11 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1248,8 +1270,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1296,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>32599400</v>
+        <v>34305800</v>
       </c>
       <c r="E17" s="3">
-        <v>66859700</v>
+        <v>31496800</v>
       </c>
       <c r="F17" s="3">
-        <v>40538100</v>
+        <v>64598200</v>
       </c>
       <c r="G17" s="3">
-        <v>47829800</v>
+        <v>39166900</v>
       </c>
       <c r="H17" s="3">
-        <v>32867000</v>
+        <v>35858200</v>
       </c>
       <c r="I17" s="3">
-        <v>61120400</v>
+        <v>31755300</v>
       </c>
       <c r="J17" s="3">
+        <v>59053100</v>
+      </c>
+      <c r="K17" s="3">
         <v>41356700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>54449200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>49817900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>52151000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>44270200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>51904500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>42365700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>41811800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>40518400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>45339600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>42011800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>42363000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>41665600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>44481500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>40581000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3133300</v>
+        <v>4137800</v>
       </c>
       <c r="E18" s="3">
-        <v>8796800</v>
+        <v>3027300</v>
       </c>
       <c r="F18" s="3">
-        <v>5774200</v>
+        <v>8499300</v>
       </c>
       <c r="G18" s="3">
-        <v>4810000</v>
+        <v>5578900</v>
       </c>
       <c r="H18" s="3">
-        <v>2835200</v>
+        <v>4160700</v>
       </c>
       <c r="I18" s="3">
-        <v>-742900</v>
+        <v>2739300</v>
       </c>
       <c r="J18" s="3">
+        <v>-717800</v>
+      </c>
+      <c r="K18" s="3">
         <v>671800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>567400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3187400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1977500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3216600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3230500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2172000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2938200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3165500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3593700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3703700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3878700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3622400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3645900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4724600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,348 +1465,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>214500</v>
+        <v>289100</v>
       </c>
       <c r="E20" s="3">
-        <v>1549100</v>
+        <v>207300</v>
       </c>
       <c r="F20" s="3">
-        <v>746300</v>
+        <v>1496700</v>
       </c>
       <c r="G20" s="3">
-        <v>365800</v>
+        <v>721100</v>
       </c>
       <c r="H20" s="3">
-        <v>42900</v>
+        <v>401500</v>
       </c>
       <c r="I20" s="3">
-        <v>175000</v>
+        <v>41500</v>
       </c>
       <c r="J20" s="3">
+        <v>169100</v>
+      </c>
+      <c r="K20" s="3">
         <v>66600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-61900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>158000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>232900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>171100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-22500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>615800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>516100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>242300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>117800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>316400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>807600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>409700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5281900</v>
+        <v>6171300</v>
       </c>
       <c r="E21" s="3">
-        <v>14487500</v>
+        <v>5103300</v>
       </c>
       <c r="F21" s="3">
-        <v>8571000</v>
+        <v>13997500</v>
       </c>
       <c r="G21" s="3">
-        <v>7760300</v>
+        <v>8281100</v>
       </c>
       <c r="H21" s="3">
-        <v>5380200</v>
+        <v>7059300</v>
       </c>
       <c r="I21" s="3">
-        <v>4458800</v>
+        <v>5198200</v>
       </c>
       <c r="J21" s="3">
+        <v>4308000</v>
+      </c>
+      <c r="K21" s="3">
         <v>2975200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3062100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5693800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>423500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5542000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5253300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4563300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4576500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5304400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5539300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5374300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5749100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6060400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5675400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>6385500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>97100</v>
+        <v>105800</v>
       </c>
       <c r="E22" s="3">
-        <v>216800</v>
+        <v>93800</v>
       </c>
       <c r="F22" s="3">
-        <v>105000</v>
+        <v>209500</v>
       </c>
       <c r="G22" s="3">
-        <v>84700</v>
+        <v>101500</v>
       </c>
       <c r="H22" s="3">
-        <v>54200</v>
+        <v>66500</v>
       </c>
       <c r="I22" s="3">
-        <v>182900</v>
+        <v>52400</v>
       </c>
       <c r="J22" s="3">
+        <v>176700</v>
+      </c>
+      <c r="K22" s="3">
         <v>128700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>150600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>191100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>222300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>250000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>282700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>190500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>157000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>116400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>115600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>108800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>98700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>97400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>111500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3250700</v>
+        <v>4321100</v>
       </c>
       <c r="E23" s="3">
-        <v>10129200</v>
+        <v>3140700</v>
       </c>
       <c r="F23" s="3">
-        <v>6415500</v>
+        <v>9786600</v>
       </c>
       <c r="G23" s="3">
-        <v>5091100</v>
+        <v>6198600</v>
       </c>
       <c r="H23" s="3">
-        <v>2823900</v>
+        <v>4495600</v>
       </c>
       <c r="I23" s="3">
-        <v>-750900</v>
+        <v>2728400</v>
       </c>
       <c r="J23" s="3">
+        <v>-725500</v>
+      </c>
+      <c r="K23" s="3">
         <v>609700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>354900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3154300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1966900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3137600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2925300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2597300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2777900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3565200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3720500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3712700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4096400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4332500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3944000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4648300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>965400</v>
+        <v>1694200</v>
       </c>
       <c r="E24" s="3">
-        <v>2656800</v>
+        <v>932700</v>
       </c>
       <c r="F24" s="3">
-        <v>1478000</v>
+        <v>2566900</v>
       </c>
       <c r="G24" s="3">
-        <v>1038800</v>
+        <v>1428000</v>
       </c>
       <c r="H24" s="3">
-        <v>779100</v>
+        <v>880400</v>
       </c>
       <c r="I24" s="3">
-        <v>484400</v>
+        <v>752700</v>
       </c>
       <c r="J24" s="3">
+        <v>468000</v>
+      </c>
+      <c r="K24" s="3">
         <v>420000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>367700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>933400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-505900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>567000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>983000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>646800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>774100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>980500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>112200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1202800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1277900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1219600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1354600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1448500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,144 +1889,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2285300</v>
+        <v>2626900</v>
       </c>
       <c r="E26" s="3">
-        <v>7472400</v>
+        <v>2208000</v>
       </c>
       <c r="F26" s="3">
-        <v>4937600</v>
+        <v>7219600</v>
       </c>
       <c r="G26" s="3">
-        <v>4052300</v>
+        <v>4770500</v>
       </c>
       <c r="H26" s="3">
-        <v>2044800</v>
+        <v>3615300</v>
       </c>
       <c r="I26" s="3">
-        <v>-1235200</v>
+        <v>1975600</v>
       </c>
       <c r="J26" s="3">
+        <v>-1193500</v>
+      </c>
+      <c r="K26" s="3">
         <v>189700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2220900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1461100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2570600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1942300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1950500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2003900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2584700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3608300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2509900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2818400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3112900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2589400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3199800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2178000</v>
+        <v>2491600</v>
       </c>
       <c r="E27" s="3">
-        <v>7279300</v>
+        <v>2104400</v>
       </c>
       <c r="F27" s="3">
-        <v>4843800</v>
+        <v>7033100</v>
       </c>
       <c r="G27" s="3">
-        <v>3934900</v>
+        <v>4680000</v>
       </c>
       <c r="H27" s="3">
-        <v>1919500</v>
+        <v>3501800</v>
       </c>
       <c r="I27" s="3">
-        <v>-1423800</v>
+        <v>1854500</v>
       </c>
       <c r="J27" s="3">
+        <v>-1375600</v>
+      </c>
+      <c r="K27" s="3">
         <v>106100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-127200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2105800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1562300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2506000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1846500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1870700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1895100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2495800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3513000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2407800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2742100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3001400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2522500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,35 +2102,38 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>610800</v>
+        <v>11306200</v>
       </c>
       <c r="E29" s="3">
-        <v>1627000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
+        <v>590200</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1572000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H29" s="3">
-        <v>394100</v>
+        <v>300000</v>
       </c>
       <c r="I29" s="3">
-        <v>-729400</v>
-      </c>
-      <c r="J29" s="3" t="s">
+        <v>380700</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-704700</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -2113,8 +2173,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2244,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,144 +2315,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-214500</v>
+        <v>-289100</v>
       </c>
       <c r="E32" s="3">
-        <v>-1549100</v>
+        <v>-207300</v>
       </c>
       <c r="F32" s="3">
-        <v>-746300</v>
+        <v>-1496700</v>
       </c>
       <c r="G32" s="3">
-        <v>-365800</v>
+        <v>-721100</v>
       </c>
       <c r="H32" s="3">
-        <v>-42900</v>
+        <v>-401500</v>
       </c>
       <c r="I32" s="3">
-        <v>-175000</v>
+        <v>-41500</v>
       </c>
       <c r="J32" s="3">
+        <v>-169100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-66600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>61900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-158000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-232900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-171100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>22500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-615800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-516100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-242300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-117800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-316400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-807600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-409700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2788900</v>
+        <v>13797800</v>
       </c>
       <c r="E33" s="3">
-        <v>8906300</v>
+        <v>2694500</v>
       </c>
       <c r="F33" s="3">
-        <v>4843800</v>
+        <v>8605100</v>
       </c>
       <c r="G33" s="3">
-        <v>3934900</v>
+        <v>4680000</v>
       </c>
       <c r="H33" s="3">
-        <v>2313500</v>
+        <v>3801800</v>
       </c>
       <c r="I33" s="3">
-        <v>-2153200</v>
+        <v>2235300</v>
       </c>
       <c r="J33" s="3">
+        <v>-2080400</v>
+      </c>
+      <c r="K33" s="3">
         <v>106100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-127200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2105800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1562300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2506000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1846500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1870700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1895100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2495800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3513000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2407800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2742100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3001400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2522500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2528,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2788900</v>
+        <v>13797800</v>
       </c>
       <c r="E35" s="3">
-        <v>8906300</v>
+        <v>2694500</v>
       </c>
       <c r="F35" s="3">
-        <v>4843800</v>
+        <v>8605100</v>
       </c>
       <c r="G35" s="3">
-        <v>3934900</v>
+        <v>4680000</v>
       </c>
       <c r="H35" s="3">
-        <v>2313500</v>
+        <v>3801800</v>
       </c>
       <c r="I35" s="3">
-        <v>-2153200</v>
+        <v>2235300</v>
       </c>
       <c r="J35" s="3">
+        <v>-2080400</v>
+      </c>
+      <c r="K35" s="3">
         <v>106100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-127200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2105800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1562300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2506000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1846500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1870700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1895100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2495800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3513000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2407800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2742100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3001400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2522500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2704,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,620 +2731,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>22531200</v>
+        <v>25221800</v>
       </c>
       <c r="E41" s="3">
-        <v>29559800</v>
+        <v>21769100</v>
       </c>
       <c r="F41" s="3">
-        <v>29306900</v>
+        <v>28560000</v>
       </c>
       <c r="G41" s="3">
-        <v>26023500</v>
+        <v>28315700</v>
       </c>
       <c r="H41" s="3">
-        <v>27660700</v>
+        <v>25143300</v>
       </c>
       <c r="I41" s="3">
-        <v>24782600</v>
+        <v>26725100</v>
       </c>
       <c r="J41" s="3">
+        <v>23944400</v>
+      </c>
+      <c r="K41" s="3">
         <v>18223700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22044200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20811400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14727400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19854500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>18752500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16629500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15738700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15435700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13544700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>19523700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14580300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15219600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>12889600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>16655200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8933400</v>
+        <v>10674600</v>
       </c>
       <c r="E42" s="3">
-        <v>8722300</v>
+        <v>8631300</v>
       </c>
       <c r="F42" s="3">
-        <v>9729500</v>
+        <v>8427300</v>
       </c>
       <c r="G42" s="3">
-        <v>9160400</v>
+        <v>9400400</v>
       </c>
       <c r="H42" s="3">
-        <v>11750500</v>
+        <v>8850600</v>
       </c>
       <c r="I42" s="3">
-        <v>12747500</v>
+        <v>11353100</v>
       </c>
       <c r="J42" s="3">
+        <v>12316400</v>
+      </c>
+      <c r="K42" s="3">
         <v>12354600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12399100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14216000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14361500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14671400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13987800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14208300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>15096400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>14413400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14221200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>14027100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>13316900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>13057500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>14655000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>13659600</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>43468100</v>
+        <v>45101500</v>
       </c>
       <c r="E43" s="3">
-        <v>58464800</v>
+        <v>41997900</v>
       </c>
       <c r="F43" s="3">
-        <v>60876600</v>
+        <v>56487300</v>
       </c>
       <c r="G43" s="3">
-        <v>59983400</v>
+        <v>58817500</v>
       </c>
       <c r="H43" s="3">
-        <v>59272100</v>
+        <v>57954600</v>
       </c>
       <c r="I43" s="3">
-        <v>62154700</v>
+        <v>57267300</v>
       </c>
       <c r="J43" s="3">
+        <v>60052400</v>
+      </c>
+      <c r="K43" s="3">
         <v>66036500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>73678700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>73756600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>69137000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>71465800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>68639000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>61167200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>57758100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>56931300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>57725300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>54084400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>53110500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>56567100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>56624600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>53759300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23371200</v>
+        <v>23417500</v>
       </c>
       <c r="E44" s="3">
-        <v>32647900</v>
+        <v>22580700</v>
       </c>
       <c r="F44" s="3">
-        <v>32544000</v>
+        <v>31543700</v>
       </c>
       <c r="G44" s="3">
-        <v>29857900</v>
+        <v>31443300</v>
       </c>
       <c r="H44" s="3">
-        <v>33346800</v>
+        <v>28848000</v>
       </c>
       <c r="I44" s="3">
-        <v>34006200</v>
+        <v>32218900</v>
       </c>
       <c r="J44" s="3">
+        <v>32856000</v>
+      </c>
+      <c r="K44" s="3">
         <v>36349100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>34738600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>43550800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>39361200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>40078700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>34882500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>35582800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>32008900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>30281700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>28819400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>30246600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>29426400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>31289100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>29796000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>31845500</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>63896900</v>
+        <v>7870900</v>
       </c>
       <c r="E45" s="3">
-        <v>5472700</v>
+        <v>61735700</v>
       </c>
       <c r="F45" s="3">
-        <v>5690700</v>
+        <v>5287600</v>
       </c>
       <c r="G45" s="3">
-        <v>5119300</v>
+        <v>5498200</v>
       </c>
       <c r="H45" s="3">
-        <v>5109200</v>
+        <v>4946200</v>
       </c>
       <c r="I45" s="3">
-        <v>6028300</v>
+        <v>4936400</v>
       </c>
       <c r="J45" s="3">
+        <v>5824400</v>
+      </c>
+      <c r="K45" s="3">
         <v>6492300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6334400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6844000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6686700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7071900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7594200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6833900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6323400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5979700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5625700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5643600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5530300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5720000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5824400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5884300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>162200900</v>
+        <v>112286300</v>
       </c>
       <c r="E46" s="3">
-        <v>134867600</v>
+        <v>156714700</v>
       </c>
       <c r="F46" s="3">
-        <v>138147600</v>
+        <v>130305900</v>
       </c>
       <c r="G46" s="3">
-        <v>130144600</v>
+        <v>133475000</v>
       </c>
       <c r="H46" s="3">
-        <v>137139400</v>
+        <v>125742700</v>
       </c>
       <c r="I46" s="3">
-        <v>139719400</v>
+        <v>132500800</v>
       </c>
       <c r="J46" s="3">
+        <v>134993600</v>
+      </c>
+      <c r="K46" s="3">
         <v>139456300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>149195000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>159178900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>144273700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>153142300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>143856000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>134421700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>126925500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>123041900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>119936200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>123525500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>115964400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>121853200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>119789700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>121803900</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>62517100</v>
+        <v>70469500</v>
       </c>
       <c r="E47" s="3">
-        <v>76354300</v>
+        <v>60402600</v>
       </c>
       <c r="F47" s="3">
-        <v>75101000</v>
+        <v>73771700</v>
       </c>
       <c r="G47" s="3">
-        <v>72382100</v>
+        <v>72560800</v>
       </c>
       <c r="H47" s="3">
-        <v>71330900</v>
+        <v>69933900</v>
       </c>
       <c r="I47" s="3">
-        <v>70007600</v>
+        <v>68918200</v>
       </c>
       <c r="J47" s="3">
+        <v>67639700</v>
+      </c>
+      <c r="K47" s="3">
         <v>71835600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>73483800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>77947300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>73726200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>75553200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>70554100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>63870900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>63911300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>63030700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>62396100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>60986900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>59315100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>62174400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>59838500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>58128200</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>80568100</v>
+        <v>78905500</v>
       </c>
       <c r="E48" s="3">
-        <v>93854200</v>
+        <v>77843000</v>
       </c>
       <c r="F48" s="3">
-        <v>94285500</v>
+        <v>90679700</v>
       </c>
       <c r="G48" s="3">
-        <v>93487200</v>
+        <v>91096400</v>
       </c>
       <c r="H48" s="3">
-        <v>93485000</v>
+        <v>90325200</v>
       </c>
       <c r="I48" s="3">
-        <v>96263700</v>
+        <v>90323000</v>
       </c>
       <c r="J48" s="3">
+        <v>93007700</v>
+      </c>
+      <c r="K48" s="3">
         <v>99163200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>103461700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>108140900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>101361000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>102096900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>95133500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>87098300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>85089500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>82541100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>84211000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>83246000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>82615500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>86853700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>86067300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>77534800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16794200</v>
+        <v>16369100</v>
       </c>
       <c r="E49" s="3">
-        <v>18623400</v>
+        <v>16226200</v>
       </c>
       <c r="F49" s="3">
-        <v>18647100</v>
+        <v>17993500</v>
       </c>
       <c r="G49" s="3">
-        <v>18516100</v>
+        <v>18016400</v>
       </c>
       <c r="H49" s="3">
-        <v>18551100</v>
+        <v>17889800</v>
       </c>
       <c r="I49" s="3">
-        <v>18728400</v>
+        <v>17923700</v>
       </c>
       <c r="J49" s="3">
+        <v>18094900</v>
+      </c>
+      <c r="K49" s="3">
         <v>18411100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18652900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>19445500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>18096600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17974100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17508100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>16093400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>15661900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>15330300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>15410500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>14909000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>14512900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>14723100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>14200800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>12920100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3439,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,76 +3510,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4924000</v>
+        <v>5421800</v>
       </c>
       <c r="E52" s="3">
-        <v>6824300</v>
+        <v>4757500</v>
       </c>
       <c r="F52" s="3">
-        <v>7285000</v>
+        <v>6593500</v>
       </c>
       <c r="G52" s="3">
-        <v>8095600</v>
+        <v>7038600</v>
       </c>
       <c r="H52" s="3">
-        <v>7670000</v>
+        <v>7821800</v>
       </c>
       <c r="I52" s="3">
-        <v>8100200</v>
+        <v>7410600</v>
       </c>
       <c r="J52" s="3">
+        <v>7826200</v>
+      </c>
+      <c r="K52" s="3">
         <v>7225100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8275800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9373600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8618300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7099400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6075400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4853500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4945400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4596200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4540700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4130000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4270300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5344400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5325600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5596700</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3652,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>327004300</v>
+        <v>283452200</v>
       </c>
       <c r="E54" s="3">
-        <v>330523700</v>
+        <v>315943900</v>
       </c>
       <c r="F54" s="3">
-        <v>333466100</v>
+        <v>319344300</v>
       </c>
       <c r="G54" s="3">
-        <v>322625600</v>
+        <v>322187200</v>
       </c>
       <c r="H54" s="3">
-        <v>328176300</v>
+        <v>311713400</v>
       </c>
       <c r="I54" s="3">
-        <v>332819200</v>
+        <v>317076300</v>
       </c>
       <c r="J54" s="3">
+        <v>321562100</v>
+      </c>
+      <c r="K54" s="3">
         <v>336091300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>353069100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>374086200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>346075700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>355865900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>333127100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>306337800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>296533600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>288540100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>286494500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>286797500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>276678200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>290948800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>285221700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>275983900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3752,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,416 +3779,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12802900</v>
+        <v>11623600</v>
       </c>
       <c r="E57" s="3">
-        <v>17269600</v>
+        <v>12369800</v>
       </c>
       <c r="F57" s="3">
-        <v>17446900</v>
+        <v>16685500</v>
       </c>
       <c r="G57" s="3">
-        <v>13976000</v>
+        <v>16856700</v>
       </c>
       <c r="H57" s="3">
-        <v>16797600</v>
+        <v>13503300</v>
       </c>
       <c r="I57" s="3">
-        <v>15429200</v>
+        <v>16229500</v>
       </c>
       <c r="J57" s="3">
+        <v>14907300</v>
+      </c>
+      <c r="K57" s="3">
         <v>16007300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14834300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19806900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>17874200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18854500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>16779400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18182400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>17256200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>16321800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>13969900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>17054200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>15677600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>16264300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>13577500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>16265500</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>60614600</v>
+        <v>57054600</v>
       </c>
       <c r="E58" s="3">
-        <v>68910100</v>
+        <v>58564400</v>
       </c>
       <c r="F58" s="3">
-        <v>69824700</v>
+        <v>66579300</v>
       </c>
       <c r="G58" s="3">
-        <v>66959000</v>
+        <v>67463000</v>
       </c>
       <c r="H58" s="3">
-        <v>67241300</v>
+        <v>64694200</v>
       </c>
       <c r="I58" s="3">
-        <v>69665500</v>
+        <v>64967000</v>
       </c>
       <c r="J58" s="3">
+        <v>67309100</v>
+      </c>
+      <c r="K58" s="3">
         <v>69577400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>73081000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>73815400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>76598900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>71390400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>66526300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>58944300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>55475400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>53963400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>54692500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>50942800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>50789100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>51668800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>55507100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>52715800</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>51760200</v>
+        <v>26967300</v>
       </c>
       <c r="E59" s="3">
-        <v>31444300</v>
+        <v>50009500</v>
       </c>
       <c r="F59" s="3">
-        <v>33585100</v>
+        <v>30380800</v>
       </c>
       <c r="G59" s="3">
-        <v>31759300</v>
+        <v>32449100</v>
       </c>
       <c r="H59" s="3">
-        <v>30791700</v>
+        <v>30685100</v>
       </c>
       <c r="I59" s="3">
-        <v>31794300</v>
+        <v>29750200</v>
       </c>
       <c r="J59" s="3">
+        <v>30718900</v>
+      </c>
+      <c r="K59" s="3">
         <v>31595600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>35599000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>37231100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>34426200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>34375200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>32561700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>30066900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>28935600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>28596300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>29650800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>27662700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>26797600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>34037000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>30051900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>28641000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>125177700</v>
+        <v>95645500</v>
       </c>
       <c r="E60" s="3">
-        <v>117624000</v>
+        <v>120943700</v>
       </c>
       <c r="F60" s="3">
-        <v>120856600</v>
+        <v>113645500</v>
       </c>
       <c r="G60" s="3">
-        <v>112694300</v>
+        <v>116768800</v>
       </c>
       <c r="H60" s="3">
-        <v>114830600</v>
+        <v>108882600</v>
       </c>
       <c r="I60" s="3">
-        <v>116888900</v>
+        <v>110946600</v>
       </c>
       <c r="J60" s="3">
+        <v>112935400</v>
+      </c>
+      <c r="K60" s="3">
         <v>117180300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>123514300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>130853400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>128899300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>124620100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>115867400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>107193500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>101667100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>98881500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>98313300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>95659700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>93264300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>101970000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>99136500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>97622300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>86973400</v>
+        <v>80228800</v>
       </c>
       <c r="E61" s="3">
-        <v>92122100</v>
+        <v>84031700</v>
       </c>
       <c r="F61" s="3">
-        <v>96065000</v>
+        <v>89006300</v>
       </c>
       <c r="G61" s="3">
-        <v>97711200</v>
+        <v>92815700</v>
       </c>
       <c r="H61" s="3">
-        <v>104630300</v>
+        <v>94406300</v>
       </c>
       <c r="I61" s="3">
-        <v>108270500</v>
+        <v>101091400</v>
       </c>
       <c r="J61" s="3">
+        <v>104608500</v>
+      </c>
+      <c r="K61" s="3">
         <v>109180600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>115782600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>121871800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>104687800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>113914100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>104878300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>97366900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>95093400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>88104600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>87939300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>88054900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>83288700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>86016800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>82633900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>78530200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>29865800</v>
+        <v>27759300</v>
       </c>
       <c r="E62" s="3">
-        <v>39323200</v>
+        <v>28855700</v>
       </c>
       <c r="F62" s="3">
-        <v>39773700</v>
+        <v>37993100</v>
       </c>
       <c r="G62" s="3">
-        <v>41935900</v>
+        <v>38428400</v>
       </c>
       <c r="H62" s="3">
-        <v>42524200</v>
+        <v>40517500</v>
       </c>
       <c r="I62" s="3">
-        <v>41204200</v>
+        <v>41085900</v>
       </c>
       <c r="J62" s="3">
+        <v>39810600</v>
+      </c>
+      <c r="K62" s="3">
         <v>38413100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>40411100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>44465900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>39810600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>36150400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>34247300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>29170900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29285900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>28112100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>27134200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>32700400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>32046300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>34324600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>34040500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>35561700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4274,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4345,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4416,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>243812200</v>
+        <v>204960200</v>
       </c>
       <c r="E66" s="3">
-        <v>250742600</v>
+        <v>235565700</v>
       </c>
       <c r="F66" s="3">
-        <v>258516500</v>
+        <v>242261700</v>
       </c>
       <c r="G66" s="3">
-        <v>254099400</v>
+        <v>249772600</v>
       </c>
       <c r="H66" s="3">
-        <v>263659500</v>
+        <v>245504900</v>
       </c>
       <c r="I66" s="3">
-        <v>267990800</v>
+        <v>254741700</v>
       </c>
       <c r="J66" s="3">
+        <v>258926400</v>
+      </c>
+      <c r="K66" s="3">
         <v>266501500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>281455500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>298915900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>274922300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>276385600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>256632500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>235201100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>227401300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>216609000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>214834200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>217724400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>209829000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>223534500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>217199500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>212960800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4585,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4656,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4560,8 +4727,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4798,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>66473500</v>
+        <v>61298200</v>
       </c>
       <c r="E72" s="3">
-        <v>63558200</v>
+        <v>64225100</v>
       </c>
       <c r="F72" s="3">
-        <v>58723400</v>
+        <v>61408400</v>
       </c>
       <c r="G72" s="3">
-        <v>53193000</v>
+        <v>56737100</v>
       </c>
       <c r="H72" s="3">
-        <v>48859500</v>
+        <v>51393900</v>
       </c>
       <c r="I72" s="3">
-        <v>48593100</v>
+        <v>47206900</v>
       </c>
       <c r="J72" s="3">
+        <v>46949500</v>
+      </c>
+      <c r="K72" s="3">
         <v>52988700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>54084900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>56301800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>53332100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>61348300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>58541700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>54364300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>51995800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>54531100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>53354000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>50207900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>47608300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>47154300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>47865600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>42799500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4940,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5011,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5082,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>83192100</v>
+        <v>78492100</v>
       </c>
       <c r="E76" s="3">
-        <v>79781100</v>
+        <v>80378200</v>
       </c>
       <c r="F76" s="3">
-        <v>74949700</v>
+        <v>77082600</v>
       </c>
       <c r="G76" s="3">
-        <v>68526200</v>
+        <v>72414600</v>
       </c>
       <c r="H76" s="3">
-        <v>64516800</v>
+        <v>66208400</v>
       </c>
       <c r="I76" s="3">
-        <v>64828400</v>
+        <v>62334600</v>
       </c>
       <c r="J76" s="3">
+        <v>62635700</v>
+      </c>
+      <c r="K76" s="3">
         <v>69589800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>71613600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>75170300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>71153400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>79480300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>76494600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>71136700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>69132300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>71931100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>71660400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>69073100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>66849300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>67414300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>68022300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>63023000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5224,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2788900</v>
+        <v>13797800</v>
       </c>
       <c r="E81" s="3">
-        <v>8906300</v>
+        <v>2694500</v>
       </c>
       <c r="F81" s="3">
-        <v>4843800</v>
+        <v>8605100</v>
       </c>
       <c r="G81" s="3">
-        <v>3934900</v>
+        <v>4680000</v>
       </c>
       <c r="H81" s="3">
-        <v>2313500</v>
+        <v>3801800</v>
       </c>
       <c r="I81" s="3">
-        <v>-2153200</v>
+        <v>2235300</v>
       </c>
       <c r="J81" s="3">
+        <v>-2080400</v>
+      </c>
+      <c r="K81" s="3">
         <v>106100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-127200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2105800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1562300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2506000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1846500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1870700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1895100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2495800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3513000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2407800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2742100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3001400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2522500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,76 +5400,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1934100</v>
+        <v>1744400</v>
       </c>
       <c r="E83" s="3">
-        <v>4141500</v>
+        <v>1868700</v>
       </c>
       <c r="F83" s="3">
-        <v>2050400</v>
+        <v>4001500</v>
       </c>
       <c r="G83" s="3">
-        <v>2584500</v>
+        <v>1981100</v>
       </c>
       <c r="H83" s="3">
-        <v>2502100</v>
+        <v>2497100</v>
       </c>
       <c r="I83" s="3">
-        <v>5026800</v>
+        <v>2417500</v>
       </c>
       <c r="J83" s="3">
+        <v>4856700</v>
+      </c>
+      <c r="K83" s="3">
         <v>2236700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2556600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2348300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2168100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2154400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2045200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1775500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1641500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1622800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1703200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1552800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1554000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1630400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1619900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5540,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5611,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5682,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5753,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5824,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9653800</v>
+        <v>4380000</v>
       </c>
       <c r="E89" s="3">
-        <v>13461100</v>
+        <v>9327300</v>
       </c>
       <c r="F89" s="3">
-        <v>5508900</v>
+        <v>13005800</v>
       </c>
       <c r="G89" s="3">
-        <v>5717800</v>
+        <v>5322500</v>
       </c>
       <c r="H89" s="3">
-        <v>9352300</v>
+        <v>5524400</v>
       </c>
       <c r="I89" s="3">
-        <v>10145000</v>
+        <v>9036000</v>
       </c>
       <c r="J89" s="3">
+        <v>9801800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1704900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1550300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5343400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1856400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>741600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1387500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1982600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>161400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>892700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6133900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1456300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>535200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2394600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>332200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>946100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,76 +5924,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1248800</v>
+        <v>-1351600</v>
       </c>
       <c r="E91" s="3">
-        <v>-2522400</v>
+        <v>-1206500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1339100</v>
+        <v>-2437100</v>
       </c>
       <c r="G91" s="3">
-        <v>-2157700</v>
+        <v>-1293800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1347000</v>
+        <v>-2084700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2977400</v>
+        <v>-1301500</v>
       </c>
       <c r="J91" s="3">
+        <v>-2876700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1490400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2344200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2170700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2059900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1995300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3047200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2287200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1701900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1474600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2888000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1644800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1575300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5040300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3304300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2574200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6064,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6135,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2356400</v>
+        <v>-2230900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2364300</v>
+        <v>-2276700</v>
       </c>
       <c r="F94" s="3">
-        <v>-843400</v>
+        <v>-2284400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1243100</v>
+        <v>-814900</v>
       </c>
       <c r="H94" s="3">
-        <v>-2880300</v>
+        <v>-1201100</v>
       </c>
       <c r="I94" s="3">
-        <v>-3126500</v>
+        <v>-2782900</v>
       </c>
       <c r="J94" s="3">
+        <v>-3020700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1581900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2874200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3519400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1775200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4501300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3564100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2627200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2518800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2461700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4470000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3543200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3049600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>401400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9085300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2905200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,8 +6235,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6012,19 +6245,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1630400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1575300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-1087300</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1050500</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6071,8 +6304,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6375,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6446,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,208 +6517,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8501000</v>
+        <v>-4846900</v>
       </c>
       <c r="E100" s="3">
-        <v>-8001900</v>
+        <v>-8213500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1869800</v>
+        <v>-7731300</v>
       </c>
       <c r="G100" s="3">
-        <v>-5695200</v>
+        <v>-1806500</v>
       </c>
       <c r="H100" s="3">
-        <v>-3750900</v>
+        <v>-5502600</v>
       </c>
       <c r="I100" s="3">
-        <v>-2688400</v>
+        <v>-3624000</v>
       </c>
       <c r="J100" s="3">
+        <v>-2597500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2931100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3891000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3175200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4644400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4367300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3080300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5461600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2378300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3870500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4680900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>7325500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3165100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-461300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4831400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2236100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>272100</v>
+        <v>259600</v>
       </c>
       <c r="E101" s="3">
-        <v>441500</v>
+        <v>262900</v>
       </c>
       <c r="F101" s="3">
-        <v>487800</v>
+        <v>426500</v>
       </c>
       <c r="G101" s="3">
-        <v>-416600</v>
+        <v>471300</v>
       </c>
       <c r="H101" s="3">
-        <v>-502400</v>
+        <v>-402500</v>
       </c>
       <c r="I101" s="3">
-        <v>-208900</v>
+        <v>-485500</v>
       </c>
       <c r="J101" s="3">
+        <v>-201800</v>
+      </c>
+      <c r="K101" s="3">
         <v>40600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-356100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>476500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-235300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>283500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>88700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-98600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>282200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-120800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-56100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-295100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-618200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-4700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>156100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-931500</v>
+        <v>-2438200</v>
       </c>
       <c r="E102" s="3">
-        <v>3536300</v>
+        <v>-900000</v>
       </c>
       <c r="F102" s="3">
-        <v>3283400</v>
+        <v>3416700</v>
       </c>
       <c r="G102" s="3">
-        <v>-1637200</v>
+        <v>3172400</v>
       </c>
       <c r="H102" s="3">
-        <v>2878100</v>
+        <v>-1581800</v>
       </c>
       <c r="I102" s="3">
-        <v>3461800</v>
+        <v>2780700</v>
       </c>
       <c r="J102" s="3">
+        <v>3344700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3097100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2211100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5475700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4798500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>891200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>992500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>753200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>303000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2180600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5979100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4943500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>32500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2330000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>235900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DDAIF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DDAIF_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,305 +665,317 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>38443700</v>
+        <v>36179100</v>
       </c>
       <c r="E8" s="3">
-        <v>34524000</v>
+        <v>36575600</v>
       </c>
       <c r="F8" s="3">
-        <v>73097500</v>
+        <v>32846400</v>
       </c>
       <c r="G8" s="3">
-        <v>44745900</v>
+        <v>69545500</v>
       </c>
       <c r="H8" s="3">
-        <v>40018900</v>
+        <v>34128200</v>
       </c>
       <c r="I8" s="3">
-        <v>34494600</v>
+        <v>38074300</v>
       </c>
       <c r="J8" s="3">
+        <v>32818400</v>
+      </c>
+      <c r="K8" s="3">
         <v>58335300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>42028500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>55016500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>53005300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>50173500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>47486700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>55135000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>44537700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>44750100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>43683900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>48933300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>45715500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>46241700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>45287900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>48127400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>45305500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>29244000</v>
+        <v>27621600</v>
       </c>
       <c r="E9" s="3">
-        <v>26991300</v>
+        <v>27823000</v>
       </c>
       <c r="F9" s="3">
-        <v>55647300</v>
+        <v>25679700</v>
       </c>
       <c r="G9" s="3">
-        <v>34346200</v>
+        <v>52943300</v>
       </c>
       <c r="H9" s="3">
-        <v>32653100</v>
+        <v>26009800</v>
       </c>
       <c r="I9" s="3">
-        <v>27621800</v>
+        <v>31066400</v>
       </c>
       <c r="J9" s="3">
+        <v>26279600</v>
+      </c>
+      <c r="K9" s="3">
         <v>50007300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>35465000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>41143000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>42379800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>41095200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>38430300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>45402100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>35716800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>35691600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>34213700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>38599800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>36155000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>36374900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>35893900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>38207500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>34973700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9199600</v>
+        <v>8557500</v>
       </c>
       <c r="E10" s="3">
-        <v>7532700</v>
+        <v>8752600</v>
       </c>
       <c r="F10" s="3">
-        <v>17450200</v>
+        <v>7166700</v>
       </c>
       <c r="G10" s="3">
-        <v>10399600</v>
+        <v>16602200</v>
       </c>
       <c r="H10" s="3">
-        <v>7365800</v>
+        <v>8118500</v>
       </c>
       <c r="I10" s="3">
-        <v>6872700</v>
+        <v>7007900</v>
       </c>
       <c r="J10" s="3">
+        <v>6538800</v>
+      </c>
+      <c r="K10" s="3">
         <v>8328000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6563500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>13873500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10625600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9078300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9056400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9732900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8820900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9058500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9470300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>10333500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>9560500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>9866800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>9394000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>9919900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>10331900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,79 +1001,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1217500</v>
+        <v>1429200</v>
       </c>
       <c r="E12" s="3">
-        <v>1473800</v>
+        <v>1158300</v>
       </c>
       <c r="F12" s="3">
-        <v>3272700</v>
+        <v>1402200</v>
       </c>
       <c r="G12" s="3">
-        <v>1997500</v>
+        <v>3113700</v>
       </c>
       <c r="H12" s="3">
-        <v>3128700</v>
+        <v>1573500</v>
       </c>
       <c r="I12" s="3">
-        <v>1357100</v>
+        <v>2976700</v>
       </c>
       <c r="J12" s="3">
+        <v>1291100</v>
+      </c>
+      <c r="K12" s="3">
         <v>2845100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1944300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1808300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2160900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1845800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2038300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1743600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1966000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1778800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1879800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1603300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1847900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1586500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1699700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1711400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1523600</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1131,49 +1147,52 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-261800</v>
+        <v>291600</v>
       </c>
       <c r="E14" s="3">
-        <v>208400</v>
+        <v>-249100</v>
       </c>
       <c r="F14" s="3">
-        <v>698200</v>
+        <v>198200</v>
       </c>
       <c r="G14" s="3">
-        <v>376400</v>
+        <v>664300</v>
       </c>
       <c r="H14" s="3">
-        <v>-1074500</v>
+        <v>266700</v>
       </c>
       <c r="I14" s="3">
-        <v>446200</v>
+        <v>-1022300</v>
       </c>
       <c r="J14" s="3">
+        <v>424500</v>
+      </c>
+      <c r="K14" s="3">
         <v>1173800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>115200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5265000</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2554000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-858900</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1202,8 +1221,11 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,8 +1295,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1322,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>34305800</v>
+        <v>31249100</v>
       </c>
       <c r="E17" s="3">
-        <v>31496800</v>
+        <v>32638800</v>
       </c>
       <c r="F17" s="3">
-        <v>64598200</v>
+        <v>29966200</v>
       </c>
       <c r="G17" s="3">
-        <v>39166900</v>
+        <v>61459200</v>
       </c>
       <c r="H17" s="3">
-        <v>35858200</v>
+        <v>29856200</v>
       </c>
       <c r="I17" s="3">
-        <v>31755300</v>
+        <v>34115800</v>
       </c>
       <c r="J17" s="3">
+        <v>30212200</v>
+      </c>
+      <c r="K17" s="3">
         <v>59053100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>41356700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>54449200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>49817900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>52151000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>44270200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>51904500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>42365700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>41811800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>40518400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>45339600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>42011800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>42363000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>41665600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>44481500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>40581000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4137800</v>
+        <v>4930000</v>
       </c>
       <c r="E18" s="3">
-        <v>3027300</v>
+        <v>3936800</v>
       </c>
       <c r="F18" s="3">
-        <v>8499300</v>
+        <v>2880200</v>
       </c>
       <c r="G18" s="3">
-        <v>5578900</v>
+        <v>8086300</v>
       </c>
       <c r="H18" s="3">
-        <v>4160700</v>
+        <v>4272000</v>
       </c>
       <c r="I18" s="3">
-        <v>2739300</v>
+        <v>3958600</v>
       </c>
       <c r="J18" s="3">
+        <v>2606200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-717800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>671800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>567400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3187400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1977500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3216600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3230500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2172000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2938200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3165500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3593700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3703700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3878700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3622400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3645900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4724600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,363 +1498,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>289100</v>
+        <v>539700</v>
       </c>
       <c r="E20" s="3">
-        <v>207300</v>
+        <v>275000</v>
       </c>
       <c r="F20" s="3">
-        <v>1496700</v>
+        <v>197200</v>
       </c>
       <c r="G20" s="3">
-        <v>721100</v>
+        <v>1424000</v>
       </c>
       <c r="H20" s="3">
-        <v>401500</v>
+        <v>758700</v>
       </c>
       <c r="I20" s="3">
-        <v>41500</v>
+        <v>381900</v>
       </c>
       <c r="J20" s="3">
+        <v>39400</v>
+      </c>
+      <c r="K20" s="3">
         <v>169100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>66600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-61900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>158000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>232900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>171100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>615800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>516100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>242300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>117800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>316400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>807600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>409700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6171300</v>
+        <v>7141800</v>
       </c>
       <c r="E21" s="3">
-        <v>5103300</v>
+        <v>5871400</v>
       </c>
       <c r="F21" s="3">
-        <v>13997500</v>
+        <v>4855300</v>
       </c>
       <c r="G21" s="3">
-        <v>8281100</v>
+        <v>13317300</v>
       </c>
       <c r="H21" s="3">
-        <v>7059300</v>
+        <v>6915500</v>
       </c>
       <c r="I21" s="3">
-        <v>5198200</v>
+        <v>6716300</v>
       </c>
       <c r="J21" s="3">
+        <v>4945600</v>
+      </c>
+      <c r="K21" s="3">
         <v>4308000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2975200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3062100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5693800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>423500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5542000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5253300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4563300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4576500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5304400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5539300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5374300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5749100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>6060400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>5675400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>6385500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>105800</v>
+        <v>86100</v>
       </c>
       <c r="E22" s="3">
-        <v>93800</v>
+        <v>100700</v>
       </c>
       <c r="F22" s="3">
-        <v>209500</v>
+        <v>89300</v>
       </c>
       <c r="G22" s="3">
-        <v>101500</v>
+        <v>199300</v>
       </c>
       <c r="H22" s="3">
-        <v>66500</v>
+        <v>196200</v>
       </c>
       <c r="I22" s="3">
-        <v>52400</v>
+        <v>63300</v>
       </c>
       <c r="J22" s="3">
+        <v>49800</v>
+      </c>
+      <c r="K22" s="3">
         <v>176700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>128700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>150600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>191100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>222300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>250000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>282700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>190500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>157000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>116400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>115600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>108800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>98700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>97400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>111500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>71600</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4321100</v>
+        <v>5383600</v>
       </c>
       <c r="E23" s="3">
-        <v>3140700</v>
+        <v>4111100</v>
       </c>
       <c r="F23" s="3">
-        <v>9786600</v>
+        <v>2988100</v>
       </c>
       <c r="G23" s="3">
-        <v>6198600</v>
+        <v>9311000</v>
       </c>
       <c r="H23" s="3">
-        <v>4495600</v>
+        <v>4834500</v>
       </c>
       <c r="I23" s="3">
-        <v>2728400</v>
+        <v>4277200</v>
       </c>
       <c r="J23" s="3">
+        <v>2595800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-725500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>609700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>354900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3154300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1966900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3137600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2925300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2597300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2777900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3565200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3720500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3712700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4096400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4332500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3944000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>4648300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1694200</v>
+        <v>1661700</v>
       </c>
       <c r="E24" s="3">
-        <v>932700</v>
+        <v>1611900</v>
       </c>
       <c r="F24" s="3">
-        <v>2566900</v>
+        <v>887400</v>
       </c>
       <c r="G24" s="3">
-        <v>1428000</v>
+        <v>2442200</v>
       </c>
       <c r="H24" s="3">
-        <v>880400</v>
+        <v>1233000</v>
       </c>
       <c r="I24" s="3">
-        <v>752700</v>
+        <v>837600</v>
       </c>
       <c r="J24" s="3">
+        <v>716200</v>
+      </c>
+      <c r="K24" s="3">
         <v>468000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>420000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>367700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>933400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-505900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>567000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>983000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>646800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>774100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>980500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>112200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1202800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1277900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1219600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1354600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1448500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,150 +1940,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2626900</v>
+        <v>3721900</v>
       </c>
       <c r="E26" s="3">
-        <v>2208000</v>
+        <v>2499300</v>
       </c>
       <c r="F26" s="3">
-        <v>7219600</v>
+        <v>2100700</v>
       </c>
       <c r="G26" s="3">
-        <v>4770500</v>
+        <v>6868800</v>
       </c>
       <c r="H26" s="3">
-        <v>3615300</v>
+        <v>3601500</v>
       </c>
       <c r="I26" s="3">
-        <v>1975600</v>
+        <v>3439600</v>
       </c>
       <c r="J26" s="3">
+        <v>1879600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1193500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>189700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2220900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1461100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2570600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1942300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1950500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2003900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2584700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3608300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2509900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2818400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3112900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2589400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3199800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2491600</v>
+        <v>3622300</v>
       </c>
       <c r="E27" s="3">
-        <v>2104400</v>
+        <v>2370600</v>
       </c>
       <c r="F27" s="3">
-        <v>7033100</v>
+        <v>2002100</v>
       </c>
       <c r="G27" s="3">
-        <v>4680000</v>
+        <v>6691300</v>
       </c>
       <c r="H27" s="3">
-        <v>3501800</v>
+        <v>3526800</v>
       </c>
       <c r="I27" s="3">
-        <v>1854500</v>
+        <v>3331700</v>
       </c>
       <c r="J27" s="3">
+        <v>1764400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1375600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>106100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-127200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2105800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1562300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2506000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1846500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1870700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1895100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2495800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3513000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2407800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2742100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3001400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2522500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2105,38 +2162,41 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>11306200</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3">
-        <v>590200</v>
+        <v>10756800</v>
       </c>
       <c r="F29" s="3">
-        <v>1572000</v>
-      </c>
-      <c r="G29" s="3" t="s">
+        <v>561500</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1495600</v>
+      </c>
+      <c r="H29" s="3">
+        <v>925800</v>
+      </c>
+      <c r="I29" s="3">
+        <v>285400</v>
+      </c>
+      <c r="J29" s="3">
+        <v>362200</v>
+      </c>
+      <c r="K29" s="3">
+        <v>-704700</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
-        <v>300000</v>
-      </c>
-      <c r="I29" s="3">
-        <v>380700</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-704700</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -2176,8 +2236,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2310,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,150 +2384,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-289100</v>
+        <v>-539700</v>
       </c>
       <c r="E32" s="3">
-        <v>-207300</v>
+        <v>-275000</v>
       </c>
       <c r="F32" s="3">
-        <v>-1496700</v>
+        <v>-197200</v>
       </c>
       <c r="G32" s="3">
-        <v>-721100</v>
+        <v>-1424000</v>
       </c>
       <c r="H32" s="3">
-        <v>-401500</v>
+        <v>-758700</v>
       </c>
       <c r="I32" s="3">
-        <v>-41500</v>
+        <v>-381900</v>
       </c>
       <c r="J32" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-169100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-66600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>61900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-158000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-232900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-171100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>22500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-615800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-516100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-242300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-117800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-316400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-807600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-409700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>13797800</v>
+        <v>3622300</v>
       </c>
       <c r="E33" s="3">
-        <v>2694500</v>
+        <v>13127400</v>
       </c>
       <c r="F33" s="3">
-        <v>8605100</v>
+        <v>2563600</v>
       </c>
       <c r="G33" s="3">
-        <v>4680000</v>
+        <v>8187000</v>
       </c>
       <c r="H33" s="3">
-        <v>3801800</v>
+        <v>4452600</v>
       </c>
       <c r="I33" s="3">
-        <v>2235300</v>
+        <v>3617100</v>
       </c>
       <c r="J33" s="3">
+        <v>2126700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2080400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>106100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-127200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2105800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1562300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2506000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1846500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1870700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1895100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2495800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3513000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2407800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2742100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3001400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2522500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2606,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>13797800</v>
+        <v>3622300</v>
       </c>
       <c r="E35" s="3">
-        <v>2694500</v>
+        <v>13127400</v>
       </c>
       <c r="F35" s="3">
-        <v>8605100</v>
+        <v>2563600</v>
       </c>
       <c r="G35" s="3">
-        <v>4680000</v>
+        <v>8187000</v>
       </c>
       <c r="H35" s="3">
-        <v>3801800</v>
+        <v>4452600</v>
       </c>
       <c r="I35" s="3">
-        <v>2235300</v>
+        <v>3617100</v>
       </c>
       <c r="J35" s="3">
+        <v>2126700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2080400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>106100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-127200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2105800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1562300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2506000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1846500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1870700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1895100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2495800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3513000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2407800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2742100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3001400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2522500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2789,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,647 +2817,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>25221800</v>
+        <v>18632400</v>
       </c>
       <c r="E41" s="3">
-        <v>21769100</v>
+        <v>23996200</v>
       </c>
       <c r="F41" s="3">
-        <v>28560000</v>
+        <v>20711300</v>
       </c>
       <c r="G41" s="3">
-        <v>28315700</v>
+        <v>27172200</v>
       </c>
       <c r="H41" s="3">
-        <v>25143300</v>
+        <v>26939700</v>
       </c>
       <c r="I41" s="3">
-        <v>26725100</v>
+        <v>23921500</v>
       </c>
       <c r="J41" s="3">
+        <v>25426500</v>
+      </c>
+      <c r="K41" s="3">
         <v>23944400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18223700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22044200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20811400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14727400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19854500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>18752500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16629500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15738700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15435700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13544700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>19523700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14580300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15219600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>12889600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>16655200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10674600</v>
+        <v>10043800</v>
       </c>
       <c r="E42" s="3">
-        <v>8631300</v>
+        <v>10155900</v>
       </c>
       <c r="F42" s="3">
-        <v>8427300</v>
+        <v>8211900</v>
       </c>
       <c r="G42" s="3">
-        <v>9400400</v>
+        <v>8017800</v>
       </c>
       <c r="H42" s="3">
-        <v>8850600</v>
+        <v>8943600</v>
       </c>
       <c r="I42" s="3">
-        <v>11353100</v>
+        <v>8420500</v>
       </c>
       <c r="J42" s="3">
+        <v>10801400</v>
+      </c>
+      <c r="K42" s="3">
         <v>12316400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12354600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12399100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14216000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14361500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14671400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>13987800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>14208300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>15096400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>14413400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>14221200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>14027100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>13316900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>13057500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>14655000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>13659600</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>45101500</v>
+        <v>43935300</v>
       </c>
       <c r="E43" s="3">
-        <v>41997900</v>
+        <v>42909900</v>
       </c>
       <c r="F43" s="3">
-        <v>56487300</v>
+        <v>39957100</v>
       </c>
       <c r="G43" s="3">
-        <v>58817500</v>
+        <v>53742500</v>
       </c>
       <c r="H43" s="3">
-        <v>57954600</v>
+        <v>55959400</v>
       </c>
       <c r="I43" s="3">
-        <v>57267300</v>
+        <v>55138400</v>
       </c>
       <c r="J43" s="3">
+        <v>54484600</v>
+      </c>
+      <c r="K43" s="3">
         <v>60052400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>66036500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>73678700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>73756600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>69137000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>71465800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>68639000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>61167200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>57758100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>56931300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>57725300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>54084400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>53110500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>56567100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>56624600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>53759300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23417500</v>
+        <v>24853600</v>
       </c>
       <c r="E44" s="3">
-        <v>22580700</v>
+        <v>22279600</v>
       </c>
       <c r="F44" s="3">
-        <v>31543700</v>
+        <v>21483500</v>
       </c>
       <c r="G44" s="3">
-        <v>31443300</v>
+        <v>30010900</v>
       </c>
       <c r="H44" s="3">
-        <v>28848000</v>
+        <v>29915400</v>
       </c>
       <c r="I44" s="3">
-        <v>32218900</v>
+        <v>27446200</v>
       </c>
       <c r="J44" s="3">
+        <v>30653300</v>
+      </c>
+      <c r="K44" s="3">
         <v>32856000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>36349100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>34738600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>43550800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>39361200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>40078700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>34882500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>35582800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>32008900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>30281700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>28819400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>30246600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>29426400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>31289100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>29796000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>31845500</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7870900</v>
+        <v>7871400</v>
       </c>
       <c r="E45" s="3">
-        <v>61735700</v>
+        <v>7488400</v>
       </c>
       <c r="F45" s="3">
-        <v>5287600</v>
+        <v>58735800</v>
       </c>
       <c r="G45" s="3">
-        <v>5498200</v>
+        <v>5030700</v>
       </c>
       <c r="H45" s="3">
-        <v>4946200</v>
+        <v>5231000</v>
       </c>
       <c r="I45" s="3">
-        <v>4936400</v>
+        <v>4705800</v>
       </c>
       <c r="J45" s="3">
+        <v>4696500</v>
+      </c>
+      <c r="K45" s="3">
         <v>5824400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6492300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6334400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6844000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6686700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7071900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7594200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6833900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6323400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5979700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>5625700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>5643600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>5530300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>5720000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>5824400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>5884300</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>112286300</v>
+        <v>105336500</v>
       </c>
       <c r="E46" s="3">
-        <v>156714700</v>
+        <v>106830000</v>
       </c>
       <c r="F46" s="3">
-        <v>130305900</v>
+        <v>149099500</v>
       </c>
       <c r="G46" s="3">
-        <v>133475000</v>
+        <v>123974000</v>
       </c>
       <c r="H46" s="3">
-        <v>125742700</v>
+        <v>126989100</v>
       </c>
       <c r="I46" s="3">
-        <v>132500800</v>
+        <v>119632500</v>
       </c>
       <c r="J46" s="3">
+        <v>126062300</v>
+      </c>
+      <c r="K46" s="3">
         <v>134993600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>139456300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>149195000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>159178900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>144273700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>153142300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>143856000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>134421700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>126925500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>123041900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>119936200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>123525500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>115964400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>121853200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>119789700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>121803900</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>70469500</v>
+        <v>68075900</v>
       </c>
       <c r="E47" s="3">
-        <v>60402600</v>
+        <v>67045200</v>
       </c>
       <c r="F47" s="3">
-        <v>73771700</v>
+        <v>57467500</v>
       </c>
       <c r="G47" s="3">
-        <v>72560800</v>
+        <v>70186900</v>
       </c>
       <c r="H47" s="3">
-        <v>69933900</v>
+        <v>69034900</v>
       </c>
       <c r="I47" s="3">
-        <v>68918200</v>
+        <v>66535600</v>
       </c>
       <c r="J47" s="3">
+        <v>65569300</v>
+      </c>
+      <c r="K47" s="3">
         <v>67639700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>71835600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>73483800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>77947300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>73726200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>75553200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>70554100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>63870900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>63911300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>63030700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>62396100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>60986900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>59315100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>62174400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>59838500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>58128200</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>78905500</v>
+        <v>73975300</v>
       </c>
       <c r="E48" s="3">
-        <v>77843000</v>
+        <v>75071300</v>
       </c>
       <c r="F48" s="3">
-        <v>90679700</v>
+        <v>74060400</v>
       </c>
       <c r="G48" s="3">
-        <v>91096400</v>
+        <v>86273400</v>
       </c>
       <c r="H48" s="3">
-        <v>90325200</v>
+        <v>86669800</v>
       </c>
       <c r="I48" s="3">
-        <v>90323000</v>
+        <v>85936000</v>
       </c>
       <c r="J48" s="3">
+        <v>85934000</v>
+      </c>
+      <c r="K48" s="3">
         <v>93007700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>99163200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>103461700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>108140900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>101361000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>102096900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>95133500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>87098300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>85089500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>82541100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>84211000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>83246000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>82615500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>86853700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>86067300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>77534800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16369100</v>
+        <v>15610000</v>
       </c>
       <c r="E49" s="3">
-        <v>16226200</v>
+        <v>15573700</v>
       </c>
       <c r="F49" s="3">
-        <v>17993500</v>
+        <v>15437700</v>
       </c>
       <c r="G49" s="3">
-        <v>18016400</v>
+        <v>17119100</v>
       </c>
       <c r="H49" s="3">
-        <v>17889800</v>
+        <v>17140900</v>
       </c>
       <c r="I49" s="3">
-        <v>17923700</v>
+        <v>17020500</v>
       </c>
       <c r="J49" s="3">
+        <v>17052700</v>
+      </c>
+      <c r="K49" s="3">
         <v>18094900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18411100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>18652900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>19445500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>18096600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17974100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17508100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>16093400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>15661900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>15330300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>15410500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>14909000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>14512900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>14723100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>14200800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>12920100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3555,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,79 +3629,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5421800</v>
+        <v>4856300</v>
       </c>
       <c r="E52" s="3">
-        <v>4757500</v>
+        <v>5158400</v>
       </c>
       <c r="F52" s="3">
-        <v>6593500</v>
+        <v>4526300</v>
       </c>
       <c r="G52" s="3">
-        <v>7038600</v>
+        <v>6273100</v>
       </c>
       <c r="H52" s="3">
-        <v>7821800</v>
+        <v>6696500</v>
       </c>
       <c r="I52" s="3">
-        <v>7410600</v>
+        <v>7441700</v>
       </c>
       <c r="J52" s="3">
+        <v>7050500</v>
+      </c>
+      <c r="K52" s="3">
         <v>7826200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7225100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8275800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9373600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8618300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7099400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6075400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4853500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4945400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4596200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4540700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4130000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4270300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5344400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5325600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5596700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3777,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>283452200</v>
+        <v>267854000</v>
       </c>
       <c r="E54" s="3">
-        <v>315943900</v>
+        <v>269678600</v>
       </c>
       <c r="F54" s="3">
-        <v>319344300</v>
+        <v>300591400</v>
       </c>
       <c r="G54" s="3">
-        <v>322187200</v>
+        <v>303826500</v>
       </c>
       <c r="H54" s="3">
-        <v>311713400</v>
+        <v>306531300</v>
       </c>
       <c r="I54" s="3">
-        <v>317076300</v>
+        <v>296566400</v>
       </c>
       <c r="J54" s="3">
+        <v>301668700</v>
+      </c>
+      <c r="K54" s="3">
         <v>321562100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>336091300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>353069100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>374086200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>346075700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>355865900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>333127100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>306337800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>296533600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>288540100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>286494500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>286797500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>276678200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>290948800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>285221700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>275983900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +3881,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,434 +3909,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11623600</v>
+        <v>13073400</v>
       </c>
       <c r="E57" s="3">
-        <v>12369800</v>
+        <v>11058800</v>
       </c>
       <c r="F57" s="3">
-        <v>16685500</v>
+        <v>11768700</v>
       </c>
       <c r="G57" s="3">
-        <v>16856700</v>
+        <v>15874700</v>
       </c>
       <c r="H57" s="3">
-        <v>13503300</v>
+        <v>16037600</v>
       </c>
       <c r="I57" s="3">
-        <v>16229500</v>
+        <v>12847100</v>
       </c>
       <c r="J57" s="3">
+        <v>15440800</v>
+      </c>
+      <c r="K57" s="3">
         <v>14907300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16007300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14834300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>19806900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>17874200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18854500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>16779400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>18182400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>17256200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>16321800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>13969900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>17054200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>15677600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>16264300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>13577500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>16265500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>57054600</v>
+        <v>53988400</v>
       </c>
       <c r="E58" s="3">
-        <v>58564400</v>
+        <v>54282200</v>
       </c>
       <c r="F58" s="3">
-        <v>66579300</v>
+        <v>55718600</v>
       </c>
       <c r="G58" s="3">
-        <v>67463000</v>
+        <v>63344100</v>
       </c>
       <c r="H58" s="3">
-        <v>64694200</v>
+        <v>64184800</v>
       </c>
       <c r="I58" s="3">
-        <v>64967000</v>
+        <v>61550600</v>
       </c>
       <c r="J58" s="3">
+        <v>61810100</v>
+      </c>
+      <c r="K58" s="3">
         <v>67309100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>69577400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>73081000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>73815400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>76598900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>71390400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>66526300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>58944300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>55475400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>53963400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>54692500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>50942800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>50789100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>51668800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>55507100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>52715800</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>26967300</v>
+        <v>26497600</v>
       </c>
       <c r="E59" s="3">
-        <v>50009500</v>
+        <v>25656900</v>
       </c>
       <c r="F59" s="3">
-        <v>30380800</v>
+        <v>47579400</v>
       </c>
       <c r="G59" s="3">
-        <v>32449100</v>
+        <v>28904500</v>
       </c>
       <c r="H59" s="3">
-        <v>30685100</v>
+        <v>30872300</v>
       </c>
       <c r="I59" s="3">
-        <v>29750200</v>
+        <v>29194100</v>
       </c>
       <c r="J59" s="3">
+        <v>28304600</v>
+      </c>
+      <c r="K59" s="3">
         <v>30718900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>31595600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>35599000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>37231100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>34426200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>34375200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>32561700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>30066900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>28935600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>28596300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>29650800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>27662700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>26797600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>34037000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>30051900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>28641000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>95645500</v>
+        <v>93559400</v>
       </c>
       <c r="E60" s="3">
-        <v>120943700</v>
+        <v>90997900</v>
       </c>
       <c r="F60" s="3">
-        <v>113645500</v>
+        <v>115066800</v>
       </c>
       <c r="G60" s="3">
-        <v>116768800</v>
+        <v>108123200</v>
       </c>
       <c r="H60" s="3">
-        <v>108882600</v>
+        <v>111094700</v>
       </c>
       <c r="I60" s="3">
-        <v>110946600</v>
+        <v>103591800</v>
       </c>
       <c r="J60" s="3">
+        <v>105555500</v>
+      </c>
+      <c r="K60" s="3">
         <v>112935400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>117180300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>123514300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>130853400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>128899300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>124620100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>115867400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>107193500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>101667100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>98881500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>98313300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>95659700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>93264300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>101970000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>99136500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>97622300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>80228800</v>
+        <v>68721400</v>
       </c>
       <c r="E61" s="3">
-        <v>84031700</v>
+        <v>76330300</v>
       </c>
       <c r="F61" s="3">
-        <v>89006300</v>
+        <v>79948400</v>
       </c>
       <c r="G61" s="3">
-        <v>92815700</v>
+        <v>84681200</v>
       </c>
       <c r="H61" s="3">
-        <v>94406300</v>
+        <v>88305600</v>
       </c>
       <c r="I61" s="3">
-        <v>101091400</v>
+        <v>89818800</v>
       </c>
       <c r="J61" s="3">
+        <v>96179100</v>
+      </c>
+      <c r="K61" s="3">
         <v>104608500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>109180600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>115782600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>121871800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>104687800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>113914100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>104878300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>97366900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>95093400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>88104600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>87939300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>88054900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>83288700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>86016800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>82633900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>78530200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27759300</v>
+        <v>24178900</v>
       </c>
       <c r="E62" s="3">
-        <v>28855700</v>
+        <v>26410400</v>
       </c>
       <c r="F62" s="3">
-        <v>37993100</v>
+        <v>27453500</v>
       </c>
       <c r="G62" s="3">
-        <v>38428400</v>
+        <v>36146900</v>
       </c>
       <c r="H62" s="3">
-        <v>40517500</v>
+        <v>36561100</v>
       </c>
       <c r="I62" s="3">
-        <v>41085900</v>
+        <v>38548600</v>
       </c>
       <c r="J62" s="3">
+        <v>39089400</v>
+      </c>
+      <c r="K62" s="3">
         <v>39810600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>38413100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>40411100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>44465900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>39810600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>36150400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>34247300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29170900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>29285900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>28112100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>27134200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>32700400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>32046300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>34324600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>34040500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>35561700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4425,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4348,8 +4499,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4573,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>204960200</v>
+        <v>187689700</v>
       </c>
       <c r="E66" s="3">
-        <v>235565700</v>
+        <v>195000700</v>
       </c>
       <c r="F66" s="3">
-        <v>242261700</v>
+        <v>224118900</v>
       </c>
       <c r="G66" s="3">
-        <v>249772600</v>
+        <v>230489600</v>
       </c>
       <c r="H66" s="3">
-        <v>245504900</v>
+        <v>237635500</v>
       </c>
       <c r="I66" s="3">
-        <v>254741700</v>
+        <v>233575200</v>
       </c>
       <c r="J66" s="3">
+        <v>242363100</v>
+      </c>
+      <c r="K66" s="3">
         <v>258926400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>266501500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>281455500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>298915900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>274922300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>276385600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>256632500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>235201100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>227401300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>216609000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>214834200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>217724400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>209829000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>223534500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>217199500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>212960800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4677,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4749,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,8 +4823,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4730,8 +4897,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +4971,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>61298200</v>
+        <v>63104300</v>
       </c>
       <c r="E72" s="3">
-        <v>64225100</v>
+        <v>58319600</v>
       </c>
       <c r="F72" s="3">
-        <v>61408400</v>
+        <v>61104300</v>
       </c>
       <c r="G72" s="3">
-        <v>56737100</v>
+        <v>58424400</v>
       </c>
       <c r="H72" s="3">
-        <v>51393900</v>
+        <v>53980100</v>
       </c>
       <c r="I72" s="3">
-        <v>47206900</v>
+        <v>48896500</v>
       </c>
       <c r="J72" s="3">
+        <v>44913000</v>
+      </c>
+      <c r="K72" s="3">
         <v>46949500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>52988700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>54084900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>56301800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>53332100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>61348300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>58541700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>54364300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>51995800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>54531100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>53354000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>50207900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>47608300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>47154300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>47865600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>42799500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5119,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5193,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5267,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>78492100</v>
+        <v>80164300</v>
       </c>
       <c r="E76" s="3">
-        <v>80378200</v>
+        <v>74677900</v>
       </c>
       <c r="F76" s="3">
-        <v>77082600</v>
+        <v>76472500</v>
       </c>
       <c r="G76" s="3">
-        <v>72414600</v>
+        <v>73337000</v>
       </c>
       <c r="H76" s="3">
-        <v>66208400</v>
+        <v>68895800</v>
       </c>
       <c r="I76" s="3">
-        <v>62334600</v>
+        <v>62991200</v>
       </c>
       <c r="J76" s="3">
+        <v>59305600</v>
+      </c>
+      <c r="K76" s="3">
         <v>62635700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>69589800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>71613600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>75170300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>71153400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>79480300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>76494600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>71136700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>69132300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>71931100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>71660400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>69073100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>66849300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>67414300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>68022300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>63023000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5415,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>13797800</v>
+        <v>3622300</v>
       </c>
       <c r="E81" s="3">
-        <v>2694500</v>
+        <v>13127400</v>
       </c>
       <c r="F81" s="3">
-        <v>8605100</v>
+        <v>2563600</v>
       </c>
       <c r="G81" s="3">
-        <v>4680000</v>
+        <v>8187000</v>
       </c>
       <c r="H81" s="3">
-        <v>3801800</v>
+        <v>4452600</v>
       </c>
       <c r="I81" s="3">
-        <v>2235300</v>
+        <v>3617100</v>
       </c>
       <c r="J81" s="3">
+        <v>2126700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2080400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>106100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-127200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2105800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1562300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2506000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1846500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1870700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1895100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2495800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3513000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2407800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2742100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3001400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2522500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3046000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,79 +5598,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1744400</v>
+        <v>1672100</v>
       </c>
       <c r="E83" s="3">
-        <v>1868700</v>
+        <v>1659600</v>
       </c>
       <c r="F83" s="3">
-        <v>4001500</v>
+        <v>1777900</v>
       </c>
       <c r="G83" s="3">
-        <v>1981100</v>
+        <v>3807000</v>
       </c>
       <c r="H83" s="3">
-        <v>2497100</v>
+        <v>1884800</v>
       </c>
       <c r="I83" s="3">
-        <v>2417500</v>
+        <v>2375800</v>
       </c>
       <c r="J83" s="3">
+        <v>2300000</v>
+      </c>
+      <c r="K83" s="3">
         <v>4856700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2236700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2556600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2348300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2168100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2154400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2045200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1775500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1641500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1622800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1703200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1552800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1554000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1630400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1619900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5744,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +5818,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +5892,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +5966,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6040,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4380000</v>
+        <v>2831400</v>
       </c>
       <c r="E89" s="3">
-        <v>9327300</v>
+        <v>4167200</v>
       </c>
       <c r="F89" s="3">
-        <v>13005800</v>
+        <v>8874000</v>
       </c>
       <c r="G89" s="3">
-        <v>5322500</v>
+        <v>12373800</v>
       </c>
       <c r="H89" s="3">
-        <v>5524400</v>
+        <v>5063900</v>
       </c>
       <c r="I89" s="3">
-        <v>9036000</v>
+        <v>5255900</v>
       </c>
       <c r="J89" s="3">
+        <v>8596900</v>
+      </c>
+      <c r="K89" s="3">
         <v>9801800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1704900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1550300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5343400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1856400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>741600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1387500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1982600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>161400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>892700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6133900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1456300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>535200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2394600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>332200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>946100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,79 +6144,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1351600</v>
+        <v>-887400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1206500</v>
+        <v>-1286000</v>
       </c>
       <c r="F91" s="3">
-        <v>-2437100</v>
+        <v>-1147900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1293800</v>
+        <v>-2318700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2084700</v>
+        <v>-1230900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1301500</v>
+        <v>-1983400</v>
       </c>
       <c r="J91" s="3">
+        <v>-1238200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2876700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1490400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2344200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2170700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2059900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1995300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3047200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2287200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1701900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1474600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2888000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1644800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1575300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5040300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3304300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2574200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6290,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6364,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2230900</v>
+        <v>-424500</v>
       </c>
       <c r="E94" s="3">
-        <v>-2276700</v>
+        <v>-2122500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2284400</v>
+        <v>-2166100</v>
       </c>
       <c r="G94" s="3">
-        <v>-814900</v>
+        <v>-2173400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1201100</v>
+        <v>-775300</v>
       </c>
       <c r="I94" s="3">
-        <v>-2782900</v>
+        <v>-1142700</v>
       </c>
       <c r="J94" s="3">
+        <v>-2647700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3020700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1581900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2874200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3519400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1775200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4501300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3564100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2627200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2518800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2461700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4470000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3543200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3049600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>401400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9085300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2905200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,8 +6468,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6248,19 +6481,19 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1575300</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1498700</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-1050500</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-999500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -6307,8 +6540,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6614,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6688,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,217 +6762,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4846900</v>
+        <v>-7933700</v>
       </c>
       <c r="E100" s="3">
-        <v>-8213500</v>
+        <v>-4611400</v>
       </c>
       <c r="F100" s="3">
-        <v>-7731300</v>
+        <v>-7814300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1806500</v>
+        <v>-7355600</v>
       </c>
       <c r="H100" s="3">
-        <v>-5502600</v>
+        <v>-1718800</v>
       </c>
       <c r="I100" s="3">
-        <v>-3624000</v>
+        <v>-5235200</v>
       </c>
       <c r="J100" s="3">
+        <v>-3447900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2597500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2931100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3891000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3175200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4644400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4367300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3080300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5461600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2378300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3870500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4680900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>7325500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3165100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-461300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>4831400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2236100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>259600</v>
+        <v>163000</v>
       </c>
       <c r="E101" s="3">
-        <v>262900</v>
+        <v>247000</v>
       </c>
       <c r="F101" s="3">
-        <v>426500</v>
+        <v>250100</v>
       </c>
       <c r="G101" s="3">
-        <v>471300</v>
+        <v>405800</v>
       </c>
       <c r="H101" s="3">
-        <v>-402500</v>
+        <v>448400</v>
       </c>
       <c r="I101" s="3">
-        <v>-485500</v>
+        <v>-383000</v>
       </c>
       <c r="J101" s="3">
+        <v>-461900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-201800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>40600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-356100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>476500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-235300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>283500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>88700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-98600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>282200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-120800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-56100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-295100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-618200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-4700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>156100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2438200</v>
+        <v>-5363900</v>
       </c>
       <c r="E102" s="3">
-        <v>-900000</v>
+        <v>-2319700</v>
       </c>
       <c r="F102" s="3">
-        <v>3416700</v>
+        <v>-856300</v>
       </c>
       <c r="G102" s="3">
-        <v>3172400</v>
+        <v>3250700</v>
       </c>
       <c r="H102" s="3">
-        <v>-1581800</v>
+        <v>3018200</v>
       </c>
       <c r="I102" s="3">
-        <v>2780700</v>
+        <v>-1505000</v>
       </c>
       <c r="J102" s="3">
+        <v>2645600</v>
+      </c>
+      <c r="K102" s="3">
         <v>3344700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3097100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2211100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5475700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4798500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>891200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>992500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>753200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>303000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2180600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-5979100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4943500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>32500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2330000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>235900</v>
       </c>
     </row>
